--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473680711575014</v>
+        <v>2.473680711574957</v>
       </c>
       <c r="C2">
-        <v>0.8580758663627819</v>
+        <v>0.8580758663628103</v>
       </c>
       <c r="D2">
-        <v>0.2283112983665774</v>
+        <v>0.22831129836662</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.472627974795344</v>
+        <v>1.472627974795358</v>
       </c>
       <c r="G2">
-        <v>0.8423362280690014</v>
+        <v>0.8423362280689872</v>
       </c>
       <c r="H2">
-        <v>0.4806247240596235</v>
+        <v>0.4806247240596093</v>
       </c>
       <c r="I2">
-        <v>1.9937857251156</v>
+        <v>1.993785725115615</v>
       </c>
       <c r="J2">
-        <v>0.7643487740037642</v>
+        <v>0.76434877400375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138434338605123</v>
+        <v>2.138434338604839</v>
       </c>
       <c r="C3">
-        <v>0.7400805448085634</v>
+        <v>0.7400805448083361</v>
       </c>
       <c r="D3">
-        <v>0.1973641172316007</v>
+        <v>0.1973641172315297</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0.7568580902321074</v>
       </c>
       <c r="H3">
-        <v>0.4498685594178795</v>
+        <v>0.4498685594178937</v>
       </c>
       <c r="I3">
-        <v>1.692507433907949</v>
+        <v>1.692507433908006</v>
       </c>
       <c r="J3">
-        <v>0.6603115862295894</v>
+        <v>0.6603115862295965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934785110031896</v>
+        <v>1.934785110031754</v>
       </c>
       <c r="C4">
-        <v>0.6687217528380245</v>
+        <v>0.6687217528380529</v>
       </c>
       <c r="D4">
-        <v>0.1787171353013406</v>
+        <v>0.1787171353012127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.202582731351143</v>
+        <v>1.202582731351114</v>
       </c>
       <c r="G4">
-        <v>0.7074778236166566</v>
+        <v>0.7074778236166637</v>
       </c>
       <c r="H4">
-        <v>0.433045736800814</v>
+        <v>0.4330457368008069</v>
       </c>
       <c r="I4">
-        <v>1.514279798693039</v>
+        <v>1.514279798693025</v>
       </c>
       <c r="J4">
-        <v>0.5971905850429096</v>
+        <v>0.5971905850429238</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852243383713727</v>
+        <v>1.852243383713642</v>
       </c>
       <c r="C5">
-        <v>0.6398662887248179</v>
+        <v>0.6398662887246758</v>
       </c>
       <c r="D5">
         <v>0.1711896663228316</v>
@@ -547,10 +547,10 @@
         <v>0.4266572381295646</v>
       </c>
       <c r="I5">
-        <v>1.443054517191186</v>
+        <v>1.443054517191172</v>
       </c>
       <c r="J5">
-        <v>0.5716231872564634</v>
+        <v>0.5716231872564279</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.8385615471893</v>
+        <v>1.838561547189357</v>
       </c>
       <c r="C6">
         <v>0.635087012984684</v>
       </c>
       <c r="D6">
-        <v>0.1699435687981889</v>
+        <v>0.16994356879826</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0.6848612240350889</v>
       </c>
       <c r="H6">
-        <v>0.4256232321335816</v>
+        <v>0.4256232321335602</v>
       </c>
       <c r="I6">
-        <v>1.431304558568542</v>
+        <v>1.431304558568513</v>
       </c>
       <c r="J6">
-        <v>0.5673861267367712</v>
+        <v>0.5673861267367855</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>1.933670243567434</v>
       </c>
       <c r="C7">
-        <v>0.668331754203848</v>
+        <v>0.6683317542037059</v>
       </c>
       <c r="D7">
-        <v>0.1786153502067549</v>
+        <v>0.1786153502067691</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,16 +617,16 @@
         <v>1.202045946414302</v>
       </c>
       <c r="G7">
-        <v>0.7072130891840871</v>
+        <v>0.7072130891840729</v>
       </c>
       <c r="H7">
-        <v>0.4329577527353905</v>
+        <v>0.4329577527353692</v>
       </c>
       <c r="I7">
-        <v>1.51331390519195</v>
+        <v>1.513313905191936</v>
       </c>
       <c r="J7">
-        <v>0.5968451912766497</v>
+        <v>0.5968451912766355</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357565762410047</v>
+        <v>2.357565762410104</v>
       </c>
       <c r="C8">
-        <v>0.8171323538289812</v>
+        <v>0.8171323538288675</v>
       </c>
       <c r="D8">
-        <v>0.2175554818732621</v>
+        <v>0.2175554818734184</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0.8121634980032226</v>
       </c>
       <c r="H8">
-        <v>0.4695593413205614</v>
+        <v>0.4695593413205543</v>
       </c>
       <c r="I8">
-        <v>1.888310131738393</v>
+        <v>1.888310131738351</v>
       </c>
       <c r="J8">
         <v>0.7282965305686844</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.211680245597279</v>
+        <v>3.211680245597336</v>
       </c>
       <c r="C9">
-        <v>1.120237993818876</v>
+        <v>1.120237993819046</v>
       </c>
       <c r="D9">
-        <v>0.2977067388479497</v>
+        <v>0.2977067388476229</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.87374120929276</v>
+        <v>1.873741209292746</v>
       </c>
       <c r="G9">
         <v>1.047132002574287</v>
       </c>
       <c r="H9">
-        <v>0.5603548915547307</v>
+        <v>0.5603548915547449</v>
       </c>
       <c r="I9">
-        <v>2.693450639330607</v>
+        <v>2.693450639330621</v>
       </c>
       <c r="J9">
-        <v>0.9939574009668632</v>
+        <v>0.9939574009668348</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.862141184934273</v>
+        <v>3.86214118493433</v>
       </c>
       <c r="C10">
-        <v>1.354259841454279</v>
+        <v>1.354259841454223</v>
       </c>
       <c r="D10">
-        <v>0.3606187944185706</v>
+        <v>0.3606187944184711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.254923635515325</v>
+        <v>2.25492363551534</v>
       </c>
       <c r="G10">
-        <v>1.245026697452701</v>
+        <v>1.245026697452715</v>
       </c>
       <c r="H10">
         <v>0.6430350575580803</v>
       </c>
       <c r="I10">
-        <v>3.35597414870108</v>
+        <v>3.355974148701051</v>
       </c>
       <c r="J10">
-        <v>1.197044944439398</v>
+        <v>1.197044944439412</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.165556880882889</v>
+        <v>4.165556880882946</v>
       </c>
       <c r="C11">
-        <v>1.464450119996741</v>
+        <v>1.464450119996798</v>
       </c>
       <c r="D11">
-        <v>0.3906392903503644</v>
+        <v>0.3906392903502507</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.44134176615762</v>
+        <v>2.441341766157635</v>
       </c>
       <c r="G11">
         <v>1.342649669511658</v>
       </c>
       <c r="H11">
-        <v>0.68534515522785</v>
+        <v>0.6853451552278571</v>
       </c>
       <c r="I11">
-        <v>3.681554277184645</v>
+        <v>3.681554277184702</v>
       </c>
       <c r="J11">
         <v>1.292025139642661</v>
@@ -795,10 +795,10 @@
         <v>4.281797232865017</v>
       </c>
       <c r="C12">
-        <v>1.506848286570005</v>
+        <v>1.506848286569948</v>
       </c>
       <c r="D12">
-        <v>0.4022687382196892</v>
+        <v>0.4022687382200445</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0.7021719857278654</v>
       </c>
       <c r="I12">
-        <v>3.809324547560649</v>
+        <v>3.809324547560621</v>
       </c>
       <c r="J12">
         <v>1.328456733910173</v>
@@ -833,22 +833,22 @@
         <v>4.256698247446991</v>
       </c>
       <c r="C13">
-        <v>1.497684728382922</v>
+        <v>1.497684728382978</v>
       </c>
       <c r="D13">
-        <v>0.3997513608987049</v>
+        <v>0.3997513608987902</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.498407565990306</v>
+        <v>2.498407565990362</v>
       </c>
       <c r="G13">
-        <v>1.372625281410876</v>
+        <v>1.37262528141089</v>
       </c>
       <c r="H13">
-        <v>0.6985098605507289</v>
+        <v>0.6985098605507361</v>
       </c>
       <c r="I13">
         <v>3.781588503605249</v>
@@ -871,28 +871,28 @@
         <v>4.175091413836242</v>
       </c>
       <c r="C14">
-        <v>1.467923899916059</v>
+        <v>1.467923899916116</v>
       </c>
       <c r="D14">
-        <v>0.3915904087451452</v>
+        <v>0.3915904087450741</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.44728839698297</v>
+        <v>2.447288396982955</v>
       </c>
       <c r="G14">
-        <v>1.345771431617848</v>
+        <v>1.345771431617862</v>
       </c>
       <c r="H14">
         <v>0.6867125348363956</v>
       </c>
       <c r="I14">
-        <v>3.691969429715897</v>
+        <v>3.691969429715954</v>
       </c>
       <c r="J14">
-        <v>1.295012478990955</v>
+        <v>1.295012478990941</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.125288575387628</v>
+        <v>4.125288575387913</v>
       </c>
       <c r="C15">
-        <v>1.449786515959147</v>
+        <v>1.44978651595909</v>
       </c>
       <c r="D15">
-        <v>0.3866276964185005</v>
+        <v>0.386627696418401</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>2.416286319424216</v>
       </c>
       <c r="G15">
-        <v>1.329501435754153</v>
+        <v>1.329501435754139</v>
       </c>
       <c r="H15">
-        <v>0.6795954735777769</v>
+        <v>0.6795954735777698</v>
       </c>
       <c r="I15">
-        <v>3.63769332338353</v>
+        <v>3.637693323383488</v>
       </c>
       <c r="J15">
         <v>1.279410190228717</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.842484724884685</v>
+        <v>3.842484724884741</v>
       </c>
       <c r="C16">
         <v>1.347144593460143</v>
       </c>
       <c r="D16">
-        <v>0.358689820369591</v>
+        <v>0.3586898203696762</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>1.238817686789289</v>
       </c>
       <c r="H16">
-        <v>0.6403749742977212</v>
+        <v>0.6403749742977283</v>
       </c>
       <c r="I16">
-        <v>3.335262787414067</v>
+        <v>3.335262787414024</v>
       </c>
       <c r="J16">
-        <v>1.190897359982571</v>
+        <v>1.190897359982557</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.671089321367788</v>
+        <v>3.671089321367901</v>
       </c>
       <c r="C17">
-        <v>1.285219846700329</v>
+        <v>1.2852198467005</v>
       </c>
       <c r="D17">
-        <v>0.3419473161170004</v>
+        <v>0.3419473161169861</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.14034489473471</v>
+        <v>2.140344894734724</v>
       </c>
       <c r="G17">
-        <v>1.18527659211324</v>
+        <v>1.185276592113254</v>
       </c>
       <c r="H17">
         <v>0.6176015991480028</v>
       </c>
       <c r="I17">
-        <v>3.156555866532585</v>
+        <v>3.156555866532557</v>
       </c>
       <c r="J17">
         <v>1.137321372803314</v>
@@ -1023,7 +1023,7 @@
         <v>3.573196337238471</v>
       </c>
       <c r="C18">
-        <v>1.249944106769817</v>
+        <v>1.249944106769988</v>
       </c>
       <c r="D18">
         <v>0.3324449885186738</v>
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.082476628441668</v>
+        <v>2.08247662844164</v>
       </c>
       <c r="G18">
         <v>1.155180745883555</v>
       </c>
       <c r="H18">
-        <v>0.6049360775145232</v>
+        <v>0.604936077514509</v>
       </c>
       <c r="I18">
-        <v>3.055972040531003</v>
+        <v>3.055972040530989</v>
       </c>
       <c r="J18">
-        <v>1.106743630432433</v>
+        <v>1.106743630432447</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.540162680076321</v>
+        <v>3.540162680076264</v>
       </c>
       <c r="C19">
         <v>1.238055410988409</v>
       </c>
       <c r="D19">
-        <v>0.329248005091145</v>
+        <v>0.3292480050912303</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0.6007186291217508</v>
       </c>
       <c r="I19">
-        <v>3.022268485043725</v>
+        <v>3.022268485043739</v>
       </c>
       <c r="J19">
-        <v>1.096428885017218</v>
+        <v>1.09642888501719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.68926160581168</v>
+        <v>3.689261605811851</v>
       </c>
       <c r="C20">
-        <v>1.291775592630017</v>
+        <v>1.291775592630074</v>
       </c>
       <c r="D20">
-        <v>0.3437160062965177</v>
+        <v>0.3437160062966171</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.151149981272994</v>
+        <v>2.15114998127298</v>
       </c>
       <c r="G20">
-        <v>1.190902267622491</v>
+        <v>1.190902267622462</v>
       </c>
       <c r="H20">
         <v>0.6199801870483768</v>
       </c>
       <c r="I20">
-        <v>3.175345091360796</v>
+        <v>3.175345091360768</v>
       </c>
       <c r="J20">
-        <v>1.142999420764937</v>
+        <v>1.142999420764895</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.199022483851252</v>
+        <v>4.199022483851138</v>
       </c>
       <c r="C21">
-        <v>1.476645920768192</v>
+        <v>1.476645920768362</v>
       </c>
       <c r="D21">
-        <v>0.3939798209399328</v>
+        <v>0.3939798209400323</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.462237897046563</v>
+        <v>2.462237897046577</v>
       </c>
       <c r="G21">
         <v>1.353621334179564</v>
       </c>
       <c r="H21">
-        <v>0.6901546781400896</v>
+        <v>0.6901546781400967</v>
       </c>
       <c r="I21">
-        <v>3.718161675669336</v>
+        <v>3.718161675669307</v>
       </c>
       <c r="J21">
-        <v>1.302511244004236</v>
+        <v>1.302511244004279</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.540177842266189</v>
+        <v>4.540177842265962</v>
       </c>
       <c r="C22">
-        <v>1.601470949006227</v>
+        <v>1.601470949006625</v>
       </c>
       <c r="D22">
         <v>0.428395365479588</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.679076297098788</v>
+        <v>2.679076297098817</v>
       </c>
       <c r="G22">
         <v>1.46777785725574</v>
@@ -1193,7 +1193,7 @@
         <v>0.7407918548204435</v>
       </c>
       <c r="I22">
-        <v>4.099740946314043</v>
+        <v>4.099740946314014</v>
       </c>
       <c r="J22">
         <v>1.409528430770777</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.357262509243924</v>
+        <v>4.357262509243867</v>
       </c>
       <c r="C23">
-        <v>1.534429989759246</v>
+        <v>1.53442998975919</v>
       </c>
       <c r="D23">
-        <v>0.4098591798316278</v>
+        <v>0.4098591798317699</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>2.561948383125696</v>
       </c>
       <c r="G23">
-        <v>1.406048303347077</v>
+        <v>1.406048303347049</v>
       </c>
       <c r="H23">
-        <v>0.7132783800530902</v>
+        <v>0.7132783800530831</v>
       </c>
       <c r="I23">
-        <v>3.893216563998024</v>
+        <v>3.893216563998052</v>
       </c>
       <c r="J23">
-        <v>1.352122224322358</v>
+        <v>1.352122224322329</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.681043927518658</v>
+        <v>3.681043927518544</v>
       </c>
       <c r="C24">
-        <v>1.28881073539327</v>
+        <v>1.288810735393042</v>
       </c>
       <c r="D24">
-        <v>0.3429160021094617</v>
+        <v>0.3429160021095896</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>2.146261387355324</v>
       </c>
       <c r="G24">
-        <v>1.188356780227849</v>
+        <v>1.188356780227835</v>
       </c>
       <c r="H24">
         <v>0.6189035062124759</v>
       </c>
       <c r="I24">
-        <v>3.166843835052859</v>
+        <v>3.166843835052873</v>
       </c>
       <c r="J24">
-        <v>1.140431684805904</v>
+        <v>1.140431684805918</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977330105408782</v>
+        <v>2.977330105408669</v>
       </c>
       <c r="C25">
-        <v>1.036617695517123</v>
+        <v>1.03661769551718</v>
       </c>
       <c r="D25">
-        <v>0.2754634842373065</v>
+        <v>0.2754634842372354</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.742663841818427</v>
+        <v>1.742663841818441</v>
       </c>
       <c r="G25">
-        <v>0.9797466096853213</v>
+        <v>0.9797466096853071</v>
       </c>
       <c r="H25">
-        <v>0.533347034787397</v>
+        <v>0.5333470347874112</v>
       </c>
       <c r="I25">
-        <v>2.465610578311839</v>
+        <v>2.465610578311825</v>
       </c>
       <c r="J25">
-        <v>0.9209558123506412</v>
+        <v>0.920955812350627</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473680711574957</v>
+        <v>2.473680711575014</v>
       </c>
       <c r="C2">
-        <v>0.8580758663628103</v>
+        <v>0.8580758663627819</v>
       </c>
       <c r="D2">
-        <v>0.22831129836662</v>
+        <v>0.2283112983665774</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.472627974795358</v>
+        <v>1.472627974795344</v>
       </c>
       <c r="G2">
-        <v>0.8423362280689872</v>
+        <v>0.8423362280690014</v>
       </c>
       <c r="H2">
-        <v>0.4806247240596093</v>
+        <v>0.4806247240596235</v>
       </c>
       <c r="I2">
-        <v>1.993785725115615</v>
+        <v>1.9937857251156</v>
       </c>
       <c r="J2">
-        <v>0.76434877400375</v>
+        <v>0.7643487740037642</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138434338604839</v>
+        <v>2.138434338605123</v>
       </c>
       <c r="C3">
-        <v>0.7400805448083361</v>
+        <v>0.7400805448085634</v>
       </c>
       <c r="D3">
-        <v>0.1973641172315297</v>
+        <v>0.1973641172316007</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0.7568580902321074</v>
       </c>
       <c r="H3">
-        <v>0.4498685594178937</v>
+        <v>0.4498685594178795</v>
       </c>
       <c r="I3">
-        <v>1.692507433908006</v>
+        <v>1.692507433907949</v>
       </c>
       <c r="J3">
-        <v>0.6603115862295965</v>
+        <v>0.6603115862295894</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934785110031754</v>
+        <v>1.934785110031896</v>
       </c>
       <c r="C4">
-        <v>0.6687217528380529</v>
+        <v>0.6687217528380245</v>
       </c>
       <c r="D4">
-        <v>0.1787171353012127</v>
+        <v>0.1787171353013406</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.202582731351114</v>
+        <v>1.202582731351143</v>
       </c>
       <c r="G4">
-        <v>0.7074778236166637</v>
+        <v>0.7074778236166566</v>
       </c>
       <c r="H4">
-        <v>0.4330457368008069</v>
+        <v>0.433045736800814</v>
       </c>
       <c r="I4">
-        <v>1.514279798693025</v>
+        <v>1.514279798693039</v>
       </c>
       <c r="J4">
-        <v>0.5971905850429238</v>
+        <v>0.5971905850429096</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852243383713642</v>
+        <v>1.852243383713727</v>
       </c>
       <c r="C5">
-        <v>0.6398662887246758</v>
+        <v>0.6398662887248179</v>
       </c>
       <c r="D5">
         <v>0.1711896663228316</v>
@@ -547,10 +547,10 @@
         <v>0.4266572381295646</v>
       </c>
       <c r="I5">
-        <v>1.443054517191172</v>
+        <v>1.443054517191186</v>
       </c>
       <c r="J5">
-        <v>0.5716231872564279</v>
+        <v>0.5716231872564634</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838561547189357</v>
+        <v>1.8385615471893</v>
       </c>
       <c r="C6">
         <v>0.635087012984684</v>
       </c>
       <c r="D6">
-        <v>0.16994356879826</v>
+        <v>0.1699435687981889</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0.6848612240350889</v>
       </c>
       <c r="H6">
-        <v>0.4256232321335602</v>
+        <v>0.4256232321335816</v>
       </c>
       <c r="I6">
-        <v>1.431304558568513</v>
+        <v>1.431304558568542</v>
       </c>
       <c r="J6">
-        <v>0.5673861267367855</v>
+        <v>0.5673861267367712</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>1.933670243567434</v>
       </c>
       <c r="C7">
-        <v>0.6683317542037059</v>
+        <v>0.668331754203848</v>
       </c>
       <c r="D7">
-        <v>0.1786153502067691</v>
+        <v>0.1786153502067549</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,16 +617,16 @@
         <v>1.202045946414302</v>
       </c>
       <c r="G7">
-        <v>0.7072130891840729</v>
+        <v>0.7072130891840871</v>
       </c>
       <c r="H7">
-        <v>0.4329577527353692</v>
+        <v>0.4329577527353905</v>
       </c>
       <c r="I7">
-        <v>1.513313905191936</v>
+        <v>1.51331390519195</v>
       </c>
       <c r="J7">
-        <v>0.5968451912766355</v>
+        <v>0.5968451912766497</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357565762410104</v>
+        <v>2.357565762410047</v>
       </c>
       <c r="C8">
-        <v>0.8171323538288675</v>
+        <v>0.8171323538289812</v>
       </c>
       <c r="D8">
-        <v>0.2175554818734184</v>
+        <v>0.2175554818732621</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0.8121634980032226</v>
       </c>
       <c r="H8">
-        <v>0.4695593413205543</v>
+        <v>0.4695593413205614</v>
       </c>
       <c r="I8">
-        <v>1.888310131738351</v>
+        <v>1.888310131738393</v>
       </c>
       <c r="J8">
         <v>0.7282965305686844</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.211680245597336</v>
+        <v>3.211680245597279</v>
       </c>
       <c r="C9">
-        <v>1.120237993819046</v>
+        <v>1.120237993818876</v>
       </c>
       <c r="D9">
-        <v>0.2977067388476229</v>
+        <v>0.2977067388479497</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.873741209292746</v>
+        <v>1.87374120929276</v>
       </c>
       <c r="G9">
         <v>1.047132002574287</v>
       </c>
       <c r="H9">
-        <v>0.5603548915547449</v>
+        <v>0.5603548915547307</v>
       </c>
       <c r="I9">
-        <v>2.693450639330621</v>
+        <v>2.693450639330607</v>
       </c>
       <c r="J9">
-        <v>0.9939574009668348</v>
+        <v>0.9939574009668632</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.86214118493433</v>
+        <v>3.862141184934273</v>
       </c>
       <c r="C10">
-        <v>1.354259841454223</v>
+        <v>1.354259841454279</v>
       </c>
       <c r="D10">
-        <v>0.3606187944184711</v>
+        <v>0.3606187944185706</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.25492363551534</v>
+        <v>2.254923635515325</v>
       </c>
       <c r="G10">
-        <v>1.245026697452715</v>
+        <v>1.245026697452701</v>
       </c>
       <c r="H10">
         <v>0.6430350575580803</v>
       </c>
       <c r="I10">
-        <v>3.355974148701051</v>
+        <v>3.35597414870108</v>
       </c>
       <c r="J10">
-        <v>1.197044944439412</v>
+        <v>1.197044944439398</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.165556880882946</v>
+        <v>4.165556880882889</v>
       </c>
       <c r="C11">
-        <v>1.464450119996798</v>
+        <v>1.464450119996741</v>
       </c>
       <c r="D11">
-        <v>0.3906392903502507</v>
+        <v>0.3906392903503644</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.441341766157635</v>
+        <v>2.44134176615762</v>
       </c>
       <c r="G11">
         <v>1.342649669511658</v>
       </c>
       <c r="H11">
-        <v>0.6853451552278571</v>
+        <v>0.68534515522785</v>
       </c>
       <c r="I11">
-        <v>3.681554277184702</v>
+        <v>3.681554277184645</v>
       </c>
       <c r="J11">
         <v>1.292025139642661</v>
@@ -795,10 +795,10 @@
         <v>4.281797232865017</v>
       </c>
       <c r="C12">
-        <v>1.506848286569948</v>
+        <v>1.506848286570005</v>
       </c>
       <c r="D12">
-        <v>0.4022687382200445</v>
+        <v>0.4022687382196892</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0.7021719857278654</v>
       </c>
       <c r="I12">
-        <v>3.809324547560621</v>
+        <v>3.809324547560649</v>
       </c>
       <c r="J12">
         <v>1.328456733910173</v>
@@ -833,22 +833,22 @@
         <v>4.256698247446991</v>
       </c>
       <c r="C13">
-        <v>1.497684728382978</v>
+        <v>1.497684728382922</v>
       </c>
       <c r="D13">
-        <v>0.3997513608987902</v>
+        <v>0.3997513608987049</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.498407565990362</v>
+        <v>2.498407565990306</v>
       </c>
       <c r="G13">
-        <v>1.37262528141089</v>
+        <v>1.372625281410876</v>
       </c>
       <c r="H13">
-        <v>0.6985098605507361</v>
+        <v>0.6985098605507289</v>
       </c>
       <c r="I13">
         <v>3.781588503605249</v>
@@ -871,28 +871,28 @@
         <v>4.175091413836242</v>
       </c>
       <c r="C14">
-        <v>1.467923899916116</v>
+        <v>1.467923899916059</v>
       </c>
       <c r="D14">
-        <v>0.3915904087450741</v>
+        <v>0.3915904087451452</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.447288396982955</v>
+        <v>2.44728839698297</v>
       </c>
       <c r="G14">
-        <v>1.345771431617862</v>
+        <v>1.345771431617848</v>
       </c>
       <c r="H14">
         <v>0.6867125348363956</v>
       </c>
       <c r="I14">
-        <v>3.691969429715954</v>
+        <v>3.691969429715897</v>
       </c>
       <c r="J14">
-        <v>1.295012478990941</v>
+        <v>1.295012478990955</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.125288575387913</v>
+        <v>4.125288575387628</v>
       </c>
       <c r="C15">
-        <v>1.44978651595909</v>
+        <v>1.449786515959147</v>
       </c>
       <c r="D15">
-        <v>0.386627696418401</v>
+        <v>0.3866276964185005</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>2.416286319424216</v>
       </c>
       <c r="G15">
-        <v>1.329501435754139</v>
+        <v>1.329501435754153</v>
       </c>
       <c r="H15">
-        <v>0.6795954735777698</v>
+        <v>0.6795954735777769</v>
       </c>
       <c r="I15">
-        <v>3.637693323383488</v>
+        <v>3.63769332338353</v>
       </c>
       <c r="J15">
         <v>1.279410190228717</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.842484724884741</v>
+        <v>3.842484724884685</v>
       </c>
       <c r="C16">
         <v>1.347144593460143</v>
       </c>
       <c r="D16">
-        <v>0.3586898203696762</v>
+        <v>0.358689820369591</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>1.238817686789289</v>
       </c>
       <c r="H16">
-        <v>0.6403749742977283</v>
+        <v>0.6403749742977212</v>
       </c>
       <c r="I16">
-        <v>3.335262787414024</v>
+        <v>3.335262787414067</v>
       </c>
       <c r="J16">
-        <v>1.190897359982557</v>
+        <v>1.190897359982571</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.671089321367901</v>
+        <v>3.671089321367788</v>
       </c>
       <c r="C17">
-        <v>1.2852198467005</v>
+        <v>1.285219846700329</v>
       </c>
       <c r="D17">
-        <v>0.3419473161169861</v>
+        <v>0.3419473161170004</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.140344894734724</v>
+        <v>2.14034489473471</v>
       </c>
       <c r="G17">
-        <v>1.185276592113254</v>
+        <v>1.18527659211324</v>
       </c>
       <c r="H17">
         <v>0.6176015991480028</v>
       </c>
       <c r="I17">
-        <v>3.156555866532557</v>
+        <v>3.156555866532585</v>
       </c>
       <c r="J17">
         <v>1.137321372803314</v>
@@ -1023,7 +1023,7 @@
         <v>3.573196337238471</v>
       </c>
       <c r="C18">
-        <v>1.249944106769988</v>
+        <v>1.249944106769817</v>
       </c>
       <c r="D18">
         <v>0.3324449885186738</v>
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.08247662844164</v>
+        <v>2.082476628441668</v>
       </c>
       <c r="G18">
         <v>1.155180745883555</v>
       </c>
       <c r="H18">
-        <v>0.604936077514509</v>
+        <v>0.6049360775145232</v>
       </c>
       <c r="I18">
-        <v>3.055972040530989</v>
+        <v>3.055972040531003</v>
       </c>
       <c r="J18">
-        <v>1.106743630432447</v>
+        <v>1.106743630432433</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.540162680076264</v>
+        <v>3.540162680076321</v>
       </c>
       <c r="C19">
         <v>1.238055410988409</v>
       </c>
       <c r="D19">
-        <v>0.3292480050912303</v>
+        <v>0.329248005091145</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0.6007186291217508</v>
       </c>
       <c r="I19">
-        <v>3.022268485043739</v>
+        <v>3.022268485043725</v>
       </c>
       <c r="J19">
-        <v>1.09642888501719</v>
+        <v>1.096428885017218</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.689261605811851</v>
+        <v>3.68926160581168</v>
       </c>
       <c r="C20">
-        <v>1.291775592630074</v>
+        <v>1.291775592630017</v>
       </c>
       <c r="D20">
-        <v>0.3437160062966171</v>
+        <v>0.3437160062965177</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.15114998127298</v>
+        <v>2.151149981272994</v>
       </c>
       <c r="G20">
-        <v>1.190902267622462</v>
+        <v>1.190902267622491</v>
       </c>
       <c r="H20">
         <v>0.6199801870483768</v>
       </c>
       <c r="I20">
-        <v>3.175345091360768</v>
+        <v>3.175345091360796</v>
       </c>
       <c r="J20">
-        <v>1.142999420764895</v>
+        <v>1.142999420764937</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.199022483851138</v>
+        <v>4.199022483851252</v>
       </c>
       <c r="C21">
-        <v>1.476645920768362</v>
+        <v>1.476645920768192</v>
       </c>
       <c r="D21">
-        <v>0.3939798209400323</v>
+        <v>0.3939798209399328</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.462237897046577</v>
+        <v>2.462237897046563</v>
       </c>
       <c r="G21">
         <v>1.353621334179564</v>
       </c>
       <c r="H21">
-        <v>0.6901546781400967</v>
+        <v>0.6901546781400896</v>
       </c>
       <c r="I21">
-        <v>3.718161675669307</v>
+        <v>3.718161675669336</v>
       </c>
       <c r="J21">
-        <v>1.302511244004279</v>
+        <v>1.302511244004236</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.540177842265962</v>
+        <v>4.540177842266189</v>
       </c>
       <c r="C22">
-        <v>1.601470949006625</v>
+        <v>1.601470949006227</v>
       </c>
       <c r="D22">
         <v>0.428395365479588</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.679076297098817</v>
+        <v>2.679076297098788</v>
       </c>
       <c r="G22">
         <v>1.46777785725574</v>
@@ -1193,7 +1193,7 @@
         <v>0.7407918548204435</v>
       </c>
       <c r="I22">
-        <v>4.099740946314014</v>
+        <v>4.099740946314043</v>
       </c>
       <c r="J22">
         <v>1.409528430770777</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.357262509243867</v>
+        <v>4.357262509243924</v>
       </c>
       <c r="C23">
-        <v>1.53442998975919</v>
+        <v>1.534429989759246</v>
       </c>
       <c r="D23">
-        <v>0.4098591798317699</v>
+        <v>0.4098591798316278</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>2.561948383125696</v>
       </c>
       <c r="G23">
-        <v>1.406048303347049</v>
+        <v>1.406048303347077</v>
       </c>
       <c r="H23">
-        <v>0.7132783800530831</v>
+        <v>0.7132783800530902</v>
       </c>
       <c r="I23">
-        <v>3.893216563998052</v>
+        <v>3.893216563998024</v>
       </c>
       <c r="J23">
-        <v>1.352122224322329</v>
+        <v>1.352122224322358</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.681043927518544</v>
+        <v>3.681043927518658</v>
       </c>
       <c r="C24">
-        <v>1.288810735393042</v>
+        <v>1.28881073539327</v>
       </c>
       <c r="D24">
-        <v>0.3429160021095896</v>
+        <v>0.3429160021094617</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>2.146261387355324</v>
       </c>
       <c r="G24">
-        <v>1.188356780227835</v>
+        <v>1.188356780227849</v>
       </c>
       <c r="H24">
         <v>0.6189035062124759</v>
       </c>
       <c r="I24">
-        <v>3.166843835052873</v>
+        <v>3.166843835052859</v>
       </c>
       <c r="J24">
-        <v>1.140431684805918</v>
+        <v>1.140431684805904</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977330105408669</v>
+        <v>2.977330105408782</v>
       </c>
       <c r="C25">
-        <v>1.03661769551718</v>
+        <v>1.036617695517123</v>
       </c>
       <c r="D25">
-        <v>0.2754634842372354</v>
+        <v>0.2754634842373065</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.742663841818441</v>
+        <v>1.742663841818427</v>
       </c>
       <c r="G25">
-        <v>0.9797466096853071</v>
+        <v>0.9797466096853213</v>
       </c>
       <c r="H25">
-        <v>0.5333470347874112</v>
+        <v>0.533347034787397</v>
       </c>
       <c r="I25">
-        <v>2.465610578311825</v>
+        <v>2.465610578311839</v>
       </c>
       <c r="J25">
-        <v>0.920955812350627</v>
+        <v>0.9209558123506412</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473680711575014</v>
+        <v>2.473645798953612</v>
       </c>
       <c r="C2">
-        <v>0.8580758663627819</v>
+        <v>0.857731292256716</v>
       </c>
       <c r="D2">
-        <v>0.2283112983665774</v>
+        <v>0.2285580363506057</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.472627974795344</v>
+        <v>1.47081124047817</v>
       </c>
       <c r="G2">
-        <v>0.8423362280690014</v>
+        <v>0.2685700540743596</v>
       </c>
       <c r="H2">
-        <v>0.4806247240596235</v>
+        <v>0.5763786442526424</v>
       </c>
       <c r="I2">
-        <v>1.9937857251156</v>
+        <v>0.4797409166840367</v>
       </c>
       <c r="J2">
-        <v>0.7643487740037642</v>
+        <v>1.993744736049862</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7642491004801499</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138434338605123</v>
+        <v>2.138430588861809</v>
       </c>
       <c r="C3">
-        <v>0.7400805448085634</v>
+        <v>0.7397943176670765</v>
       </c>
       <c r="D3">
-        <v>0.1973641172316007</v>
+        <v>0.1975780161663749</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.302198306490112</v>
+        <v>1.300597502903543</v>
       </c>
       <c r="G3">
-        <v>0.7568580902321074</v>
+        <v>0.2371771022109854</v>
       </c>
       <c r="H3">
-        <v>0.4498685594178795</v>
+        <v>0.5225509469769847</v>
       </c>
       <c r="I3">
-        <v>1.692507433907949</v>
+        <v>0.4490785926890055</v>
       </c>
       <c r="J3">
-        <v>0.6603115862295894</v>
+        <v>1.692485622215401</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6602339951183041</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934785110031896</v>
+        <v>1.93479701056151</v>
       </c>
       <c r="C4">
-        <v>0.6687217528380245</v>
+        <v>0.6684694909567952</v>
       </c>
       <c r="D4">
-        <v>0.1787171353013406</v>
+        <v>0.1789109074122024</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.202582731351143</v>
+        <v>1.201109599580818</v>
       </c>
       <c r="G4">
-        <v>0.7074778236166566</v>
+        <v>0.2189103789122839</v>
       </c>
       <c r="H4">
-        <v>0.433045736800814</v>
+        <v>0.4915899233590508</v>
       </c>
       <c r="I4">
-        <v>1.514279798693039</v>
+        <v>0.4323113315074636</v>
       </c>
       <c r="J4">
-        <v>0.5971905850429096</v>
+        <v>1.514267103423094</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5971253203872067</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852243383713727</v>
+        <v>1.852260914664271</v>
       </c>
       <c r="C5">
-        <v>0.6398662887248179</v>
+        <v>0.639627478118058</v>
       </c>
       <c r="D5">
-        <v>0.1711896663228316</v>
+        <v>0.1713752412268548</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.163100379663788</v>
+        <v>1.161678239855192</v>
       </c>
       <c r="G5">
-        <v>0.688048041814433</v>
+        <v>0.2116901183433981</v>
       </c>
       <c r="H5">
-        <v>0.4266572381295646</v>
+        <v>0.4794413676496561</v>
       </c>
       <c r="I5">
-        <v>1.443054517191186</v>
+        <v>0.4259450355699457</v>
       </c>
       <c r="J5">
-        <v>0.5716231872564634</v>
+        <v>1.443045012767143</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5715626837165928</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.8385615471893</v>
+        <v>1.838579971378664</v>
       </c>
       <c r="C6">
-        <v>0.635087012984684</v>
+        <v>0.6348504144831679</v>
       </c>
       <c r="D6">
-        <v>0.1699435687981889</v>
+        <v>0.1701277827071408</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.156607370096651</v>
+        <v>1.155193640235765</v>
       </c>
       <c r="G6">
-        <v>0.6848612240350889</v>
+        <v>0.2105038851213124</v>
       </c>
       <c r="H6">
-        <v>0.4256232321335816</v>
+        <v>0.4774508404455844</v>
       </c>
       <c r="I6">
-        <v>1.431304558568542</v>
+        <v>0.4249146918973139</v>
       </c>
       <c r="J6">
-        <v>0.5673861267367712</v>
+        <v>1.431295555952119</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5673263992283282</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933670243567434</v>
+        <v>1.933682222898454</v>
       </c>
       <c r="C7">
-        <v>0.668331754203848</v>
+        <v>0.6680796752141305</v>
       </c>
       <c r="D7">
-        <v>0.1786153502067549</v>
+        <v>0.1788090117546943</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.202045946414302</v>
+        <v>1.200573506288222</v>
       </c>
       <c r="G7">
-        <v>0.7072130891840871</v>
+        <v>0.2188121360775526</v>
       </c>
       <c r="H7">
-        <v>0.4329577527353905</v>
+        <v>0.491424258506278</v>
       </c>
       <c r="I7">
-        <v>1.51331390519195</v>
+        <v>0.4322236485575388</v>
       </c>
       <c r="J7">
-        <v>0.5968451912766497</v>
+        <v>1.513301254909464</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5967799918334009</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357565762410047</v>
+        <v>2.357542401226226</v>
       </c>
       <c r="C8">
-        <v>0.8171323538289812</v>
+        <v>0.8168083342563079</v>
       </c>
       <c r="D8">
-        <v>0.2175554818732621</v>
+        <v>0.2177908867195981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.412722436507423</v>
+        <v>1.41098130382619</v>
       </c>
       <c r="G8">
-        <v>0.8121634980032226</v>
+        <v>0.2575172418329501</v>
       </c>
       <c r="H8">
-        <v>0.4695593413205614</v>
+        <v>0.557348805245212</v>
       </c>
       <c r="I8">
-        <v>1.888310131738393</v>
+        <v>0.46870836780095</v>
       </c>
       <c r="J8">
-        <v>0.7282965305686844</v>
+        <v>1.888276404658924</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7282047577860737</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.211680245597279</v>
+        <v>3.211552980763202</v>
       </c>
       <c r="C9">
-        <v>1.120237993818876</v>
+        <v>1.119753922461143</v>
       </c>
       <c r="D9">
-        <v>0.2977067388479497</v>
+        <v>0.2980244729909316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.87374120929276</v>
+        <v>1.87142333247246</v>
       </c>
       <c r="G9">
-        <v>1.047132002574287</v>
+        <v>0.3429825013394918</v>
       </c>
       <c r="H9">
-        <v>0.5603548915547307</v>
+        <v>0.706167304701026</v>
       </c>
       <c r="I9">
-        <v>2.693450639330607</v>
+        <v>0.5592541894906589</v>
       </c>
       <c r="J9">
-        <v>0.9939574009668632</v>
+        <v>2.693345658568575</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.993801154792294</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.862141184934273</v>
+        <v>3.861904379568273</v>
       </c>
       <c r="C10">
-        <v>1.354259841454279</v>
+        <v>1.353639247495607</v>
       </c>
       <c r="D10">
-        <v>0.3606187944185706</v>
+        <v>0.3609974545935017</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.254923635515325</v>
+        <v>2.252132511887552</v>
       </c>
       <c r="G10">
-        <v>1.245026697452701</v>
+        <v>0.4141835279549753</v>
       </c>
       <c r="H10">
-        <v>0.6430350575580803</v>
+        <v>0.832304334200785</v>
       </c>
       <c r="I10">
-        <v>3.35597414870108</v>
+        <v>0.6417310200857997</v>
       </c>
       <c r="J10">
-        <v>1.197044944439398</v>
+        <v>3.355780673530489</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.196829288655778</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.165556880882889</v>
+        <v>4.165259347715391</v>
       </c>
       <c r="C11">
-        <v>1.464450119996741</v>
+        <v>1.463761058844739</v>
       </c>
       <c r="D11">
-        <v>0.3906392903503644</v>
+        <v>0.3910457313424729</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.44134176615762</v>
+        <v>2.438318706264269</v>
       </c>
       <c r="G11">
-        <v>1.342649669511658</v>
+        <v>0.4491282551856983</v>
       </c>
       <c r="H11">
-        <v>0.68534515522785</v>
+        <v>0.8947119391175846</v>
       </c>
       <c r="I11">
-        <v>3.681554277184645</v>
+        <v>0.6839420879476279</v>
       </c>
       <c r="J11">
-        <v>1.292025139642661</v>
+        <v>3.681306090849773</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.291778470466824</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.281797232865017</v>
+        <v>4.281474718202901</v>
       </c>
       <c r="C12">
-        <v>1.506848286570005</v>
+        <v>1.50613212785521</v>
       </c>
       <c r="D12">
-        <v>0.4022687382196892</v>
+        <v>0.4026856962086356</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.514209607679561</v>
+        <v>2.511095649376358</v>
       </c>
       <c r="G12">
-        <v>1.380932838744982</v>
+        <v>0.4628052945997467</v>
       </c>
       <c r="H12">
-        <v>0.7021719857278654</v>
+        <v>0.9192124410640616</v>
       </c>
       <c r="I12">
-        <v>3.809324547560649</v>
+        <v>0.7007302300172285</v>
       </c>
       <c r="J12">
-        <v>1.328456733910173</v>
+        <v>3.809052687850567</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.328197591517082</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.256698247446991</v>
+        <v>4.256381209273798</v>
       </c>
       <c r="C13">
-        <v>1.497684728382922</v>
+        <v>1.49697446256414</v>
       </c>
       <c r="D13">
-        <v>0.3997513608987049</v>
+        <v>0.400166054332189</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.498407565990306</v>
+        <v>2.495313333746736</v>
       </c>
       <c r="G13">
-        <v>1.372625281410876</v>
+        <v>0.4598385316094351</v>
       </c>
       <c r="H13">
-        <v>0.6985098605507289</v>
+        <v>0.9138945473232383</v>
       </c>
       <c r="I13">
-        <v>3.781588503605249</v>
+        <v>0.6970764946517534</v>
       </c>
       <c r="J13">
-        <v>1.32058819284255</v>
+        <v>3.781321892036843</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.320331772182527</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.175091413836242</v>
+        <v>4.174791868042973</v>
       </c>
       <c r="C14">
-        <v>1.467923899916059</v>
+        <v>1.467232634623826</v>
       </c>
       <c r="D14">
-        <v>0.3915904087451452</v>
+        <v>0.3919977151528826</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.44728839698297</v>
+        <v>2.444257924924784</v>
       </c>
       <c r="G14">
-        <v>1.345771431617848</v>
+        <v>0.4502440687284093</v>
       </c>
       <c r="H14">
-        <v>0.6867125348363956</v>
+        <v>0.896709264846919</v>
       </c>
       <c r="I14">
-        <v>3.691969429715897</v>
+        <v>0.6853063101221295</v>
       </c>
       <c r="J14">
-        <v>1.295012478990955</v>
+        <v>3.691719361400104</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.29476479930311</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.125288575387628</v>
+        <v>4.124999471187778</v>
       </c>
       <c r="C15">
-        <v>1.449786515959147</v>
+        <v>1.449106727745288</v>
       </c>
       <c r="D15">
-        <v>0.3866276964185005</v>
+        <v>0.387030477093063</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.416286319424216</v>
+        <v>2.413294479175804</v>
       </c>
       <c r="G15">
-        <v>1.329501435754153</v>
+        <v>0.4444276065733703</v>
       </c>
       <c r="H15">
-        <v>0.6795954735777769</v>
+        <v>0.886300691238759</v>
       </c>
       <c r="I15">
-        <v>3.63769332338353</v>
+        <v>0.678205710337771</v>
       </c>
       <c r="J15">
-        <v>1.279410190228717</v>
+        <v>3.637452970867983</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.279167764298293</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.842484724884685</v>
+        <v>3.842251635799016</v>
       </c>
       <c r="C16">
-        <v>1.347144593460143</v>
+        <v>1.346528325725387</v>
       </c>
       <c r="D16">
-        <v>0.358689820369591</v>
+        <v>0.3590666655142769</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.243035158722279</v>
+        <v>2.240258804257664</v>
       </c>
       <c r="G16">
-        <v>1.238817686789289</v>
+        <v>0.4119574152115888</v>
       </c>
       <c r="H16">
-        <v>0.6403749742977212</v>
+        <v>0.8283387218346689</v>
       </c>
       <c r="I16">
-        <v>3.335262787414067</v>
+        <v>0.6390772574718611</v>
       </c>
       <c r="J16">
-        <v>1.190897359982571</v>
+        <v>3.335072530061808</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.190683638418179</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.671089321367788</v>
+        <v>3.670887541785817</v>
       </c>
       <c r="C17">
-        <v>1.285219846700329</v>
+        <v>1.28464075669666</v>
       </c>
       <c r="D17">
-        <v>0.3419473161170004</v>
+        <v>0.342308261887041</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.14034489473471</v>
+        <v>2.137696046323072</v>
       </c>
       <c r="G17">
-        <v>1.18527659211324</v>
+        <v>0.3927420696783059</v>
       </c>
       <c r="H17">
-        <v>0.6176015991480028</v>
+        <v>0.7941624468907236</v>
       </c>
       <c r="I17">
-        <v>3.156555866532585</v>
+        <v>0.6163585200649919</v>
       </c>
       <c r="J17">
-        <v>1.137321372803314</v>
+        <v>3.156392121822975</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.137124141256322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573196337238471</v>
+        <v>3.573011570998233</v>
       </c>
       <c r="C18">
-        <v>1.249944106769817</v>
+        <v>1.249385820320583</v>
       </c>
       <c r="D18">
-        <v>0.3324449885186738</v>
+        <v>0.3327967967428549</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.082476628441668</v>
+        <v>2.079899600279973</v>
       </c>
       <c r="G18">
-        <v>1.155180745883555</v>
+        <v>0.3819249674972269</v>
       </c>
       <c r="H18">
-        <v>0.6049360775145232</v>
+        <v>0.774968082684623</v>
       </c>
       <c r="I18">
-        <v>3.055972040531003</v>
+        <v>0.6037238280066646</v>
       </c>
       <c r="J18">
-        <v>1.106743630432433</v>
+        <v>3.055822253469017</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.106555519584603</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.540162680076321</v>
+        <v>3.539983514294647</v>
       </c>
       <c r="C19">
-        <v>1.238055410988409</v>
+        <v>1.237504075305992</v>
       </c>
       <c r="D19">
-        <v>0.329248005091145</v>
+        <v>0.3295967209656538</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.063078043394313</v>
+        <v>2.060525089174305</v>
       </c>
       <c r="G19">
-        <v>1.145104930175961</v>
+        <v>0.3783007734078012</v>
       </c>
       <c r="H19">
-        <v>0.6007186291217508</v>
+        <v>0.7685447737826649</v>
       </c>
       <c r="I19">
-        <v>3.022268485043725</v>
+        <v>0.5995167220401996</v>
       </c>
       <c r="J19">
-        <v>1.096428885017218</v>
+        <v>3.022123223078751</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.096243803846605</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.68926160581168</v>
+        <v>3.689056598929255</v>
       </c>
       <c r="C20">
-        <v>1.291775592630017</v>
+        <v>1.291192606657319</v>
       </c>
       <c r="D20">
-        <v>0.3437160062965177</v>
+        <v>0.3440786438747807</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.151149981272994</v>
+        <v>2.148487720993685</v>
       </c>
       <c r="G20">
-        <v>1.190902267622491</v>
+        <v>0.394762744317191</v>
       </c>
       <c r="H20">
-        <v>0.6199801870483768</v>
+        <v>0.797751705031672</v>
       </c>
       <c r="I20">
-        <v>3.175345091360796</v>
+        <v>0.6187313550217226</v>
       </c>
       <c r="J20">
-        <v>1.142999420764937</v>
+        <v>3.175178663238654</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.142800472483842</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.199022483851252</v>
+        <v>4.198717857939357</v>
       </c>
       <c r="C21">
-        <v>1.476645920768192</v>
+        <v>1.47594910874119</v>
       </c>
       <c r="D21">
-        <v>0.3939798209399328</v>
+        <v>0.394389297338563</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.462237897046563</v>
+        <v>2.459188786763136</v>
       </c>
       <c r="G21">
-        <v>1.353621334179564</v>
+        <v>0.4530494405547074</v>
       </c>
       <c r="H21">
-        <v>0.6901546781400896</v>
+        <v>0.9017321205206343</v>
       </c>
       <c r="I21">
-        <v>3.718161675669336</v>
+        <v>0.6887405159782034</v>
       </c>
       <c r="J21">
-        <v>1.302511244004236</v>
+        <v>3.717906837332833</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.302261018136704</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.540177842266189</v>
+        <v>4.539796246103208</v>
       </c>
       <c r="C22">
-        <v>1.601470949006227</v>
+        <v>1.600692742931187</v>
       </c>
       <c r="D22">
-        <v>0.428395365479588</v>
+        <v>0.4288354197024944</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.679076297098788</v>
+        <v>2.675755990756443</v>
       </c>
       <c r="G22">
-        <v>1.46777785725574</v>
+        <v>0.4937817550054859</v>
       </c>
       <c r="H22">
-        <v>0.7407918548204435</v>
+        <v>0.9748422026581096</v>
       </c>
       <c r="I22">
-        <v>4.099740946314043</v>
+        <v>0.7392625431379898</v>
       </c>
       <c r="J22">
-        <v>1.409528430770777</v>
+        <v>4.099410369360513</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.409240333233029</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.357262509243924</v>
+        <v>4.356923251640751</v>
       </c>
       <c r="C23">
-        <v>1.534429989759246</v>
+        <v>1.533695971686143</v>
       </c>
       <c r="D23">
-        <v>0.4098591798316278</v>
+        <v>0.4102829250251858</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.561948383125696</v>
+        <v>2.558774780339263</v>
       </c>
       <c r="G23">
-        <v>1.406048303347077</v>
+        <v>0.4717705324509467</v>
       </c>
       <c r="H23">
-        <v>0.7132783800530902</v>
+        <v>0.935293500176499</v>
       </c>
       <c r="I23">
-        <v>3.893216563998024</v>
+        <v>0.7118112772923197</v>
       </c>
       <c r="J23">
-        <v>1.352122224322358</v>
+        <v>3.892928455431985</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.35185480274157</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.681043927518658</v>
+        <v>3.680840382742872</v>
       </c>
       <c r="C24">
-        <v>1.28881073539327</v>
+        <v>1.288229512546309</v>
       </c>
       <c r="D24">
-        <v>0.3429160021094617</v>
+        <v>0.3432778748105676</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.146261387355324</v>
+        <v>2.143605195157861</v>
       </c>
       <c r="G24">
-        <v>1.188356780227849</v>
+        <v>0.3938484863029714</v>
       </c>
       <c r="H24">
-        <v>0.6189035062124759</v>
+        <v>0.7961275977365574</v>
       </c>
       <c r="I24">
-        <v>3.166843835052859</v>
+        <v>0.6176572768878827</v>
       </c>
       <c r="J24">
-        <v>1.140431684805904</v>
+        <v>3.166678624043158</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.140233513769417</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977330105408782</v>
+        <v>2.977235748593898</v>
       </c>
       <c r="C25">
-        <v>1.036617695517123</v>
+        <v>1.036179619140114</v>
       </c>
       <c r="D25">
-        <v>0.2754634842373065</v>
+        <v>0.2757588729963345</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.742663841818427</v>
+        <v>1.740509046762199</v>
       </c>
       <c r="G25">
-        <v>0.9797466096853213</v>
+        <v>0.3185974438781045</v>
       </c>
       <c r="H25">
-        <v>0.533347034787397</v>
+        <v>0.6633599711623219</v>
       </c>
       <c r="I25">
-        <v>2.465610578311839</v>
+        <v>0.5323167559516193</v>
       </c>
       <c r="J25">
-        <v>0.9209558123506412</v>
+        <v>2.465529561843141</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9208187387278457</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.473645798953612</v>
+        <v>1.90772891506893</v>
       </c>
       <c r="C2">
-        <v>0.857731292256716</v>
+        <v>0.2470290337068661</v>
       </c>
       <c r="D2">
-        <v>0.2285580363506057</v>
+        <v>0.1389588962467769</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.47081124047817</v>
+        <v>7.430262333837845</v>
       </c>
       <c r="G2">
-        <v>0.2685700540743596</v>
+        <v>0.0008655112932476223</v>
       </c>
       <c r="H2">
-        <v>0.5763786442526424</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4797409166840367</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.993744736049862</v>
+        <v>0.1465533200603737</v>
       </c>
       <c r="K2">
-        <v>0.7642491004801499</v>
+        <v>0.4404069067721679</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07795707332115853</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.2933759713249842</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138430588861809</v>
+        <v>1.694155266632919</v>
       </c>
       <c r="C3">
-        <v>0.7397943176670765</v>
+        <v>0.210782431107603</v>
       </c>
       <c r="D3">
-        <v>0.1975780161663749</v>
+        <v>0.1209072595338228</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.300597502903543</v>
+        <v>6.77152063758453</v>
       </c>
       <c r="G3">
-        <v>0.2371771022109854</v>
+        <v>0.0008759753288885026</v>
       </c>
       <c r="H3">
-        <v>0.5225509469769847</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4490785926890055</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.692485622215401</v>
+        <v>0.1406038772724685</v>
       </c>
       <c r="K3">
-        <v>0.6602339951183041</v>
+        <v>0.3856814031408859</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07557741875956481</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2644087299755071</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.93479701056151</v>
+        <v>1.567686948108417</v>
       </c>
       <c r="C4">
-        <v>0.6684694909567952</v>
+        <v>0.1890887128787142</v>
       </c>
       <c r="D4">
-        <v>0.1789109074122024</v>
+        <v>0.1100131698545113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.201109599580818</v>
+        <v>6.375838765146312</v>
       </c>
       <c r="G4">
-        <v>0.2189103789122839</v>
+        <v>0.0008825538004963773</v>
       </c>
       <c r="H4">
-        <v>0.4915899233590508</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4323113315074636</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.514267103423094</v>
+        <v>0.1370168973377766</v>
       </c>
       <c r="K4">
-        <v>0.5971253203872067</v>
+        <v>0.35318931259701</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07431963254153473</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2473687447148798</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852260914664271</v>
+        <v>1.517205435068377</v>
       </c>
       <c r="C5">
-        <v>0.639627478118058</v>
+        <v>0.1803684767110951</v>
       </c>
       <c r="D5">
-        <v>0.1713752412268548</v>
+        <v>0.105613343405679</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.161678239855192</v>
+        <v>6.216516762997799</v>
       </c>
       <c r="G5">
-        <v>0.2116901183433981</v>
+        <v>0.0008852756324843398</v>
       </c>
       <c r="H5">
-        <v>0.4794413676496561</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4259450355699457</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.443045012767143</v>
+        <v>0.1355686917190759</v>
       </c>
       <c r="K5">
-        <v>0.5715626837165928</v>
+        <v>0.3401969697279554</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07385548656548835</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2405953456422907</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838579971378664</v>
+        <v>1.508883517384476</v>
       </c>
       <c r="C6">
-        <v>0.6348504144831679</v>
+        <v>0.1789271648932385</v>
       </c>
       <c r="D6">
-        <v>0.1701277827071408</v>
+        <v>0.1048849245485997</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.155193640235765</v>
+        <v>6.190169585611898</v>
       </c>
       <c r="G6">
-        <v>0.2105038851213124</v>
+        <v>0.0008857301376048124</v>
       </c>
       <c r="H6">
-        <v>0.4774508404455844</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4249146918973139</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.431295555952119</v>
+        <v>0.1353289500900239</v>
       </c>
       <c r="K6">
-        <v>0.5673263992283282</v>
+        <v>0.3380537684672262</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07378126496940141</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2394804596386777</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933682222898454</v>
+        <v>1.567002011652988</v>
       </c>
       <c r="C7">
-        <v>0.6680796752141305</v>
+        <v>0.1889706487549319</v>
       </c>
       <c r="D7">
-        <v>0.1788090117546943</v>
+        <v>0.1099536820764513</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.200573506288222</v>
+        <v>6.373682674725387</v>
       </c>
       <c r="G7">
-        <v>0.2188121360775526</v>
+        <v>0.0008825903387628307</v>
       </c>
       <c r="H7">
-        <v>0.491424258506278</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4322236485575388</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.513301254909464</v>
+        <v>0.1369973154594959</v>
       </c>
       <c r="K7">
-        <v>0.5967799918334009</v>
+        <v>0.3530131256291398</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07431318028732292</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2472767271673177</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357542401226226</v>
+        <v>1.833045303891566</v>
       </c>
       <c r="C8">
-        <v>0.8168083342563079</v>
+        <v>0.2344011724796928</v>
       </c>
       <c r="D8">
-        <v>0.2177908867195981</v>
+        <v>0.1326902096281515</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.41098130382619</v>
+        <v>7.201122090150477</v>
       </c>
       <c r="G8">
-        <v>0.2575172418329501</v>
+        <v>0.0008690889763418586</v>
       </c>
       <c r="H8">
-        <v>0.557348805245212</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.46870836780095</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.888276404658924</v>
+        <v>0.1444863059969492</v>
       </c>
       <c r="K8">
-        <v>0.7282047577860737</v>
+        <v>0.421287888409374</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07709264507312952</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.283222425088006</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.211552980763202</v>
+        <v>2.397803882640233</v>
       </c>
       <c r="C9">
-        <v>1.119753922461143</v>
+        <v>0.3290309858605553</v>
       </c>
       <c r="D9">
-        <v>0.2980244729909316</v>
+        <v>0.1791911670917585</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.87142333247246</v>
+        <v>8.90805675153112</v>
       </c>
       <c r="G9">
-        <v>0.3429825013394918</v>
+        <v>0.0008437072894277157</v>
       </c>
       <c r="H9">
-        <v>0.706167304701026</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5592541894906589</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.693345658568575</v>
+        <v>0.1598522334000023</v>
       </c>
       <c r="K9">
-        <v>0.993801154792294</v>
+        <v>0.56553768811564</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0842950785388723</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.3605003955876143</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.861904379568273</v>
+        <v>2.848610081482605</v>
       </c>
       <c r="C10">
-        <v>1.353639247495607</v>
+        <v>0.4036770305477546</v>
       </c>
       <c r="D10">
-        <v>0.3609974545935017</v>
+        <v>0.2151733259604214</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.252132511887552</v>
+        <v>10.236745227098</v>
       </c>
       <c r="G10">
-        <v>0.4141835279549753</v>
+        <v>0.0008255308055659481</v>
       </c>
       <c r="H10">
-        <v>0.832304334200785</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6417310200857997</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.355780673530489</v>
+        <v>0.1718056624692821</v>
       </c>
       <c r="K10">
-        <v>1.196829288655778</v>
+        <v>0.6803343993869362</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09087659036664775</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.4228061634308276</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.165259347715391</v>
+        <v>3.064053820365416</v>
       </c>
       <c r="C11">
-        <v>1.463761058844739</v>
+        <v>0.4392171594801368</v>
       </c>
       <c r="D11">
-        <v>0.3910457313424729</v>
+        <v>0.2321091881793933</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.438318706264269</v>
+        <v>10.86352328440535</v>
       </c>
       <c r="G11">
-        <v>0.4491282551856983</v>
+        <v>0.0008173127132836691</v>
       </c>
       <c r="H11">
-        <v>0.8947119391175846</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6839420879476279</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.681306090849773</v>
+        <v>0.1774541921004698</v>
       </c>
       <c r="K11">
-        <v>1.291778470466824</v>
+        <v>0.735140673604505</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09420997561253586</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.4527223935729765</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.281474718202901</v>
+        <v>3.147383309479608</v>
       </c>
       <c r="C12">
-        <v>1.50613212785521</v>
+        <v>0.4529500607397665</v>
       </c>
       <c r="D12">
-        <v>0.4026856962086356</v>
+        <v>0.2386209033259803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.511095649376358</v>
+        <v>11.10468495393729</v>
       </c>
       <c r="G12">
-        <v>0.4628052945997467</v>
+        <v>0.0008142029353910956</v>
       </c>
       <c r="H12">
-        <v>0.9192124410640616</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7007302300172285</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3.809052687850567</v>
+        <v>0.179630059766211</v>
       </c>
       <c r="K12">
-        <v>1.328197591517082</v>
+        <v>0.7563325723054106</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09552693525533584</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.4643139598842083</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.256381209273798</v>
+        <v>3.129354680599306</v>
       </c>
       <c r="C13">
-        <v>1.49697446256414</v>
+        <v>0.4499793874159081</v>
       </c>
       <c r="D13">
-        <v>0.400166054332189</v>
+        <v>0.2372138122159271</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.495313333746736</v>
+        <v>11.05256626328963</v>
       </c>
       <c r="G13">
-        <v>0.4598385316094351</v>
+        <v>0.0008148726704992598</v>
       </c>
       <c r="H13">
-        <v>0.9138945473232383</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6970764946517534</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3.781321892036843</v>
+        <v>0.1791596908797359</v>
       </c>
       <c r="K13">
-        <v>1.320331772182527</v>
+        <v>0.7517478676037825</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09524076894581412</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.461805165428288</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.174791868042973</v>
+        <v>3.070872798474397</v>
       </c>
       <c r="C14">
-        <v>1.467232634623826</v>
+        <v>0.4403411723668853</v>
       </c>
       <c r="D14">
-        <v>0.3919977151528826</v>
+        <v>0.2326428313018312</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.444257924924784</v>
+        <v>10.88328358276425</v>
       </c>
       <c r="G14">
-        <v>0.4502440687284093</v>
+        <v>0.0008170568568031111</v>
       </c>
       <c r="H14">
-        <v>0.896709264846919</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6853063101221295</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.691719361400104</v>
+        <v>0.17763242125028</v>
       </c>
       <c r="K14">
-        <v>1.29476479930311</v>
+        <v>0.7368749484057417</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09431718984382087</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.4536705374237044</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.124999471187778</v>
+        <v>3.035286537808588</v>
       </c>
       <c r="C15">
-        <v>1.449106727745288</v>
+        <v>0.4344747797409809</v>
       </c>
       <c r="D15">
-        <v>0.387030477093063</v>
+        <v>0.2298563430557863</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.413294479175804</v>
+        <v>10.78010919845127</v>
       </c>
       <c r="G15">
-        <v>0.4444276065733703</v>
+        <v>0.0008183948627350541</v>
       </c>
       <c r="H15">
-        <v>0.886300691238759</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.678205710337771</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3.637452970867983</v>
+        <v>0.1767019419322367</v>
       </c>
       <c r="K15">
-        <v>1.279167764298293</v>
+        <v>0.7278240407640624</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09375878197840137</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.4487232762365707</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.842251635799016</v>
+        <v>2.834759840314973</v>
       </c>
       <c r="C16">
-        <v>1.346528325725387</v>
+        <v>0.401390098416897</v>
       </c>
       <c r="D16">
-        <v>0.3590666655142769</v>
+        <v>0.2140793301239654</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.240258804257664</v>
+        <v>10.19628284207053</v>
       </c>
       <c r="G16">
-        <v>0.4119574152115888</v>
+        <v>0.0008260684808758746</v>
       </c>
       <c r="H16">
-        <v>0.8283387218346689</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6390772574718611</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.335072530061808</v>
+        <v>0.171441299168869</v>
       </c>
       <c r="K16">
-        <v>1.190683638418179</v>
+        <v>0.67681011858825</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09066605696887819</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.4208857310174778</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.670887541785817</v>
+        <v>2.71456795412297</v>
       </c>
       <c r="C17">
-        <v>1.28464075669666</v>
+        <v>0.3815302807030037</v>
       </c>
       <c r="D17">
-        <v>0.342308261887041</v>
+        <v>0.2045571941927591</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.137696046323072</v>
+        <v>9.844248362118805</v>
       </c>
       <c r="G17">
-        <v>0.3927420696783059</v>
+        <v>0.0008307855838168663</v>
       </c>
       <c r="H17">
-        <v>0.7941624468907236</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6163585200649919</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.156392121822975</v>
+        <v>0.168272430522947</v>
       </c>
       <c r="K17">
-        <v>1.137124141256322</v>
+        <v>0.6462206641514214</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08885960096655765</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4042355635685198</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573011570998233</v>
+        <v>2.646395419404143</v>
       </c>
       <c r="C18">
-        <v>1.249385820320583</v>
+        <v>0.3702532387439135</v>
       </c>
       <c r="D18">
-        <v>0.3327967967428549</v>
+        <v>0.199132570846956</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.079899600279973</v>
+        <v>9.643830391573943</v>
       </c>
       <c r="G18">
-        <v>0.3819249674972269</v>
+        <v>0.0008335038298558304</v>
       </c>
       <c r="H18">
-        <v>0.774968082684623</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6037238280066646</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.055822253469017</v>
+        <v>0.1664691788891375</v>
       </c>
       <c r="K18">
-        <v>1.106555519584603</v>
+        <v>0.6288651663480067</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08785212238689155</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.3948043777185077</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.539983514294647</v>
+        <v>2.623470904771068</v>
       </c>
       <c r="C19">
-        <v>1.237504075305992</v>
+        <v>0.3664587594304862</v>
       </c>
       <c r="D19">
-        <v>0.3295967209656538</v>
+        <v>0.1973043883011911</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.060525089174305</v>
+        <v>9.576309773154776</v>
       </c>
       <c r="G19">
-        <v>0.3783007734078012</v>
+        <v>0.0008344251969957915</v>
       </c>
       <c r="H19">
-        <v>0.7685447737826649</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5995167220401996</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.022123223078751</v>
+        <v>0.1658617766333279</v>
       </c>
       <c r="K19">
-        <v>1.096243803846605</v>
+        <v>0.6230280461546371</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08751626142316837</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.3916351109840193</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.689056598929255</v>
+        <v>2.727261651315075</v>
       </c>
       <c r="C20">
-        <v>1.291192606657319</v>
+        <v>0.3836289867455207</v>
       </c>
       <c r="D20">
-        <v>0.3440786438747807</v>
+        <v>0.2055653192055615</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.148487720993685</v>
+        <v>9.881505463336225</v>
       </c>
       <c r="G20">
-        <v>0.394762744317191</v>
+        <v>0.0008302829472092878</v>
       </c>
       <c r="H20">
-        <v>0.797751705031672</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6187313550217226</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.175178663238654</v>
+        <v>0.1686077100602077</v>
       </c>
       <c r="K20">
-        <v>1.142800472483842</v>
+        <v>0.6494518075502427</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08904859665793197</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4059926905485298</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.198717857939357</v>
+        <v>3.088000736661968</v>
       </c>
       <c r="C21">
-        <v>1.47594910874119</v>
+        <v>0.4431642828211864</v>
       </c>
       <c r="D21">
-        <v>0.394389297338563</v>
+        <v>0.233982619078148</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.459188786763136</v>
+        <v>10.93289723985828</v>
       </c>
       <c r="G21">
-        <v>0.4530494405547074</v>
+        <v>0.0008164152916491098</v>
       </c>
       <c r="H21">
-        <v>0.9017321205206343</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6887405159782034</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.717906837332833</v>
+        <v>0.1780799584795858</v>
       </c>
       <c r="K21">
-        <v>1.302261018136704</v>
+        <v>0.7412310173549486</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09458693197572643</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.4560524164669815</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.539796246103208</v>
+        <v>3.334088810901676</v>
       </c>
       <c r="C22">
-        <v>1.600692742931187</v>
+        <v>0.4837026155893227</v>
       </c>
       <c r="D22">
-        <v>0.4288354197024944</v>
+        <v>0.2531387733011314</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.675755990756443</v>
+        <v>11.6426252684962</v>
       </c>
       <c r="G22">
-        <v>0.4937817550054859</v>
+        <v>0.0008073620816255761</v>
       </c>
       <c r="H22">
-        <v>0.9748422026581096</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7392625431379898</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.099410369360513</v>
+        <v>0.1844895127403419</v>
       </c>
       <c r="K22">
-        <v>1.409240333233029</v>
+        <v>0.8038057611370419</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09852870544379044</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.490323516440796</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.356923251640751</v>
+        <v>3.201707062742173</v>
       </c>
       <c r="C23">
-        <v>1.533695971686143</v>
+        <v>0.4618998583484313</v>
       </c>
       <c r="D23">
-        <v>0.4102829250251858</v>
+        <v>0.2428550629714721</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.558774780339263</v>
+        <v>11.2615401452241</v>
       </c>
       <c r="G23">
-        <v>0.4717705324509467</v>
+        <v>0.0008121948970741629</v>
       </c>
       <c r="H23">
-        <v>0.935293500176499</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7118112772923197</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3.892928455431985</v>
+        <v>0.1810461253001279</v>
       </c>
       <c r="K23">
-        <v>1.35185480274157</v>
+        <v>0.7701464613311089</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09639323496010377</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.4718764296319833</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.680840382742872</v>
+        <v>2.721519960907813</v>
       </c>
       <c r="C24">
-        <v>1.288229512546309</v>
+        <v>0.3826797271456428</v>
       </c>
       <c r="D24">
-        <v>0.3432778748105676</v>
+        <v>0.2051093920744052</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.143605195157861</v>
+        <v>9.864655431726476</v>
       </c>
       <c r="G24">
-        <v>0.3938484863029714</v>
+        <v>0.0008305101692551745</v>
       </c>
       <c r="H24">
-        <v>0.7961275977365574</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6176572768878827</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.166678624043158</v>
+        <v>0.1684560728115301</v>
       </c>
       <c r="K24">
-        <v>1.140233513769417</v>
+        <v>0.6479902936325885</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08896305533910009</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.405197856278221</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977235748593898</v>
+        <v>2.239496517769339</v>
       </c>
       <c r="C25">
-        <v>1.036179619140114</v>
+        <v>0.3026727032922167</v>
       </c>
       <c r="D25">
-        <v>0.2757588729963345</v>
+        <v>0.1663442956848797</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.740509046762199</v>
+        <v>8.4350417601282</v>
       </c>
       <c r="G25">
-        <v>0.3185974438781045</v>
+        <v>0.0008504752747299608</v>
       </c>
       <c r="H25">
-        <v>0.6633599711623219</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5323167559516193</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.465529561843141</v>
+        <v>0.1555987785971773</v>
       </c>
       <c r="K25">
-        <v>0.9208187387278457</v>
+        <v>0.5251673384944695</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08213797620247476</v>
       </c>
       <c r="M25">
+        <v>0.3387355483513019</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.90772891506893</v>
+        <v>0.8729538862252468</v>
       </c>
       <c r="C2">
-        <v>0.2470290337068661</v>
+        <v>0.1121011753014116</v>
       </c>
       <c r="D2">
-        <v>0.1389588962467769</v>
+        <v>0.1201460631688462</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.430262333837845</v>
+        <v>0.611564663185824</v>
       </c>
       <c r="G2">
-        <v>0.0008655112932476223</v>
+        <v>0.3572099440940661</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3285278847109296</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3594963218404352</v>
       </c>
       <c r="J2">
-        <v>0.1465533200603737</v>
+        <v>0.08074575305304421</v>
       </c>
       <c r="K2">
-        <v>0.4404069067721679</v>
+        <v>0.7544751220484613</v>
       </c>
       <c r="L2">
-        <v>0.07795707332115853</v>
+        <v>0.1953591671953845</v>
       </c>
       <c r="M2">
-        <v>0.2933759713249842</v>
+        <v>0.2044923597920452</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9253241825862979</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.39210992432038</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.694155266632919</v>
+        <v>0.7603016415362731</v>
       </c>
       <c r="C3">
-        <v>0.210782431107603</v>
+        <v>0.1095330909381858</v>
       </c>
       <c r="D3">
-        <v>0.1209072595338228</v>
+        <v>0.111047340302413</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.77152063758453</v>
+        <v>0.6031563833570388</v>
       </c>
       <c r="G3">
-        <v>0.0008759753288885026</v>
+        <v>0.3534477589328091</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3316049365206339</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3648629427166981</v>
       </c>
       <c r="J3">
-        <v>0.1406038772724685</v>
+        <v>0.08247598701426639</v>
       </c>
       <c r="K3">
-        <v>0.3856814031408859</v>
+        <v>0.6581928369054708</v>
       </c>
       <c r="L3">
-        <v>0.07557741875956481</v>
+        <v>0.181140570137778</v>
       </c>
       <c r="M3">
-        <v>0.2644087299755071</v>
+        <v>0.1803201832585231</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9594696086395054</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.390273456935617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.567686948108417</v>
+        <v>0.6911934180839125</v>
       </c>
       <c r="C4">
-        <v>0.1890887128787142</v>
+        <v>0.1079650493382545</v>
       </c>
       <c r="D4">
-        <v>0.1100131698545113</v>
+        <v>0.1055436736710291</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.375838765146312</v>
+        <v>0.598860420821957</v>
       </c>
       <c r="G4">
-        <v>0.0008825538004963773</v>
+        <v>0.3517634984747176</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3338975459972673</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3686888816750127</v>
       </c>
       <c r="J4">
-        <v>0.1370168973377766</v>
+        <v>0.08360961043080728</v>
       </c>
       <c r="K4">
-        <v>0.35318931259701</v>
+        <v>0.5990096420473776</v>
       </c>
       <c r="L4">
-        <v>0.07431963254153473</v>
+        <v>0.1725601147601949</v>
       </c>
       <c r="M4">
-        <v>0.2473687447148798</v>
+        <v>0.1655421939289639</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9813428749457973</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.391308687211435</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.517205435068377</v>
+        <v>0.663040963270646</v>
       </c>
       <c r="C5">
-        <v>0.1803684767110951</v>
+        <v>0.1073281420060681</v>
       </c>
       <c r="D5">
-        <v>0.105613343405679</v>
+        <v>0.103321010647754</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.216516762997799</v>
+        <v>0.5973211958377433</v>
       </c>
       <c r="G5">
-        <v>0.0008852756324843398</v>
+        <v>0.3512290843584509</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3349308819502284</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3703781034801708</v>
       </c>
       <c r="J5">
-        <v>0.1355686917190759</v>
+        <v>0.0840892746360602</v>
       </c>
       <c r="K5">
-        <v>0.3401969697279554</v>
+        <v>0.5748711785021214</v>
       </c>
       <c r="L5">
-        <v>0.07385548656548835</v>
+        <v>0.1690996851816067</v>
       </c>
       <c r="M5">
-        <v>0.2405953456422907</v>
+        <v>0.1595345971023647</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9904807306938732</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.392258050229799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.508883517384476</v>
+        <v>0.6583666990684947</v>
       </c>
       <c r="C6">
-        <v>0.1789271648932385</v>
+        <v>0.1072225063644368</v>
       </c>
       <c r="D6">
-        <v>0.1048849245485997</v>
+        <v>0.1029531335937222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.190169585611898</v>
+        <v>0.5970781911483272</v>
       </c>
       <c r="G6">
-        <v>0.0008857301376048124</v>
+        <v>0.3511493675374808</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3351083842919707</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3706663606247922</v>
       </c>
       <c r="J6">
-        <v>0.1353289500900239</v>
+        <v>0.08416998564655209</v>
       </c>
       <c r="K6">
-        <v>0.3380537684672262</v>
+        <v>0.5708616239545421</v>
       </c>
       <c r="L6">
-        <v>0.07378126496940141</v>
+        <v>0.1685272258221175</v>
       </c>
       <c r="M6">
-        <v>0.2394804596386777</v>
+        <v>0.1585378769161281</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9920115002614232</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.392447084283461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.567002011652988</v>
+        <v>0.690813712065534</v>
       </c>
       <c r="C7">
-        <v>0.1889706487549319</v>
+        <v>0.1079564515087128</v>
       </c>
       <c r="D7">
-        <v>0.1099536820764513</v>
+        <v>0.1055136175294749</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.373682674725387</v>
+        <v>0.5988388147427059</v>
       </c>
       <c r="G7">
-        <v>0.0008825903387628307</v>
+        <v>0.3517556829958295</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3339110837723425</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3687111406010004</v>
       </c>
       <c r="J7">
-        <v>0.1369973154594959</v>
+        <v>0.08361600794596846</v>
       </c>
       <c r="K7">
-        <v>0.3530131256291398</v>
+        <v>0.5986841922278359</v>
       </c>
       <c r="L7">
-        <v>0.07431318028732292</v>
+        <v>0.1725133016563873</v>
       </c>
       <c r="M7">
-        <v>0.2472767271673177</v>
+        <v>0.1654611163737982</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9814652081084336</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.39131937599106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.833045303891566</v>
+        <v>0.834095323341586</v>
       </c>
       <c r="C8">
-        <v>0.2344011724796928</v>
+        <v>0.1112138009889279</v>
       </c>
       <c r="D8">
-        <v>0.1326902096281515</v>
+        <v>0.1169911412438296</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.201122090150477</v>
+        <v>0.6084815775344481</v>
       </c>
       <c r="G8">
-        <v>0.0008690889763418586</v>
+        <v>0.3557795485800099</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3295037186786445</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.361234504834691</v>
       </c>
       <c r="J8">
-        <v>0.1444863059969492</v>
+        <v>0.08132741865259341</v>
       </c>
       <c r="K8">
-        <v>0.421287888409374</v>
+        <v>0.721287851816129</v>
       </c>
       <c r="L8">
-        <v>0.07709264507312952</v>
+        <v>0.1904245741212378</v>
       </c>
       <c r="M8">
-        <v>0.283222425088006</v>
+        <v>0.1961436170448252</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9369066797904111</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.391017768034459</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.397803882640233</v>
+        <v>1.115830339391266</v>
       </c>
       <c r="C9">
-        <v>0.3290309858605553</v>
+        <v>0.1176774457453362</v>
       </c>
       <c r="D9">
-        <v>0.1791911670917585</v>
+        <v>0.1401930713124102</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.90805675153112</v>
+        <v>0.6345769083911605</v>
       </c>
       <c r="G9">
-        <v>0.0008437072894277157</v>
+        <v>0.3688901444545962</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3241704559196776</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3509418015923877</v>
       </c>
       <c r="J9">
-        <v>0.1598522334000023</v>
+        <v>0.07741474794541503</v>
       </c>
       <c r="K9">
-        <v>0.56553768811564</v>
+        <v>0.9614137698576428</v>
       </c>
       <c r="L9">
-        <v>0.0842950785388723</v>
+        <v>0.2268097539747203</v>
       </c>
       <c r="M9">
-        <v>0.3605003955876143</v>
+        <v>0.2568922337114046</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.8569139700782085</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.408357860171193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.848610081482605</v>
+        <v>1.32371246383488</v>
       </c>
       <c r="C10">
-        <v>0.4036770305477546</v>
+        <v>0.1224827163877364</v>
       </c>
       <c r="D10">
-        <v>0.2151733259604214</v>
+        <v>0.1577169255435393</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.236745227098</v>
+        <v>0.6585792571051954</v>
       </c>
       <c r="G10">
-        <v>0.0008255308055659481</v>
+        <v>0.3820751519227414</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3224289790161308</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3462704205293932</v>
       </c>
       <c r="J10">
-        <v>0.1718056624692821</v>
+        <v>0.07490491276132083</v>
       </c>
       <c r="K10">
-        <v>0.6803343993869362</v>
+        <v>1.137991832159628</v>
       </c>
       <c r="L10">
-        <v>0.09087659036664775</v>
+        <v>0.2544187780580813</v>
       </c>
       <c r="M10">
-        <v>0.4228061634308276</v>
+        <v>0.3019902468768692</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.802907614856867</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.433148927944529</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.064053820365416</v>
+        <v>1.41857862306577</v>
       </c>
       <c r="C11">
-        <v>0.4392171594801368</v>
+        <v>0.1246834944085293</v>
       </c>
       <c r="D11">
-        <v>0.2321091881793933</v>
+        <v>0.1658052294833681</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.86352328440535</v>
+        <v>0.6706517522508122</v>
       </c>
       <c r="G11">
-        <v>0.0008173127132836691</v>
+        <v>0.3889309013317899</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3221464989834288</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3448256285386577</v>
       </c>
       <c r="J11">
-        <v>0.1774541921004698</v>
+        <v>0.07384558797174279</v>
       </c>
       <c r="K11">
-        <v>0.735140673604505</v>
+        <v>1.218437079562278</v>
       </c>
       <c r="L11">
-        <v>0.09420997561253586</v>
+        <v>0.2671944855031114</v>
       </c>
       <c r="M11">
-        <v>0.4527223935729765</v>
+        <v>0.3226341832264907</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7794337712906128</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.447304237819736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.147383309479608</v>
+        <v>1.454553591416015</v>
       </c>
       <c r="C12">
-        <v>0.4529500607397665</v>
+        <v>0.125519220287444</v>
       </c>
       <c r="D12">
-        <v>0.2386209033259803</v>
+        <v>0.1688858901587764</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.10468495393729</v>
+        <v>0.6753983086279831</v>
       </c>
       <c r="G12">
-        <v>0.0008142029353910956</v>
+        <v>0.3916578977383551</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3221160950417925</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3443809719153279</v>
       </c>
       <c r="J12">
-        <v>0.179630059766211</v>
+        <v>0.07345658802685406</v>
       </c>
       <c r="K12">
-        <v>0.7563325723054106</v>
+        <v>1.248923535452462</v>
       </c>
       <c r="L12">
-        <v>0.09552693525533584</v>
+        <v>0.2720655644382788</v>
       </c>
       <c r="M12">
-        <v>0.4643139598842083</v>
+        <v>0.3304722416803614</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7707075735559563</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.453101154366294</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.129354680599306</v>
+        <v>1.446803325396132</v>
       </c>
       <c r="C13">
-        <v>0.4499793874159081</v>
+        <v>0.1253391242740136</v>
       </c>
       <c r="D13">
-        <v>0.2372138122159271</v>
+        <v>0.1682216063775854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.05256626328963</v>
+        <v>0.674368121688012</v>
       </c>
       <c r="G13">
-        <v>0.0008148726704992598</v>
+        <v>0.3910646455647395</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3221191838733262</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3444721035416656</v>
       </c>
       <c r="J13">
-        <v>0.1791596908797359</v>
+        <v>0.07353982123652436</v>
       </c>
       <c r="K13">
-        <v>0.7517478676037825</v>
+        <v>1.242356574945177</v>
       </c>
       <c r="L13">
-        <v>0.09524076894581412</v>
+        <v>0.2710149792930849</v>
       </c>
       <c r="M13">
-        <v>0.461805165428288</v>
+        <v>0.328783221564521</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7725795829883069</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.451832890154435</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.070872798474397</v>
+        <v>1.421537230497933</v>
       </c>
       <c r="C14">
-        <v>0.4403411723668853</v>
+        <v>0.1247522019613996</v>
       </c>
       <c r="D14">
-        <v>0.2326428313018312</v>
+        <v>0.1660583145701793</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.88328358276425</v>
+        <v>0.671038694111374</v>
       </c>
       <c r="G14">
-        <v>0.0008170568568031111</v>
+        <v>0.3891525855565732</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3221424437994074</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3447869656007292</v>
       </c>
       <c r="J14">
-        <v>0.17763242125028</v>
+        <v>0.07381333961501646</v>
       </c>
       <c r="K14">
-        <v>0.7368749484057417</v>
+        <v>1.220944707296695</v>
       </c>
       <c r="L14">
-        <v>0.09431718984382087</v>
+        <v>0.267594554339496</v>
       </c>
       <c r="M14">
-        <v>0.4536705374237044</v>
+        <v>0.3232785984068798</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7787125655408929</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.447772268369363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.035286537808588</v>
+        <v>1.406067937717296</v>
       </c>
       <c r="C15">
-        <v>0.4344747797409809</v>
+        <v>0.1243930061094574</v>
       </c>
       <c r="D15">
-        <v>0.2298563430557863</v>
+        <v>0.1647355847622975</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.78010919845127</v>
+        <v>0.6690223863679137</v>
       </c>
       <c r="G15">
-        <v>0.0008183948627350541</v>
+        <v>0.3879986672160314</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.322166762241892</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3449933120867676</v>
       </c>
       <c r="J15">
-        <v>0.1767019419322367</v>
+        <v>0.07398246786726226</v>
       </c>
       <c r="K15">
-        <v>0.7278240407640624</v>
+        <v>1.207832591312382</v>
       </c>
       <c r="L15">
-        <v>0.09375878197840137</v>
+        <v>0.2655038327888946</v>
       </c>
       <c r="M15">
-        <v>0.4487232762365707</v>
+        <v>0.3199096128324612</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7824905697414479</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.445342577189194</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.834759840314973</v>
+        <v>1.31751944869842</v>
       </c>
       <c r="C16">
-        <v>0.401390098416897</v>
+        <v>0.1223392060845754</v>
       </c>
       <c r="D16">
-        <v>0.2140793301239654</v>
+        <v>0.1571907689690022</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.19628284207053</v>
+        <v>0.6578142704887711</v>
       </c>
       <c r="G16">
-        <v>0.0008260684808758746</v>
+        <v>0.3816450077352584</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3224579719864593</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3463789202002019</v>
       </c>
       <c r="J16">
-        <v>0.171441299168869</v>
+        <v>0.07497582516598555</v>
       </c>
       <c r="K16">
-        <v>0.67681011858825</v>
+        <v>1.132737484340225</v>
       </c>
       <c r="L16">
-        <v>0.09066605696887819</v>
+        <v>0.253588383630472</v>
       </c>
       <c r="M16">
-        <v>0.4208857310174778</v>
+        <v>0.3006438863148233</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8044641647723161</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.432283672973838</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.71456795412297</v>
+        <v>1.263280166836154</v>
       </c>
       <c r="C17">
-        <v>0.3815302807030037</v>
+        <v>0.121083206985098</v>
       </c>
       <c r="D17">
-        <v>0.2045571941927591</v>
+        <v>0.1525928502129119</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.844248362118805</v>
+        <v>0.6512402446694452</v>
       </c>
       <c r="G17">
-        <v>0.0008307855838168663</v>
+        <v>0.3779721762237713</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3227694419086973</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3474063963338558</v>
       </c>
       <c r="J17">
-        <v>0.168272430522947</v>
+        <v>0.07560652923349309</v>
       </c>
       <c r="K17">
-        <v>0.6462206641514214</v>
+        <v>1.086704019814164</v>
       </c>
       <c r="L17">
-        <v>0.08885960096655765</v>
+        <v>0.2463354814915704</v>
       </c>
       <c r="M17">
-        <v>0.4042355635685198</v>
+        <v>0.2888594211407778</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.818228281236669</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.425025347809893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.646395419404143</v>
+        <v>1.232110842738166</v>
       </c>
       <c r="C18">
-        <v>0.3702532387439135</v>
+        <v>0.1203621726518662</v>
       </c>
       <c r="D18">
-        <v>0.199132570846956</v>
+        <v>0.1499591606975628</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.643830391573943</v>
+        <v>0.6475670608072406</v>
       </c>
       <c r="G18">
-        <v>0.0008335038298558304</v>
+        <v>0.3759399295500927</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3229963631529742</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3480611095957684</v>
       </c>
       <c r="J18">
-        <v>0.1664691788891375</v>
+        <v>0.0759770322027169</v>
       </c>
       <c r="K18">
-        <v>0.6288651663480067</v>
+        <v>1.060237576713376</v>
       </c>
       <c r="L18">
-        <v>0.08785212238689155</v>
+        <v>0.2421840233238157</v>
       </c>
       <c r="M18">
-        <v>0.3948043777185077</v>
+        <v>0.2820932787197066</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8262476541089416</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.421119980807532</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.623470904771068</v>
+        <v>1.221561958978384</v>
       </c>
       <c r="C19">
-        <v>0.3664587594304862</v>
+        <v>0.1201182743913094</v>
       </c>
       <c r="D19">
-        <v>0.1973043883011911</v>
+        <v>0.1490692823775248</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.576309773154776</v>
+        <v>0.6463416683551628</v>
       </c>
       <c r="G19">
-        <v>0.0008344251969957915</v>
+        <v>0.3752654094348031</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3230813030021267</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3482935936134943</v>
       </c>
       <c r="J19">
-        <v>0.1658617766333279</v>
+        <v>0.07610379857304927</v>
       </c>
       <c r="K19">
-        <v>0.6230280461546371</v>
+        <v>1.051278156401651</v>
       </c>
       <c r="L19">
-        <v>0.08751626142316837</v>
+        <v>0.2407818214166468</v>
       </c>
       <c r="M19">
-        <v>0.3916351109840193</v>
+        <v>0.2798043716006475</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8289803365206758</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.419843290803996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.727261651315075</v>
+        <v>1.269051109281378</v>
       </c>
       <c r="C20">
-        <v>0.3836289867455207</v>
+        <v>0.1212167656516954</v>
       </c>
       <c r="D20">
-        <v>0.2055653192055615</v>
+        <v>0.1530811699252581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.881505463336225</v>
+        <v>0.6519288169603001</v>
       </c>
       <c r="G20">
-        <v>0.0008302829472092878</v>
+        <v>0.3783547947042294</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3227313180852107</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3472903904720965</v>
       </c>
       <c r="J20">
-        <v>0.1686077100602077</v>
+        <v>0.07553858671006708</v>
       </c>
       <c r="K20">
-        <v>0.6494518075502427</v>
+        <v>1.091603198629343</v>
       </c>
       <c r="L20">
-        <v>0.08904859665793197</v>
+        <v>0.2471054578209788</v>
       </c>
       <c r="M20">
-        <v>0.4059926905485298</v>
+        <v>0.2901126435256529</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8167524078737749</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.425769962763965</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.088000736661968</v>
+        <v>1.428957037662343</v>
       </c>
       <c r="C21">
-        <v>0.4431642828211864</v>
+        <v>0.1249245300652646</v>
       </c>
       <c r="D21">
-        <v>0.233982619078148</v>
+        <v>0.1666932343981244</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.93289723985828</v>
+        <v>0.6720118045739056</v>
       </c>
       <c r="G21">
-        <v>0.0008164152916491098</v>
+        <v>0.3897105901260858</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3221335069097364</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.344691664230286</v>
       </c>
       <c r="J21">
-        <v>0.1780799584795858</v>
+        <v>0.07373266866811967</v>
       </c>
       <c r="K21">
-        <v>0.7412310173549486</v>
+        <v>1.227233197970179</v>
       </c>
       <c r="L21">
-        <v>0.09458693197572643</v>
+        <v>0.2685982977901347</v>
       </c>
       <c r="M21">
-        <v>0.4560524164669815</v>
+        <v>0.3248948614854399</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7769066950312791</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.448952934173633</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.334088810901676</v>
+        <v>1.533767470021161</v>
       </c>
       <c r="C22">
-        <v>0.4837026155893227</v>
+        <v>0.1273615103757564</v>
       </c>
       <c r="D22">
-        <v>0.2531387733011314</v>
+        <v>0.1756937469555169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.6426252684962</v>
+        <v>0.686161584047646</v>
       </c>
       <c r="G22">
-        <v>0.0008073620816255761</v>
+        <v>0.3978988732009014</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3221907300517159</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3435927597794901</v>
       </c>
       <c r="J22">
-        <v>0.1844895127403419</v>
+        <v>0.07262332360369328</v>
       </c>
       <c r="K22">
-        <v>0.8038057611370419</v>
+        <v>1.316016043512434</v>
       </c>
       <c r="L22">
-        <v>0.09852870544379044</v>
+        <v>0.2828396633508419</v>
       </c>
       <c r="M22">
-        <v>0.490323516440796</v>
+        <v>0.3477484968076539</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7518171333155053</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.466660714903725</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.201707062742173</v>
+        <v>1.477797648845922</v>
       </c>
       <c r="C23">
-        <v>0.4618998583484313</v>
+        <v>0.1260595181049027</v>
       </c>
       <c r="D23">
-        <v>0.2428550629714721</v>
+        <v>0.1708801125017345</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.2615401452241</v>
+        <v>0.6785127266390774</v>
       </c>
       <c r="G23">
-        <v>0.0008121948970741629</v>
+        <v>0.3934558951255838</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3221180767024379</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3441228141962469</v>
       </c>
       <c r="J23">
-        <v>0.1810461253001279</v>
+        <v>0.07320881176727667</v>
       </c>
       <c r="K23">
-        <v>0.7701464613311089</v>
+        <v>1.268615831325747</v>
       </c>
       <c r="L23">
-        <v>0.09639323496010377</v>
+        <v>0.275220251072497</v>
       </c>
       <c r="M23">
-        <v>0.4718764296319833</v>
+        <v>0.3355392237190031</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7651189012719932</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.456967972013274</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.721519960907813</v>
+        <v>1.266442024569699</v>
       </c>
       <c r="C24">
-        <v>0.3826797271456428</v>
+        <v>0.121156380503713</v>
       </c>
       <c r="D24">
-        <v>0.2051093920744052</v>
+        <v>0.1528603703996225</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.864655431726476</v>
+        <v>0.651617182971961</v>
       </c>
       <c r="G24">
-        <v>0.0008305101692551745</v>
+        <v>0.3781815664107242</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3227484050593219</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3473426377133748</v>
       </c>
       <c r="J24">
-        <v>0.1684560728115301</v>
+        <v>0.07556927893146259</v>
       </c>
       <c r="K24">
-        <v>0.6479902936325885</v>
+        <v>1.08938828408111</v>
       </c>
       <c r="L24">
-        <v>0.08896305533910009</v>
+        <v>0.2467572945803767</v>
       </c>
       <c r="M24">
-        <v>0.405197856278221</v>
+        <v>0.2895460341138829</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8174193198504582</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.425432490723011</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.239496517769339</v>
+        <v>1.039489467192851</v>
       </c>
       <c r="C25">
-        <v>0.3026727032922167</v>
+        <v>0.1159197284343705</v>
       </c>
       <c r="D25">
-        <v>0.1663442956848797</v>
+        <v>0.1338365594586151</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.4350417601282</v>
+        <v>0.6267030575283883</v>
       </c>
       <c r="G25">
-        <v>0.0008504752747299608</v>
+        <v>0.3647474204412333</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.325242978485818</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3532357252862823</v>
       </c>
       <c r="J25">
-        <v>0.1555987785971773</v>
+        <v>0.07841022598742065</v>
       </c>
       <c r="K25">
-        <v>0.5251673384944695</v>
+        <v>0.8964515199086236</v>
       </c>
       <c r="L25">
-        <v>0.08213797620247476</v>
+        <v>0.2168207587060493</v>
       </c>
       <c r="M25">
-        <v>0.3387355483513019</v>
+        <v>0.2403847792224667</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8777371715686968</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.401634981134265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8729538862252468</v>
+        <v>0.4789760608989297</v>
       </c>
       <c r="C2">
-        <v>0.1121011753014116</v>
+        <v>0.1639730969960951</v>
       </c>
       <c r="D2">
-        <v>0.1201460631688462</v>
+        <v>0.2082336549795869</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.611564663185824</v>
+        <v>1.397992430755174</v>
       </c>
       <c r="G2">
-        <v>0.3572099440940661</v>
+        <v>0.7677603597370748</v>
       </c>
       <c r="H2">
-        <v>0.3285278847109296</v>
+        <v>0.8683558606115156</v>
       </c>
       <c r="I2">
-        <v>0.3594963218404352</v>
+        <v>0.9012760793704153</v>
       </c>
       <c r="J2">
-        <v>0.08074575305304421</v>
+        <v>0.2224775250683031</v>
       </c>
       <c r="K2">
-        <v>0.7544751220484613</v>
+        <v>0.2563370921391765</v>
       </c>
       <c r="L2">
-        <v>0.1953591671953845</v>
+        <v>0.347468017597123</v>
       </c>
       <c r="M2">
-        <v>0.2044923597920452</v>
+        <v>0.187672405718768</v>
       </c>
       <c r="N2">
-        <v>0.9253241825862979</v>
+        <v>1.912625425011994</v>
       </c>
       <c r="O2">
-        <v>1.39210992432038</v>
+        <v>3.284144968544709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7603016415362731</v>
+        <v>0.4466130584542611</v>
       </c>
       <c r="C3">
-        <v>0.1095330909381858</v>
+        <v>0.1631609766174833</v>
       </c>
       <c r="D3">
-        <v>0.111047340302413</v>
+        <v>0.2066996290951337</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6031563833570388</v>
+        <v>1.404130540455498</v>
       </c>
       <c r="G3">
-        <v>0.3534477589328091</v>
+        <v>0.7720366157460674</v>
       </c>
       <c r="H3">
-        <v>0.3316049365206339</v>
+        <v>0.8735376501765728</v>
       </c>
       <c r="I3">
-        <v>0.3648629427166981</v>
+        <v>0.9078743556003204</v>
       </c>
       <c r="J3">
-        <v>0.08247598701426639</v>
+        <v>0.2238139159350325</v>
       </c>
       <c r="K3">
-        <v>0.6581928369054708</v>
+        <v>0.2267971573531753</v>
       </c>
       <c r="L3">
-        <v>0.181140570137778</v>
+        <v>0.3452275390161219</v>
       </c>
       <c r="M3">
-        <v>0.1803201832585231</v>
+        <v>0.181430365027996</v>
       </c>
       <c r="N3">
-        <v>0.9594696086395054</v>
+        <v>1.928235622313633</v>
       </c>
       <c r="O3">
-        <v>1.390273456935617</v>
+        <v>3.303836567928727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6911934180839125</v>
+        <v>0.4268447978245717</v>
       </c>
       <c r="C4">
-        <v>0.1079650493382545</v>
+        <v>0.1626650916181092</v>
       </c>
       <c r="D4">
-        <v>0.1055436736710291</v>
+        <v>0.205829378681095</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.598860420821957</v>
+        <v>1.408464701803638</v>
       </c>
       <c r="G4">
-        <v>0.3517634984747176</v>
+        <v>0.7750294083441176</v>
       </c>
       <c r="H4">
-        <v>0.3338975459972673</v>
+        <v>0.8769982029513699</v>
       </c>
       <c r="I4">
-        <v>0.3686888816750127</v>
+        <v>0.9122649630707969</v>
       </c>
       <c r="J4">
-        <v>0.08360961043080728</v>
+        <v>0.2246876849695916</v>
       </c>
       <c r="K4">
-        <v>0.5990096420473776</v>
+        <v>0.2086407233356624</v>
       </c>
       <c r="L4">
-        <v>0.1725601147601949</v>
+        <v>0.3439727414172609</v>
       </c>
       <c r="M4">
-        <v>0.1655421939289639</v>
+        <v>0.1776590657313903</v>
       </c>
       <c r="N4">
-        <v>0.9813428749457973</v>
+        <v>1.938332229446651</v>
       </c>
       <c r="O4">
-        <v>1.391308687211435</v>
+        <v>3.317281689185336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.663040963270646</v>
+        <v>0.4188156207385703</v>
       </c>
       <c r="C5">
-        <v>0.1073281420060681</v>
+        <v>0.162463731586449</v>
       </c>
       <c r="D5">
-        <v>0.103321010647754</v>
+        <v>0.2054928520239159</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5973211958377433</v>
+        <v>1.410373297318912</v>
       </c>
       <c r="G5">
-        <v>0.3512290843584509</v>
+        <v>0.776341405282885</v>
       </c>
       <c r="H5">
-        <v>0.3349308819502284</v>
+        <v>0.8784786514177796</v>
       </c>
       <c r="I5">
-        <v>0.3703781034801708</v>
+        <v>0.9141395713486204</v>
       </c>
       <c r="J5">
-        <v>0.0840892746360602</v>
+        <v>0.2250571587204639</v>
       </c>
       <c r="K5">
-        <v>0.5748711785021214</v>
+        <v>0.2012376489639536</v>
       </c>
       <c r="L5">
-        <v>0.1690996851816067</v>
+        <v>0.3434919279734601</v>
       </c>
       <c r="M5">
-        <v>0.1595345971023647</v>
+        <v>0.1761378212507125</v>
       </c>
       <c r="N5">
-        <v>0.9904807306938732</v>
+        <v>1.942575489525115</v>
       </c>
       <c r="O5">
-        <v>1.392258050229799</v>
+        <v>3.323101667121307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6583666990684947</v>
+        <v>0.4174840064497118</v>
       </c>
       <c r="C6">
-        <v>0.1072225063644368</v>
+        <v>0.1624303398986342</v>
       </c>
       <c r="D6">
-        <v>0.1029531335937222</v>
+        <v>0.2054380683500199</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5970781911483272</v>
+        <v>1.41069882491594</v>
       </c>
       <c r="G6">
-        <v>0.3511493675374808</v>
+        <v>0.7765648452099541</v>
       </c>
       <c r="H6">
-        <v>0.3351083842919707</v>
+        <v>0.8787287246303421</v>
       </c>
       <c r="I6">
-        <v>0.3706663606247922</v>
+        <v>0.9144560093921612</v>
       </c>
       <c r="J6">
-        <v>0.08416998564655209</v>
+        <v>0.2251193199157946</v>
       </c>
       <c r="K6">
-        <v>0.5708616239545421</v>
+        <v>0.2000081376933736</v>
       </c>
       <c r="L6">
-        <v>0.1685272258221175</v>
+        <v>0.3434139369527571</v>
       </c>
       <c r="M6">
-        <v>0.1585378769161281</v>
+        <v>0.1758861662900628</v>
       </c>
       <c r="N6">
-        <v>0.9920115002614232</v>
+        <v>1.943287862257883</v>
       </c>
       <c r="O6">
-        <v>1.392447084283461</v>
+        <v>3.324088676456356</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.690813712065534</v>
+        <v>0.4267364050928677</v>
       </c>
       <c r="C7">
-        <v>0.1079564515087128</v>
+        <v>0.1626623730721448</v>
       </c>
       <c r="D7">
-        <v>0.1055136175294749</v>
+        <v>0.205824766727666</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5988388147427059</v>
+        <v>1.408489864952813</v>
       </c>
       <c r="G7">
-        <v>0.3517556829958295</v>
+        <v>0.7750467281166635</v>
       </c>
       <c r="H7">
-        <v>0.3339110837723425</v>
+        <v>0.8770178842304475</v>
       </c>
       <c r="I7">
-        <v>0.3687111406010004</v>
+        <v>0.9122898987843229</v>
       </c>
       <c r="J7">
-        <v>0.08361600794596846</v>
+        <v>0.2246926135107312</v>
       </c>
       <c r="K7">
-        <v>0.5986841922278359</v>
+        <v>0.20854089908768</v>
       </c>
       <c r="L7">
-        <v>0.1725133016563873</v>
+        <v>0.3439661332188777</v>
       </c>
       <c r="M7">
-        <v>0.1654611163737982</v>
+        <v>0.177638486349796</v>
       </c>
       <c r="N7">
-        <v>0.9814652081084336</v>
+        <v>1.938388933860214</v>
       </c>
       <c r="O7">
-        <v>1.39131937599106</v>
+        <v>3.317358798278761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.834095323341586</v>
+        <v>0.4677963874864872</v>
       </c>
       <c r="C8">
-        <v>0.1112138009889279</v>
+        <v>0.1636925185598628</v>
       </c>
       <c r="D8">
-        <v>0.1169911412438296</v>
+        <v>0.2076899061639779</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6084815775344481</v>
+        <v>1.399991652664035</v>
       </c>
       <c r="G8">
-        <v>0.3557795485800099</v>
+        <v>0.7691586608444894</v>
       </c>
       <c r="H8">
-        <v>0.3295037186786445</v>
+        <v>0.870084719314427</v>
       </c>
       <c r="I8">
-        <v>0.361234504834691</v>
+        <v>0.9034808134233039</v>
       </c>
       <c r="J8">
-        <v>0.08132741865259341</v>
+        <v>0.2229272809460117</v>
       </c>
       <c r="K8">
-        <v>0.721287851816129</v>
+        <v>0.2461559421261512</v>
       </c>
       <c r="L8">
-        <v>0.1904245741212378</v>
+        <v>0.3466704941803513</v>
       </c>
       <c r="M8">
-        <v>0.1961436170448252</v>
+        <v>0.1855075168277374</v>
       </c>
       <c r="N8">
-        <v>0.9369066797904111</v>
+        <v>1.917901637246617</v>
       </c>
       <c r="O8">
-        <v>1.391017768034459</v>
+        <v>3.290653769272041</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.115830339391266</v>
+        <v>0.5491030001201977</v>
       </c>
       <c r="C9">
-        <v>0.1176774457453362</v>
+        <v>0.1657336228208024</v>
       </c>
       <c r="D9">
-        <v>0.1401930713124102</v>
+        <v>0.2119122677581373</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6345769083911605</v>
+        <v>1.387802788366223</v>
       </c>
       <c r="G9">
-        <v>0.3688901444545962</v>
+        <v>0.7605219483955779</v>
       </c>
       <c r="H9">
-        <v>0.3241704559196776</v>
+        <v>0.85869703981718</v>
       </c>
       <c r="I9">
-        <v>0.3509418015923877</v>
+        <v>0.8888937282703502</v>
       </c>
       <c r="J9">
-        <v>0.07741474794541503</v>
+        <v>0.2198866840191815</v>
       </c>
       <c r="K9">
-        <v>0.9614137698576428</v>
+        <v>0.3197492714245982</v>
       </c>
       <c r="L9">
-        <v>0.2268097539747203</v>
+        <v>0.3529273863171056</v>
       </c>
       <c r="M9">
-        <v>0.2568922337114046</v>
+        <v>0.2014189201861427</v>
       </c>
       <c r="N9">
-        <v>0.8569139700782085</v>
+        <v>1.881782959607101</v>
       </c>
       <c r="O9">
-        <v>1.408357860171193</v>
+        <v>3.249014729622161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.32371246383488</v>
+        <v>0.6092888505896497</v>
       </c>
       <c r="C10">
-        <v>0.1224827163877364</v>
+        <v>0.1672449511333483</v>
       </c>
       <c r="D10">
-        <v>0.1577169255435393</v>
+        <v>0.2153543433549316</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6585792571051954</v>
+        <v>1.381564302713031</v>
       </c>
       <c r="G10">
-        <v>0.3820751519227414</v>
+        <v>0.7559463074163375</v>
       </c>
       <c r="H10">
-        <v>0.3224289790161308</v>
+        <v>0.8516702769172184</v>
       </c>
       <c r="I10">
-        <v>0.3462704205293932</v>
+        <v>0.8798093090574817</v>
       </c>
       <c r="J10">
-        <v>0.07490491276132083</v>
+        <v>0.2179080625203866</v>
       </c>
       <c r="K10">
-        <v>1.137991832159628</v>
+        <v>0.3736923629553814</v>
       </c>
       <c r="L10">
-        <v>0.2544187780580813</v>
+        <v>0.3580992688160478</v>
       </c>
       <c r="M10">
-        <v>0.3019902468768692</v>
+        <v>0.2133944389084874</v>
       </c>
       <c r="N10">
-        <v>0.802907614856867</v>
+        <v>1.857712505997153</v>
       </c>
       <c r="O10">
-        <v>1.433148927944529</v>
+        <v>3.224941614652494</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.41857862306577</v>
+        <v>0.6367604984260993</v>
       </c>
       <c r="C11">
-        <v>0.1246834944085293</v>
+        <v>0.1679348235862648</v>
       </c>
       <c r="D11">
-        <v>0.1658052294833681</v>
+        <v>0.2169931300572188</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6706517522508122</v>
+        <v>1.379313652629449</v>
       </c>
       <c r="G11">
-        <v>0.3889309013317899</v>
+        <v>0.7542481765139399</v>
       </c>
       <c r="H11">
-        <v>0.3221464989834288</v>
+        <v>0.8487631879207385</v>
       </c>
       <c r="I11">
-        <v>0.3448256285386577</v>
+        <v>0.8760299105135125</v>
       </c>
       <c r="J11">
-        <v>0.07384558797174279</v>
+        <v>0.2170630595055538</v>
       </c>
       <c r="K11">
-        <v>1.218437079562278</v>
+        <v>0.3982006444507817</v>
       </c>
       <c r="L11">
-        <v>0.2671944855031114</v>
+        <v>0.3605756195598815</v>
       </c>
       <c r="M11">
-        <v>0.3226341832264907</v>
+        <v>0.2189028978473431</v>
       </c>
       <c r="N11">
-        <v>0.7794337712906128</v>
+        <v>1.847296153383709</v>
       </c>
       <c r="O11">
-        <v>1.447304237819736</v>
+        <v>3.215401158934014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.454553591416015</v>
+        <v>0.6471759893005071</v>
       </c>
       <c r="C12">
-        <v>0.125519220287444</v>
+        <v>0.1681963784921265</v>
       </c>
       <c r="D12">
-        <v>0.1688858901587764</v>
+        <v>0.2176241023783803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6753983086279831</v>
+        <v>1.378545620565703</v>
       </c>
       <c r="G12">
-        <v>0.3916578977383551</v>
+        <v>0.7536601881224385</v>
       </c>
       <c r="H12">
-        <v>0.3221160950417925</v>
+        <v>0.847703860100907</v>
       </c>
       <c r="I12">
-        <v>0.3443809719153279</v>
+        <v>0.8746494408981462</v>
       </c>
       <c r="J12">
-        <v>0.07345658802685406</v>
+        <v>0.2167509760155166</v>
       </c>
       <c r="K12">
-        <v>1.248923535452462</v>
+        <v>0.4074763826986327</v>
       </c>
       <c r="L12">
-        <v>0.2720655644382788</v>
+        <v>0.3615310015018451</v>
       </c>
       <c r="M12">
-        <v>0.3304722416803614</v>
+        <v>0.2209973878557463</v>
       </c>
       <c r="N12">
-        <v>0.7707075735559563</v>
+        <v>1.843428365580653</v>
       </c>
       <c r="O12">
-        <v>1.453101154366294</v>
+        <v>3.211990888684682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.446803325396132</v>
+        <v>0.6449322800270352</v>
       </c>
       <c r="C13">
-        <v>0.1253391242740136</v>
+        <v>0.1681400343341082</v>
       </c>
       <c r="D13">
-        <v>0.1682216063775854</v>
+        <v>0.2174877501747119</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.674368121688012</v>
+        <v>1.37870728672133</v>
       </c>
       <c r="G13">
-        <v>0.3910646455647395</v>
+        <v>0.7537843743665888</v>
       </c>
       <c r="H13">
-        <v>0.3221191838733262</v>
+        <v>0.8479301600266922</v>
       </c>
       <c r="I13">
-        <v>0.3444721035416656</v>
+        <v>0.8749444957467354</v>
       </c>
       <c r="J13">
-        <v>0.07353982123652436</v>
+        <v>0.2168178377036281</v>
       </c>
       <c r="K13">
-        <v>1.242356574945177</v>
+        <v>0.4054789191702639</v>
       </c>
       <c r="L13">
-        <v>0.2710149792930849</v>
+        <v>0.3613244604708541</v>
       </c>
       <c r="M13">
-        <v>0.328783221564521</v>
+        <v>0.2205459242477303</v>
       </c>
       <c r="N13">
-        <v>0.7725795829883069</v>
+        <v>1.844257954172601</v>
       </c>
       <c r="O13">
-        <v>1.451832890154435</v>
+        <v>3.212716350850087</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.421537230497933</v>
+        <v>0.6376171395424421</v>
       </c>
       <c r="C14">
-        <v>0.1247522019613996</v>
+        <v>0.167956335689091</v>
       </c>
       <c r="D14">
-        <v>0.1660583145701793</v>
+        <v>0.2170448326467351</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.671038694111374</v>
+        <v>1.379248779061804</v>
       </c>
       <c r="G14">
-        <v>0.3891525855565732</v>
+        <v>0.7541986993257694</v>
       </c>
       <c r="H14">
-        <v>0.3221424437994074</v>
+        <v>0.8486752047277548</v>
       </c>
       <c r="I14">
-        <v>0.3447869656007292</v>
+        <v>0.8759153226456675</v>
       </c>
       <c r="J14">
-        <v>0.07381333961501646</v>
+        <v>0.2170372259782827</v>
       </c>
       <c r="K14">
-        <v>1.220944707296695</v>
+        <v>0.3989638689937181</v>
       </c>
       <c r="L14">
-        <v>0.267594554339496</v>
+        <v>0.3606538666272598</v>
       </c>
       <c r="M14">
-        <v>0.3232785984068798</v>
+        <v>0.2190750423399663</v>
       </c>
       <c r="N14">
-        <v>0.7787125655408929</v>
+        <v>1.846976412050871</v>
       </c>
       <c r="O14">
-        <v>1.447772268369363</v>
+        <v>3.215116537620389</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.406067937717296</v>
+        <v>0.6331380194055782</v>
       </c>
       <c r="C15">
-        <v>0.1243930061094574</v>
+        <v>0.1678438552874297</v>
       </c>
       <c r="D15">
-        <v>0.1647355847622975</v>
+        <v>0.216774884399868</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6690223863679137</v>
+        <v>1.379591423144774</v>
       </c>
       <c r="G15">
-        <v>0.3879986672160314</v>
+        <v>0.7544596533245596</v>
       </c>
       <c r="H15">
-        <v>0.322166762241892</v>
+        <v>0.8491369709275318</v>
       </c>
       <c r="I15">
-        <v>0.3449933120867676</v>
+        <v>0.876516583400111</v>
       </c>
       <c r="J15">
-        <v>0.07398246786726226</v>
+        <v>0.2171726359622372</v>
       </c>
       <c r="K15">
-        <v>1.207832591312382</v>
+        <v>0.3949725415531589</v>
       </c>
       <c r="L15">
-        <v>0.2655038327888946</v>
+        <v>0.3602454019330708</v>
       </c>
       <c r="M15">
-        <v>0.3199096128324612</v>
+        <v>0.2181751936943712</v>
       </c>
       <c r="N15">
-        <v>0.7824905697414479</v>
+        <v>1.848651527917113</v>
       </c>
       <c r="O15">
-        <v>1.445342577189194</v>
+        <v>3.216613081875806</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.31751944869842</v>
+        <v>0.6074953153350577</v>
       </c>
       <c r="C16">
-        <v>0.1223392060845754</v>
+        <v>0.1671999117787948</v>
       </c>
       <c r="D16">
-        <v>0.1571907689690022</v>
+        <v>0.2152487051237983</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6578142704887711</v>
+        <v>1.381723187536153</v>
       </c>
       <c r="G16">
-        <v>0.3816450077352584</v>
+        <v>0.7560649924228144</v>
       </c>
       <c r="H16">
-        <v>0.3224579719864593</v>
+        <v>0.8518660778046723</v>
       </c>
       <c r="I16">
-        <v>0.3463789202002019</v>
+        <v>0.8800634014195658</v>
       </c>
       <c r="J16">
-        <v>0.07497582516598555</v>
+        <v>0.2179643921388426</v>
       </c>
       <c r="K16">
-        <v>1.132737484340225</v>
+        <v>0.3720900199445225</v>
       </c>
       <c r="L16">
-        <v>0.253588383630472</v>
+        <v>0.3579399096255855</v>
       </c>
       <c r="M16">
-        <v>0.3006438863148233</v>
+        <v>0.2130356551414678</v>
       </c>
       <c r="N16">
-        <v>0.8044641647723161</v>
+        <v>1.858403968886236</v>
       </c>
       <c r="O16">
-        <v>1.432283672973838</v>
+        <v>3.225593460305802</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.263280166836154</v>
+        <v>0.5917875675473852</v>
       </c>
       <c r="C17">
-        <v>0.121083206985098</v>
+        <v>0.1668054607657581</v>
       </c>
       <c r="D17">
-        <v>0.1525928502129119</v>
+        <v>0.2143310662129778</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6512402446694452</v>
+        <v>1.383181221367749</v>
       </c>
       <c r="G17">
-        <v>0.3779721762237713</v>
+        <v>0.7571479527671556</v>
       </c>
       <c r="H17">
-        <v>0.3227694419086973</v>
+        <v>0.8536143565898726</v>
       </c>
       <c r="I17">
-        <v>0.3474063963338558</v>
+        <v>0.882329655375603</v>
       </c>
       <c r="J17">
-        <v>0.07560652923349309</v>
+        <v>0.218464202494129</v>
       </c>
       <c r="K17">
-        <v>1.086704019814164</v>
+        <v>0.3580440430654335</v>
       </c>
       <c r="L17">
-        <v>0.2463354814915704</v>
+        <v>0.3565571333414397</v>
       </c>
       <c r="M17">
-        <v>0.2888594211407778</v>
+        <v>0.2098981442306709</v>
       </c>
       <c r="N17">
-        <v>0.818228281236669</v>
+        <v>1.864523363184741</v>
       </c>
       <c r="O17">
-        <v>1.425025347809893</v>
+        <v>3.231463660055795</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.232110842738166</v>
+        <v>0.5827616675900629</v>
       </c>
       <c r="C18">
-        <v>0.1203621726518662</v>
+        <v>0.1665788067194001</v>
       </c>
       <c r="D18">
-        <v>0.1499591606975628</v>
+        <v>0.2138101383887943</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6475670608072406</v>
+        <v>1.384075132797385</v>
       </c>
       <c r="G18">
-        <v>0.3759399295500927</v>
+        <v>0.75780692985672</v>
       </c>
       <c r="H18">
-        <v>0.3229963631529742</v>
+        <v>0.8546471675865348</v>
       </c>
       <c r="I18">
-        <v>0.3480611095957684</v>
+        <v>0.8836663893202079</v>
       </c>
       <c r="J18">
-        <v>0.0759770322027169</v>
+        <v>0.2187568659346404</v>
       </c>
       <c r="K18">
-        <v>1.060237576713376</v>
+        <v>0.3499623148665307</v>
       </c>
       <c r="L18">
-        <v>0.2421840233238157</v>
+        <v>0.3557734423438177</v>
       </c>
       <c r="M18">
-        <v>0.2820932787197066</v>
+        <v>0.2080992582620453</v>
       </c>
       <c r="N18">
-        <v>0.8262476541089416</v>
+        <v>1.868093287315656</v>
       </c>
       <c r="O18">
-        <v>1.421119980807532</v>
+        <v>3.234972829223594</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.221561958978384</v>
+        <v>0.5797071845993287</v>
       </c>
       <c r="C19">
-        <v>0.1201182743913094</v>
+        <v>0.1665021047269946</v>
       </c>
       <c r="D19">
-        <v>0.1490692823775248</v>
+        <v>0.2136349446100496</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6463416683551628</v>
+        <v>1.384387298116494</v>
       </c>
       <c r="G19">
-        <v>0.3752654094348031</v>
+        <v>0.758036248224478</v>
       </c>
       <c r="H19">
-        <v>0.3230813030021267</v>
+        <v>0.8550015422812649</v>
       </c>
       <c r="I19">
-        <v>0.3482935936134943</v>
+        <v>0.8841246965736573</v>
       </c>
       <c r="J19">
-        <v>0.07610379857304927</v>
+        <v>0.2188568480114377</v>
       </c>
       <c r="K19">
-        <v>1.051278156401651</v>
+        <v>0.3472255087329188</v>
       </c>
       <c r="L19">
-        <v>0.2407818214166468</v>
+        <v>0.3555101023092675</v>
       </c>
       <c r="M19">
-        <v>0.2798043716006475</v>
+        <v>0.2074911754627422</v>
       </c>
       <c r="N19">
-        <v>0.8289803365206758</v>
+        <v>1.869310627403504</v>
       </c>
       <c r="O19">
-        <v>1.419843290803996</v>
+        <v>3.236183789965509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.269051109281378</v>
+        <v>0.5934587808853848</v>
       </c>
       <c r="C20">
-        <v>0.1212167656516954</v>
+        <v>0.1668474277703709</v>
       </c>
       <c r="D20">
-        <v>0.1530811699252581</v>
+        <v>0.2144280397063483</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6519288169603001</v>
+        <v>1.383020290488446</v>
       </c>
       <c r="G20">
-        <v>0.3783547947042294</v>
+        <v>0.7570289354218289</v>
       </c>
       <c r="H20">
-        <v>0.3227313180852107</v>
+        <v>0.8534254300243234</v>
       </c>
       <c r="I20">
-        <v>0.3472903904720965</v>
+        <v>0.8820849686311618</v>
       </c>
       <c r="J20">
-        <v>0.07553858671006708</v>
+        <v>0.2184104602680588</v>
       </c>
       <c r="K20">
-        <v>1.091603198629343</v>
+        <v>0.3595395609937384</v>
       </c>
       <c r="L20">
-        <v>0.2471054578209788</v>
+        <v>0.3567031279799835</v>
       </c>
       <c r="M20">
-        <v>0.2901126435256529</v>
+        <v>0.2102315461524853</v>
       </c>
       <c r="N20">
-        <v>0.8167524078737749</v>
+        <v>1.863866746968124</v>
       </c>
       <c r="O20">
-        <v>1.425769962763965</v>
+        <v>3.230825026919732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.428957037662343</v>
+        <v>0.6397654385129385</v>
       </c>
       <c r="C21">
-        <v>0.1249245300652646</v>
+        <v>0.1680102840745477</v>
       </c>
       <c r="D21">
-        <v>0.1666932343981244</v>
+        <v>0.2171746467716105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6720118045739056</v>
+        <v>1.379087445038643</v>
       </c>
       <c r="G21">
-        <v>0.3897105901260858</v>
+        <v>0.7540755083607422</v>
       </c>
       <c r="H21">
-        <v>0.3221335069097364</v>
+        <v>0.8484552408504271</v>
       </c>
       <c r="I21">
-        <v>0.344691664230286</v>
+        <v>0.8756287916936714</v>
       </c>
       <c r="J21">
-        <v>0.07373266866811967</v>
+        <v>0.2169725720560685</v>
       </c>
       <c r="K21">
-        <v>1.227233197970179</v>
+        <v>0.4008776380851771</v>
       </c>
       <c r="L21">
-        <v>0.2685982977901347</v>
+        <v>0.3608503585966076</v>
       </c>
       <c r="M21">
-        <v>0.3248948614854399</v>
+        <v>0.2195068452146813</v>
       </c>
       <c r="N21">
-        <v>0.7769066950312791</v>
+        <v>1.846175854931026</v>
       </c>
       <c r="O21">
-        <v>1.448952934173633</v>
+        <v>3.214406051673279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.533767470021161</v>
+        <v>0.6701024494103365</v>
       </c>
       <c r="C22">
-        <v>0.1273615103757564</v>
+        <v>0.1687721037176715</v>
       </c>
       <c r="D22">
-        <v>0.1756937469555169</v>
+        <v>0.2190302852773414</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.686161584047646</v>
+        <v>1.377008023249253</v>
       </c>
       <c r="G22">
-        <v>0.3978988732009014</v>
+        <v>0.7524661548804801</v>
       </c>
       <c r="H22">
-        <v>0.3221907300517159</v>
+        <v>0.8454489231030351</v>
       </c>
       <c r="I22">
-        <v>0.3435927597794901</v>
+        <v>0.8717048285796416</v>
       </c>
       <c r="J22">
-        <v>0.07262332360369328</v>
+        <v>0.2160788718362667</v>
       </c>
       <c r="K22">
-        <v>1.316016043512434</v>
+        <v>0.4278649444493112</v>
       </c>
       <c r="L22">
-        <v>0.2828396633508419</v>
+        <v>0.3636635790225853</v>
       </c>
       <c r="M22">
-        <v>0.3477484968076539</v>
+        <v>0.2256185787073122</v>
       </c>
       <c r="N22">
-        <v>0.7518171333155053</v>
+        <v>1.835060641078197</v>
       </c>
       <c r="O22">
-        <v>1.466660714903725</v>
+        <v>3.204855430832367</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.477797648845922</v>
+        <v>0.6539045971349253</v>
       </c>
       <c r="C23">
-        <v>0.1260595181049027</v>
+        <v>0.1683653472237481</v>
       </c>
       <c r="D23">
-        <v>0.1708801125017345</v>
+        <v>0.218034384652654</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6785127266390774</v>
+        <v>1.378072999408083</v>
       </c>
       <c r="G23">
-        <v>0.3934558951255838</v>
+        <v>0.7532957591459279</v>
       </c>
       <c r="H23">
-        <v>0.3221180767024379</v>
+        <v>0.8470313407019319</v>
       </c>
       <c r="I23">
-        <v>0.3441228141962469</v>
+        <v>0.8737721062996755</v>
       </c>
       <c r="J23">
-        <v>0.07320881176727667</v>
+        <v>0.2165516500760347</v>
       </c>
       <c r="K23">
-        <v>1.268615831325747</v>
+        <v>0.4134642106720889</v>
       </c>
       <c r="L23">
-        <v>0.275220251072497</v>
+        <v>0.362152752562892</v>
       </c>
       <c r="M23">
-        <v>0.3355392237190031</v>
+        <v>0.2223521344736739</v>
       </c>
       <c r="N23">
-        <v>0.7651189012719932</v>
+        <v>1.840952171659382</v>
       </c>
       <c r="O23">
-        <v>1.456967972013274</v>
+        <v>3.209844906933313</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.266442024569699</v>
+        <v>0.592703210656822</v>
       </c>
       <c r="C24">
-        <v>0.121156380503713</v>
+        <v>0.1668284541098188</v>
       </c>
       <c r="D24">
-        <v>0.1528603703996225</v>
+        <v>0.2143841773160204</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.651617182971961</v>
+        <v>1.383092873922486</v>
       </c>
       <c r="G24">
-        <v>0.3781815664107242</v>
+        <v>0.7570826298733664</v>
       </c>
       <c r="H24">
-        <v>0.3227484050593219</v>
+        <v>0.8535107574279053</v>
       </c>
       <c r="I24">
-        <v>0.3473426377133748</v>
+        <v>0.8821954861120709</v>
       </c>
       <c r="J24">
-        <v>0.07556927893146259</v>
+        <v>0.2184347405690321</v>
       </c>
       <c r="K24">
-        <v>1.08938828408111</v>
+        <v>0.3588634575673098</v>
       </c>
       <c r="L24">
-        <v>0.2467572945803767</v>
+        <v>0.3566370886410368</v>
       </c>
       <c r="M24">
-        <v>0.2895460341138829</v>
+        <v>0.2100807998336265</v>
       </c>
       <c r="N24">
-        <v>0.8174193198504582</v>
+        <v>1.864163441794712</v>
       </c>
       <c r="O24">
-        <v>1.425432490723011</v>
+        <v>3.23111333456265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.039489467192851</v>
+        <v>0.5270261938750878</v>
       </c>
       <c r="C25">
-        <v>0.1159197284343705</v>
+        <v>0.1651793133860195</v>
       </c>
       <c r="D25">
-        <v>0.1338365594586151</v>
+        <v>0.2107099959189611</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6267030575283883</v>
+        <v>1.390622250146997</v>
       </c>
       <c r="G25">
-        <v>0.3647474204412333</v>
+        <v>0.7625473222994401</v>
       </c>
       <c r="H25">
-        <v>0.325242978485818</v>
+        <v>0.8615419688454296</v>
       </c>
       <c r="I25">
-        <v>0.3532357252862823</v>
+        <v>0.8925527918666347</v>
       </c>
       <c r="J25">
-        <v>0.07841022598742065</v>
+        <v>0.2206643054843695</v>
       </c>
       <c r="K25">
-        <v>0.8964515199086236</v>
+        <v>0.2998608136448979</v>
       </c>
       <c r="L25">
-        <v>0.2168207587060493</v>
+        <v>0.3511333006909751</v>
       </c>
       <c r="M25">
-        <v>0.2403847792224667</v>
+        <v>0.1970638103229554</v>
       </c>
       <c r="N25">
-        <v>0.8777371715686968</v>
+        <v>1.891120461061767</v>
       </c>
       <c r="O25">
-        <v>1.401634981134265</v>
+        <v>3.259132794603303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4789760608989297</v>
+        <v>0.8729538862252184</v>
       </c>
       <c r="C2">
-        <v>0.1639730969960951</v>
+        <v>0.1121011753014045</v>
       </c>
       <c r="D2">
-        <v>0.2082336549795869</v>
+        <v>0.1201460631685833</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.397992430755174</v>
+        <v>0.6115646631858169</v>
       </c>
       <c r="G2">
-        <v>0.7677603597370748</v>
+        <v>0.3572099440940661</v>
       </c>
       <c r="H2">
-        <v>0.8683558606115156</v>
+        <v>0.3285278847109296</v>
       </c>
       <c r="I2">
-        <v>0.9012760793704153</v>
+        <v>0.3594963218404317</v>
       </c>
       <c r="J2">
-        <v>0.2224775250683031</v>
+        <v>0.08074575305306375</v>
       </c>
       <c r="K2">
-        <v>0.2563370921391765</v>
+        <v>0.7544751220484471</v>
       </c>
       <c r="L2">
-        <v>0.347468017597123</v>
+        <v>0.1953591671954555</v>
       </c>
       <c r="M2">
-        <v>0.187672405718768</v>
+        <v>0.2044923597920416</v>
       </c>
       <c r="N2">
-        <v>1.912625425011994</v>
+        <v>0.9253241825862339</v>
       </c>
       <c r="O2">
-        <v>3.284144968544709</v>
+        <v>1.39210992432038</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4466130584542611</v>
+        <v>0.7603016415361026</v>
       </c>
       <c r="C3">
-        <v>0.1631609766174833</v>
+        <v>0.1095330909381929</v>
       </c>
       <c r="D3">
-        <v>0.2066996290951337</v>
+        <v>0.1110473403022922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.404130540455498</v>
+        <v>0.6031563833570388</v>
       </c>
       <c r="G3">
-        <v>0.7720366157460674</v>
+        <v>0.3534477589328446</v>
       </c>
       <c r="H3">
-        <v>0.8735376501765728</v>
+        <v>0.3316049365206339</v>
       </c>
       <c r="I3">
-        <v>0.9078743556003204</v>
+        <v>0.3648629427167087</v>
       </c>
       <c r="J3">
-        <v>0.2238139159350325</v>
+        <v>0.08247598701418113</v>
       </c>
       <c r="K3">
-        <v>0.2267971573531753</v>
+        <v>0.6581928369053571</v>
       </c>
       <c r="L3">
-        <v>0.3452275390161219</v>
+        <v>0.181140570137714</v>
       </c>
       <c r="M3">
-        <v>0.181430365027996</v>
+        <v>0.1803201832585266</v>
       </c>
       <c r="N3">
-        <v>1.928235622313633</v>
+        <v>0.9594696086394805</v>
       </c>
       <c r="O3">
-        <v>3.303836567928727</v>
+        <v>1.390273456935589</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4268447978245717</v>
+        <v>0.6911934180839125</v>
       </c>
       <c r="C4">
-        <v>0.1626650916181092</v>
+        <v>0.1079650493384889</v>
       </c>
       <c r="D4">
-        <v>0.205829378681095</v>
+        <v>0.1055436736709154</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.408464701803638</v>
+        <v>0.5988604208219499</v>
       </c>
       <c r="G4">
-        <v>0.7750294083441176</v>
+        <v>0.3517634984747176</v>
       </c>
       <c r="H4">
-        <v>0.8769982029513699</v>
+        <v>0.3338975459973597</v>
       </c>
       <c r="I4">
-        <v>0.9122649630707969</v>
+        <v>0.3686888816750127</v>
       </c>
       <c r="J4">
-        <v>0.2246876849695916</v>
+        <v>0.08360961043083748</v>
       </c>
       <c r="K4">
-        <v>0.2086407233356624</v>
+        <v>0.5990096420473634</v>
       </c>
       <c r="L4">
-        <v>0.3439727414172609</v>
+        <v>0.1725601147602234</v>
       </c>
       <c r="M4">
-        <v>0.1776590657313903</v>
+        <v>0.165542193928971</v>
       </c>
       <c r="N4">
-        <v>1.938332229446651</v>
+        <v>0.9813428749457884</v>
       </c>
       <c r="O4">
-        <v>3.317281689185336</v>
+        <v>1.391308687211421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4188156207385703</v>
+        <v>0.6630409632704755</v>
       </c>
       <c r="C5">
-        <v>0.162463731586449</v>
+        <v>0.1073281420061321</v>
       </c>
       <c r="D5">
-        <v>0.2054928520239159</v>
+        <v>0.1033210106477256</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.410373297318912</v>
+        <v>0.5973211958377505</v>
       </c>
       <c r="G5">
-        <v>0.776341405282885</v>
+        <v>0.351229084358458</v>
       </c>
       <c r="H5">
-        <v>0.8784786514177796</v>
+        <v>0.3349308819502355</v>
       </c>
       <c r="I5">
-        <v>0.9141395713486204</v>
+        <v>0.3703781034801779</v>
       </c>
       <c r="J5">
-        <v>0.2250571587204639</v>
+        <v>0.08408927463588078</v>
       </c>
       <c r="K5">
-        <v>0.2012376489639536</v>
+        <v>0.5748711785021356</v>
       </c>
       <c r="L5">
-        <v>0.3434919279734601</v>
+        <v>0.1690996851817559</v>
       </c>
       <c r="M5">
-        <v>0.1761378212507125</v>
+        <v>0.1595345971023505</v>
       </c>
       <c r="N5">
-        <v>1.942575489525115</v>
+        <v>0.990480730693946</v>
       </c>
       <c r="O5">
-        <v>3.323101667121307</v>
+        <v>1.392258050229827</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4174840064497118</v>
+        <v>0.6583666990685799</v>
       </c>
       <c r="C6">
-        <v>0.1624303398986342</v>
+        <v>0.1072225063642733</v>
       </c>
       <c r="D6">
-        <v>0.2054380683500199</v>
+        <v>0.1029531335938785</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.41069882491594</v>
+        <v>0.597078191148313</v>
       </c>
       <c r="G6">
-        <v>0.7765648452099541</v>
+        <v>0.3511493675374311</v>
       </c>
       <c r="H6">
-        <v>0.8787287246303421</v>
+        <v>0.3351083842919707</v>
       </c>
       <c r="I6">
-        <v>0.9144560093921612</v>
+        <v>0.3706663606247922</v>
       </c>
       <c r="J6">
-        <v>0.2251193199157946</v>
+        <v>0.08416998564663203</v>
       </c>
       <c r="K6">
-        <v>0.2000081376933736</v>
+        <v>0.570861623954471</v>
       </c>
       <c r="L6">
-        <v>0.3434139369527571</v>
+        <v>0.1685272258220678</v>
       </c>
       <c r="M6">
-        <v>0.1758861662900628</v>
+        <v>0.1585378769161245</v>
       </c>
       <c r="N6">
-        <v>1.943287862257883</v>
+        <v>0.9920115002613699</v>
       </c>
       <c r="O6">
-        <v>3.324088676456356</v>
+        <v>1.392447084283404</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4267364050928677</v>
+        <v>0.690813712065534</v>
       </c>
       <c r="C7">
-        <v>0.1626623730721448</v>
+        <v>0.1079564515086346</v>
       </c>
       <c r="D7">
-        <v>0.205824766727666</v>
+        <v>0.1055136175296312</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.408489864952813</v>
+        <v>0.5988388147427059</v>
       </c>
       <c r="G7">
-        <v>0.7750467281166635</v>
+        <v>0.3517556829958366</v>
       </c>
       <c r="H7">
-        <v>0.8770178842304475</v>
+        <v>0.3339110837724562</v>
       </c>
       <c r="I7">
-        <v>0.9122898987843229</v>
+        <v>0.3687111406009755</v>
       </c>
       <c r="J7">
-        <v>0.2246926135107312</v>
+        <v>0.08361600794591872</v>
       </c>
       <c r="K7">
-        <v>0.20854089908768</v>
+        <v>0.5986841922279211</v>
       </c>
       <c r="L7">
-        <v>0.3439661332188777</v>
+        <v>0.1725133016564087</v>
       </c>
       <c r="M7">
-        <v>0.177638486349796</v>
+        <v>0.1654611163737947</v>
       </c>
       <c r="N7">
-        <v>1.938388933860214</v>
+        <v>0.9814652081084212</v>
       </c>
       <c r="O7">
-        <v>3.317358798278761</v>
+        <v>1.391319375991031</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4677963874864872</v>
+        <v>0.8340953233414723</v>
       </c>
       <c r="C8">
-        <v>0.1636925185598628</v>
+        <v>0.1112138009889208</v>
       </c>
       <c r="D8">
-        <v>0.2076899061639779</v>
+        <v>0.1169911412439362</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.399991652664035</v>
+        <v>0.6084815775344623</v>
       </c>
       <c r="G8">
-        <v>0.7691586608444894</v>
+        <v>0.3557795485800241</v>
       </c>
       <c r="H8">
-        <v>0.870084719314427</v>
+        <v>0.3295037186786587</v>
       </c>
       <c r="I8">
-        <v>0.9034808134233039</v>
+        <v>0.3612345048346981</v>
       </c>
       <c r="J8">
-        <v>0.2229272809460117</v>
+        <v>0.08132741865254367</v>
       </c>
       <c r="K8">
-        <v>0.2461559421261512</v>
+        <v>0.7212878518160721</v>
       </c>
       <c r="L8">
-        <v>0.3466704941803513</v>
+        <v>0.1904245741212307</v>
       </c>
       <c r="M8">
-        <v>0.1855075168277374</v>
+        <v>0.1961436170448181</v>
       </c>
       <c r="N8">
-        <v>1.917901637246617</v>
+        <v>0.9369066797904217</v>
       </c>
       <c r="O8">
-        <v>3.290653769272041</v>
+        <v>1.391017768034544</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5491030001201977</v>
+        <v>1.115830339391437</v>
       </c>
       <c r="C9">
-        <v>0.1657336228208024</v>
+        <v>0.1176774457453149</v>
       </c>
       <c r="D9">
-        <v>0.2119122677581373</v>
+        <v>0.1401930713124955</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.387802788366223</v>
+        <v>0.6345769083911463</v>
       </c>
       <c r="G9">
-        <v>0.7605219483955779</v>
+        <v>0.3688901444546033</v>
       </c>
       <c r="H9">
-        <v>0.85869703981718</v>
+        <v>0.3241704559196776</v>
       </c>
       <c r="I9">
-        <v>0.8888937282703502</v>
+        <v>0.3509418015923949</v>
       </c>
       <c r="J9">
-        <v>0.2198866840191815</v>
+        <v>0.07741474794555359</v>
       </c>
       <c r="K9">
-        <v>0.3197492714245982</v>
+        <v>0.9614137698576144</v>
       </c>
       <c r="L9">
-        <v>0.3529273863171056</v>
+        <v>0.2268097539747203</v>
       </c>
       <c r="M9">
-        <v>0.2014189201861427</v>
+        <v>0.2568922337113975</v>
       </c>
       <c r="N9">
-        <v>1.881782959607101</v>
+        <v>0.8569139700782102</v>
       </c>
       <c r="O9">
-        <v>3.249014729622161</v>
+        <v>1.408357860171222</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6092888505896497</v>
+        <v>1.323712463834852</v>
       </c>
       <c r="C10">
-        <v>0.1672449511333483</v>
+        <v>0.122482716388042</v>
       </c>
       <c r="D10">
-        <v>0.2153543433549316</v>
+        <v>0.1577169255436388</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.381564302713031</v>
+        <v>0.6585792571052025</v>
       </c>
       <c r="G10">
-        <v>0.7559463074163375</v>
+        <v>0.3820751519227201</v>
       </c>
       <c r="H10">
-        <v>0.8516702769172184</v>
+        <v>0.3224289790160242</v>
       </c>
       <c r="I10">
-        <v>0.8798093090574817</v>
+        <v>0.3462704205294074</v>
       </c>
       <c r="J10">
-        <v>0.2179080625203866</v>
+        <v>0.07490491276134037</v>
       </c>
       <c r="K10">
-        <v>0.3736923629553814</v>
+        <v>1.137991832159543</v>
       </c>
       <c r="L10">
-        <v>0.3580992688160478</v>
+        <v>0.2544187780580671</v>
       </c>
       <c r="M10">
-        <v>0.2133944389084874</v>
+        <v>0.3019902468768763</v>
       </c>
       <c r="N10">
-        <v>1.857712505997153</v>
+        <v>0.8029076148568208</v>
       </c>
       <c r="O10">
-        <v>3.224941614652494</v>
+        <v>1.433148927944501</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6367604984260993</v>
+        <v>1.41857862306577</v>
       </c>
       <c r="C11">
-        <v>0.1679348235862648</v>
+        <v>0.1246834944085435</v>
       </c>
       <c r="D11">
-        <v>0.2169931300572188</v>
+        <v>0.1658052294835954</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.379313652629449</v>
+        <v>0.670651752250798</v>
       </c>
       <c r="G11">
-        <v>0.7542481765139399</v>
+        <v>0.3889309013316904</v>
       </c>
       <c r="H11">
-        <v>0.8487631879207385</v>
+        <v>0.3221464989834288</v>
       </c>
       <c r="I11">
-        <v>0.8760299105135125</v>
+        <v>0.3448256285386613</v>
       </c>
       <c r="J11">
-        <v>0.2170630595055538</v>
+        <v>0.07384558797159535</v>
       </c>
       <c r="K11">
-        <v>0.3982006444507817</v>
+        <v>1.218437079562278</v>
       </c>
       <c r="L11">
-        <v>0.3605756195598815</v>
+        <v>0.2671944855031398</v>
       </c>
       <c r="M11">
-        <v>0.2189028978473431</v>
+        <v>0.3226341832264907</v>
       </c>
       <c r="N11">
-        <v>1.847296153383709</v>
+        <v>0.779433771290563</v>
       </c>
       <c r="O11">
-        <v>3.215401158934014</v>
+        <v>1.447304237819736</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6471759893005071</v>
+        <v>1.454553591416158</v>
       </c>
       <c r="C12">
-        <v>0.1681963784921265</v>
+        <v>0.1255192202872166</v>
       </c>
       <c r="D12">
-        <v>0.2176241023783803</v>
+        <v>0.1688858901588333</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.378545620565703</v>
+        <v>0.675398308627976</v>
       </c>
       <c r="G12">
-        <v>0.7536601881224385</v>
+        <v>0.3916578977383551</v>
       </c>
       <c r="H12">
-        <v>0.847703860100907</v>
+        <v>0.3221160950417925</v>
       </c>
       <c r="I12">
-        <v>0.8746494408981462</v>
+        <v>0.3443809719153421</v>
       </c>
       <c r="J12">
-        <v>0.2167509760155166</v>
+        <v>0.07345658802691091</v>
       </c>
       <c r="K12">
-        <v>0.4074763826986327</v>
+        <v>1.248923535452491</v>
       </c>
       <c r="L12">
-        <v>0.3615310015018451</v>
+        <v>0.2720655644383498</v>
       </c>
       <c r="M12">
-        <v>0.2209973878557463</v>
+        <v>0.3304722416803614</v>
       </c>
       <c r="N12">
-        <v>1.843428365580653</v>
+        <v>0.7707075735558959</v>
       </c>
       <c r="O12">
-        <v>3.211990888684682</v>
+        <v>1.453101154366351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6449322800270352</v>
+        <v>1.446803325396132</v>
       </c>
       <c r="C13">
-        <v>0.1681400343341082</v>
+        <v>0.1253391242740349</v>
       </c>
       <c r="D13">
-        <v>0.2174877501747119</v>
+        <v>0.1682216063775854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.37870728672133</v>
+        <v>0.6743681216880262</v>
       </c>
       <c r="G13">
-        <v>0.7537843743665888</v>
+        <v>0.3910646455647964</v>
       </c>
       <c r="H13">
-        <v>0.8479301600266922</v>
+        <v>0.3221191838733262</v>
       </c>
       <c r="I13">
-        <v>0.8749444957467354</v>
+        <v>0.3444721035416727</v>
       </c>
       <c r="J13">
-        <v>0.2168178377036281</v>
+        <v>0.07353982123670022</v>
       </c>
       <c r="K13">
-        <v>0.4054789191702639</v>
+        <v>1.242356574945063</v>
       </c>
       <c r="L13">
-        <v>0.3613244604708541</v>
+        <v>0.2710149792930423</v>
       </c>
       <c r="M13">
-        <v>0.2205459242477303</v>
+        <v>0.3287832215644997</v>
       </c>
       <c r="N13">
-        <v>1.844257954172601</v>
+        <v>0.7725795829883033</v>
       </c>
       <c r="O13">
-        <v>3.212716350850087</v>
+        <v>1.451832890154435</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6376171395424421</v>
+        <v>1.421537230497933</v>
       </c>
       <c r="C14">
-        <v>0.167956335689091</v>
+        <v>0.1247522019614848</v>
       </c>
       <c r="D14">
-        <v>0.2170448326467351</v>
+        <v>0.1660583145702503</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.379248779061804</v>
+        <v>0.6710386941113811</v>
       </c>
       <c r="G14">
-        <v>0.7541986993257694</v>
+        <v>0.3891525855567011</v>
       </c>
       <c r="H14">
-        <v>0.8486752047277548</v>
+        <v>0.3221424437995353</v>
       </c>
       <c r="I14">
-        <v>0.8759153226456675</v>
+        <v>0.3447869656007363</v>
       </c>
       <c r="J14">
-        <v>0.2170372259782827</v>
+        <v>0.0738133396149987</v>
       </c>
       <c r="K14">
-        <v>0.3989638689937181</v>
+        <v>1.220944707296667</v>
       </c>
       <c r="L14">
-        <v>0.3606538666272598</v>
+        <v>0.2675945543393254</v>
       </c>
       <c r="M14">
-        <v>0.2190750423399663</v>
+        <v>0.323278598406894</v>
       </c>
       <c r="N14">
-        <v>1.846976412050871</v>
+        <v>0.7787125655409071</v>
       </c>
       <c r="O14">
-        <v>3.215116537620389</v>
+        <v>1.44777226836942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6331380194055782</v>
+        <v>1.406067937717268</v>
       </c>
       <c r="C15">
-        <v>0.1678438552874297</v>
+        <v>0.12439300610977</v>
       </c>
       <c r="D15">
-        <v>0.216774884399868</v>
+        <v>0.1647355847623118</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.379591423144774</v>
+        <v>0.6690223863679208</v>
       </c>
       <c r="G15">
-        <v>0.7544596533245596</v>
+        <v>0.3879986672159532</v>
       </c>
       <c r="H15">
-        <v>0.8491369709275318</v>
+        <v>0.3221667622418778</v>
       </c>
       <c r="I15">
-        <v>0.876516583400111</v>
+        <v>0.3449933120867463</v>
       </c>
       <c r="J15">
-        <v>0.2171726359622372</v>
+        <v>0.07398246786716101</v>
       </c>
       <c r="K15">
-        <v>0.3949725415531589</v>
+        <v>1.207832591312382</v>
       </c>
       <c r="L15">
-        <v>0.3602454019330708</v>
+        <v>0.2655038327890651</v>
       </c>
       <c r="M15">
-        <v>0.2181751936943712</v>
+        <v>0.3199096128324683</v>
       </c>
       <c r="N15">
-        <v>1.848651527917113</v>
+        <v>0.7824905697413804</v>
       </c>
       <c r="O15">
-        <v>3.216613081875806</v>
+        <v>1.445342577189166</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6074953153350577</v>
+        <v>1.317519448698562</v>
       </c>
       <c r="C16">
-        <v>0.1671999117787948</v>
+        <v>0.1223392060845114</v>
       </c>
       <c r="D16">
-        <v>0.2152487051237983</v>
+        <v>0.1571907689688459</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.381723187536153</v>
+        <v>0.6578142704887782</v>
       </c>
       <c r="G16">
-        <v>0.7560649924228144</v>
+        <v>0.3816450077352656</v>
       </c>
       <c r="H16">
-        <v>0.8518660778046723</v>
+        <v>0.3224579719864593</v>
       </c>
       <c r="I16">
-        <v>0.8800634014195658</v>
+        <v>0.3463789202002019</v>
       </c>
       <c r="J16">
-        <v>0.2179643921388426</v>
+        <v>0.07497582516593582</v>
       </c>
       <c r="K16">
-        <v>0.3720900199445225</v>
+        <v>1.132737484340254</v>
       </c>
       <c r="L16">
-        <v>0.3579399096255855</v>
+        <v>0.2535883836305146</v>
       </c>
       <c r="M16">
-        <v>0.2130356551414678</v>
+        <v>0.3006438863148304</v>
       </c>
       <c r="N16">
-        <v>1.858403968886236</v>
+        <v>0.8044641647723232</v>
       </c>
       <c r="O16">
-        <v>3.225593460305802</v>
+        <v>1.432283672973838</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5917875675473852</v>
+        <v>1.263280166836125</v>
       </c>
       <c r="C17">
-        <v>0.1668054607657581</v>
+        <v>0.1210832069853325</v>
       </c>
       <c r="D17">
-        <v>0.2143310662129778</v>
+        <v>0.1525928502128835</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.383181221367749</v>
+        <v>0.6512402446694523</v>
       </c>
       <c r="G17">
-        <v>0.7571479527671556</v>
+        <v>0.3779721762237855</v>
       </c>
       <c r="H17">
-        <v>0.8536143565898726</v>
+        <v>0.3227694419086973</v>
       </c>
       <c r="I17">
-        <v>0.882329655375603</v>
+        <v>0.34740639633387</v>
       </c>
       <c r="J17">
-        <v>0.218464202494129</v>
+        <v>0.07560652923349842</v>
       </c>
       <c r="K17">
-        <v>0.3580440430654335</v>
+        <v>1.086704019814022</v>
       </c>
       <c r="L17">
-        <v>0.3565571333414397</v>
+        <v>0.2463354814915419</v>
       </c>
       <c r="M17">
-        <v>0.2098981442306709</v>
+        <v>0.2888594211407707</v>
       </c>
       <c r="N17">
-        <v>1.864523363184741</v>
+        <v>0.8182282812366513</v>
       </c>
       <c r="O17">
-        <v>3.231463660055795</v>
+        <v>1.425025347809893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5827616675900629</v>
+        <v>1.232110842738138</v>
       </c>
       <c r="C18">
-        <v>0.1665788067194001</v>
+        <v>0.1203621726523565</v>
       </c>
       <c r="D18">
-        <v>0.2138101383887943</v>
+        <v>0.149959160697577</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.384075132797385</v>
+        <v>0.6475670608072619</v>
       </c>
       <c r="G18">
-        <v>0.75780692985672</v>
+        <v>0.3759399295500927</v>
       </c>
       <c r="H18">
-        <v>0.8546471675865348</v>
+        <v>0.3229963631529742</v>
       </c>
       <c r="I18">
-        <v>0.8836663893202079</v>
+        <v>0.3480611095957649</v>
       </c>
       <c r="J18">
-        <v>0.2187568659346404</v>
+        <v>0.075977032202724</v>
       </c>
       <c r="K18">
-        <v>0.3499623148665307</v>
+        <v>1.060237576713234</v>
       </c>
       <c r="L18">
-        <v>0.3557734423438177</v>
+        <v>0.2421840233237305</v>
       </c>
       <c r="M18">
-        <v>0.2080992582620453</v>
+        <v>0.2820932787196924</v>
       </c>
       <c r="N18">
-        <v>1.868093287315656</v>
+        <v>0.8262476541088901</v>
       </c>
       <c r="O18">
-        <v>3.234972829223594</v>
+        <v>1.421119980807433</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5797071845993287</v>
+        <v>1.221561958978384</v>
       </c>
       <c r="C19">
-        <v>0.1665021047269946</v>
+        <v>0.1201182743913023</v>
       </c>
       <c r="D19">
-        <v>0.2136349446100496</v>
+        <v>0.149069282377468</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.384387298116494</v>
+        <v>0.6463416683551841</v>
       </c>
       <c r="G19">
-        <v>0.758036248224478</v>
+        <v>0.3752654094347321</v>
       </c>
       <c r="H19">
-        <v>0.8550015422812649</v>
+        <v>0.3230813030021338</v>
       </c>
       <c r="I19">
-        <v>0.8841246965736573</v>
+        <v>0.3482935936134979</v>
       </c>
       <c r="J19">
-        <v>0.2188568480114377</v>
+        <v>0.07610379857310612</v>
       </c>
       <c r="K19">
-        <v>0.3472255087329188</v>
+        <v>1.051278156401679</v>
       </c>
       <c r="L19">
-        <v>0.3555101023092675</v>
+        <v>0.240781821416661</v>
       </c>
       <c r="M19">
-        <v>0.2074911754627422</v>
+        <v>0.2798043716006404</v>
       </c>
       <c r="N19">
-        <v>1.869310627403504</v>
+        <v>0.8289803365206918</v>
       </c>
       <c r="O19">
-        <v>3.236183789965509</v>
+        <v>1.41984329080401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5934587808853848</v>
+        <v>1.269051109281378</v>
       </c>
       <c r="C20">
-        <v>0.1668474277703709</v>
+        <v>0.1212167656516954</v>
       </c>
       <c r="D20">
-        <v>0.2144280397063483</v>
+        <v>0.1530811699253007</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.383020290488446</v>
+        <v>0.6519288169603072</v>
       </c>
       <c r="G20">
-        <v>0.7570289354218289</v>
+        <v>0.3783547947042933</v>
       </c>
       <c r="H20">
-        <v>0.8534254300243234</v>
+        <v>0.3227313180852107</v>
       </c>
       <c r="I20">
-        <v>0.8820849686311618</v>
+        <v>0.3472903904720788</v>
       </c>
       <c r="J20">
-        <v>0.2184104602680588</v>
+        <v>0.07553858671003688</v>
       </c>
       <c r="K20">
-        <v>0.3595395609937384</v>
+        <v>1.091603198629315</v>
       </c>
       <c r="L20">
-        <v>0.3567031279799835</v>
+        <v>0.2471054578208651</v>
       </c>
       <c r="M20">
-        <v>0.2102315461524853</v>
+        <v>0.2901126435256316</v>
       </c>
       <c r="N20">
-        <v>1.863866746968124</v>
+        <v>0.8167524078737145</v>
       </c>
       <c r="O20">
-        <v>3.230825026919732</v>
+        <v>1.425769962763951</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6397654385129385</v>
+        <v>1.428957037662343</v>
       </c>
       <c r="C21">
-        <v>0.1680102840745477</v>
+        <v>0.1249245300652788</v>
       </c>
       <c r="D21">
-        <v>0.2171746467716105</v>
+        <v>0.1666932343984229</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.379087445038643</v>
+        <v>0.6720118045739056</v>
       </c>
       <c r="G21">
-        <v>0.7540755083607422</v>
+        <v>0.3897105901261284</v>
       </c>
       <c r="H21">
-        <v>0.8484552408504271</v>
+        <v>0.3221335069097506</v>
       </c>
       <c r="I21">
-        <v>0.8756287916936714</v>
+        <v>0.3446916642302753</v>
       </c>
       <c r="J21">
-        <v>0.2169725720560685</v>
+        <v>0.07373266866806993</v>
       </c>
       <c r="K21">
-        <v>0.4008776380851771</v>
+        <v>1.227233197970179</v>
       </c>
       <c r="L21">
-        <v>0.3608503585966076</v>
+        <v>0.2685982977901631</v>
       </c>
       <c r="M21">
-        <v>0.2195068452146813</v>
+        <v>0.3248948614854328</v>
       </c>
       <c r="N21">
-        <v>1.846175854931026</v>
+        <v>0.7769066950312826</v>
       </c>
       <c r="O21">
-        <v>3.214406051673279</v>
+        <v>1.448952934173633</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6701024494103365</v>
+        <v>1.533767470021189</v>
       </c>
       <c r="C22">
-        <v>0.1687721037176715</v>
+        <v>0.1273615103754508</v>
       </c>
       <c r="D22">
-        <v>0.2190302852773414</v>
+        <v>0.1756937469556448</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.377008023249253</v>
+        <v>0.6861615840476389</v>
       </c>
       <c r="G22">
-        <v>0.7524661548804801</v>
+        <v>0.3978988732009725</v>
       </c>
       <c r="H22">
-        <v>0.8454489231030351</v>
+        <v>0.3221907300517159</v>
       </c>
       <c r="I22">
-        <v>0.8717048285796416</v>
+        <v>0.3435927597795008</v>
       </c>
       <c r="J22">
-        <v>0.2160788718362667</v>
+        <v>0.07262332360364709</v>
       </c>
       <c r="K22">
-        <v>0.4278649444493112</v>
+        <v>1.31601604351232</v>
       </c>
       <c r="L22">
-        <v>0.3636635790225853</v>
+        <v>0.2828396633508135</v>
       </c>
       <c r="M22">
-        <v>0.2256185787073122</v>
+        <v>0.3477484968076539</v>
       </c>
       <c r="N22">
-        <v>1.835060641078197</v>
+        <v>0.7518171333155692</v>
       </c>
       <c r="O22">
-        <v>3.204855430832367</v>
+        <v>1.466660714903583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6539045971349253</v>
+        <v>1.477797648845893</v>
       </c>
       <c r="C23">
-        <v>0.1683653472237481</v>
+        <v>0.1260595181053006</v>
       </c>
       <c r="D23">
-        <v>0.218034384652654</v>
+        <v>0.170880112501564</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.378072999408083</v>
+        <v>0.6785127266391129</v>
       </c>
       <c r="G23">
-        <v>0.7532957591459279</v>
+        <v>0.3934558951255269</v>
       </c>
       <c r="H23">
-        <v>0.8470313407019319</v>
+        <v>0.3221180767024379</v>
       </c>
       <c r="I23">
-        <v>0.8737721062996755</v>
+        <v>0.3441228141962505</v>
       </c>
       <c r="J23">
-        <v>0.2165516500760347</v>
+        <v>0.0732088117672145</v>
       </c>
       <c r="K23">
-        <v>0.4134642106720889</v>
+        <v>1.268615831325945</v>
       </c>
       <c r="L23">
-        <v>0.362152752562892</v>
+        <v>0.2752202510725539</v>
       </c>
       <c r="M23">
-        <v>0.2223521344736739</v>
+        <v>0.3355392237190031</v>
       </c>
       <c r="N23">
-        <v>1.840952171659382</v>
+        <v>0.7651189012720501</v>
       </c>
       <c r="O23">
-        <v>3.209844906933313</v>
+        <v>1.456967972013388</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.592703210656822</v>
+        <v>1.266442024569727</v>
       </c>
       <c r="C24">
-        <v>0.1668284541098188</v>
+        <v>0.1211563805037059</v>
       </c>
       <c r="D24">
-        <v>0.2143841773160204</v>
+        <v>0.1528603703996083</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.383092873922486</v>
+        <v>0.6516171829719752</v>
       </c>
       <c r="G24">
-        <v>0.7570826298733664</v>
+        <v>0.3781815664106531</v>
       </c>
       <c r="H24">
-        <v>0.8535107574279053</v>
+        <v>0.3227484050593148</v>
       </c>
       <c r="I24">
-        <v>0.8821954861120709</v>
+        <v>0.3473426377133748</v>
       </c>
       <c r="J24">
-        <v>0.2184347405690321</v>
+        <v>0.07556927893142351</v>
       </c>
       <c r="K24">
-        <v>0.3588634575673098</v>
+        <v>1.089388284081167</v>
       </c>
       <c r="L24">
-        <v>0.3566370886410368</v>
+        <v>0.2467572945802914</v>
       </c>
       <c r="M24">
-        <v>0.2100807998336265</v>
+        <v>0.2895460341138971</v>
       </c>
       <c r="N24">
-        <v>1.864163441794712</v>
+        <v>0.8174193198505169</v>
       </c>
       <c r="O24">
-        <v>3.23111333456265</v>
+        <v>1.425432490722955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5270261938750878</v>
+        <v>1.039489467192823</v>
       </c>
       <c r="C25">
-        <v>0.1651793133860195</v>
+        <v>0.1159197284339726</v>
       </c>
       <c r="D25">
-        <v>0.2107099959189611</v>
+        <v>0.133836559458544</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.390622250146997</v>
+        <v>0.6267030575283883</v>
       </c>
       <c r="G25">
-        <v>0.7625473222994401</v>
+        <v>0.3647474204412191</v>
       </c>
       <c r="H25">
-        <v>0.8615419688454296</v>
+        <v>0.3252429784859387</v>
       </c>
       <c r="I25">
-        <v>0.8925527918666347</v>
+        <v>0.3532357252862894</v>
       </c>
       <c r="J25">
-        <v>0.2206643054843695</v>
+        <v>0.07841022598744374</v>
       </c>
       <c r="K25">
-        <v>0.2998608136448979</v>
+        <v>0.8964515199085383</v>
       </c>
       <c r="L25">
-        <v>0.3511333006909751</v>
+        <v>0.2168207587060209</v>
       </c>
       <c r="M25">
-        <v>0.1970638103229554</v>
+        <v>0.2403847792224632</v>
       </c>
       <c r="N25">
-        <v>1.891120461061767</v>
+        <v>0.8777371715686737</v>
       </c>
       <c r="O25">
-        <v>3.259132794603303</v>
+        <v>1.40163498113418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8729538862252184</v>
+        <v>0.8733026535839201</v>
       </c>
       <c r="C2">
-        <v>0.1121011753014045</v>
+        <v>0.1035189218280124</v>
       </c>
       <c r="D2">
-        <v>0.1201460631685833</v>
+        <v>0.03833963812471097</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6115646631858169</v>
+        <v>1.3368226817378</v>
       </c>
       <c r="G2">
-        <v>0.3572099440940661</v>
+        <v>1.076552649090459</v>
       </c>
       <c r="H2">
-        <v>0.3285278847109296</v>
+        <v>0.02878474103209805</v>
       </c>
       <c r="I2">
-        <v>0.3594963218404317</v>
+        <v>0.0315772876529592</v>
       </c>
       <c r="J2">
-        <v>0.08074575305306375</v>
+        <v>0.7636468540210757</v>
       </c>
       <c r="K2">
-        <v>0.7544751220484471</v>
+        <v>0.8460074401613369</v>
       </c>
       <c r="L2">
-        <v>0.1953591671954555</v>
+        <v>0.06786853901072298</v>
       </c>
       <c r="M2">
-        <v>0.2044923597920416</v>
+        <v>0.8288610226592823</v>
       </c>
       <c r="N2">
-        <v>0.9253241825862339</v>
+        <v>0.1629669917207934</v>
       </c>
       <c r="O2">
-        <v>1.39210992432038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1980798017263687</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7603016415361026</v>
+        <v>0.7608383813382886</v>
       </c>
       <c r="C3">
-        <v>0.1095330909381929</v>
+        <v>0.09170532805662646</v>
       </c>
       <c r="D3">
-        <v>0.1110473403022922</v>
+        <v>0.0339857363373639</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6031563833570388</v>
+        <v>1.288131994198977</v>
       </c>
       <c r="G3">
-        <v>0.3534477589328446</v>
+        <v>1.036488951766557</v>
       </c>
       <c r="H3">
-        <v>0.3316049365206339</v>
+        <v>0.03371081501606388</v>
       </c>
       <c r="I3">
-        <v>0.3648629427167087</v>
+        <v>0.03687950618093616</v>
       </c>
       <c r="J3">
-        <v>0.08247598701418113</v>
+        <v>0.7493878862507302</v>
       </c>
       <c r="K3">
-        <v>0.6581928369053571</v>
+        <v>0.827958296296778</v>
       </c>
       <c r="L3">
-        <v>0.181140570137714</v>
+        <v>0.06426108821221099</v>
       </c>
       <c r="M3">
-        <v>0.1803201832585266</v>
+        <v>0.721014939929006</v>
       </c>
       <c r="N3">
-        <v>0.9594696086394805</v>
+        <v>0.1461372081079801</v>
       </c>
       <c r="O3">
-        <v>1.390273456935589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1735987179860388</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6911934180839125</v>
+        <v>0.6917069830660694</v>
       </c>
       <c r="C4">
-        <v>0.1079650493384889</v>
+        <v>0.08456092726039799</v>
       </c>
       <c r="D4">
-        <v>0.1055436736709154</v>
+        <v>0.03133902952767897</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5988604208219499</v>
+        <v>1.258583447566494</v>
       </c>
       <c r="G4">
-        <v>0.3517634984747176</v>
+        <v>1.012174716178663</v>
       </c>
       <c r="H4">
-        <v>0.3338975459973597</v>
+        <v>0.03704745033442247</v>
       </c>
       <c r="I4">
-        <v>0.3686888816750127</v>
+        <v>0.04050082304333325</v>
       </c>
       <c r="J4">
-        <v>0.08360961043083748</v>
+        <v>0.7408481323891891</v>
       </c>
       <c r="K4">
-        <v>0.5990096420473634</v>
+        <v>0.8169413983917693</v>
       </c>
       <c r="L4">
-        <v>0.1725601147602234</v>
+        <v>0.06199874618484813</v>
       </c>
       <c r="M4">
-        <v>0.165542193928971</v>
+        <v>0.6549530836455517</v>
       </c>
       <c r="N4">
-        <v>0.9813428749457884</v>
+        <v>0.1358606918096754</v>
       </c>
       <c r="O4">
-        <v>1.391308687211421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1585877776569049</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6630409632704755</v>
+        <v>0.6632707171959566</v>
       </c>
       <c r="C5">
-        <v>0.1073281420061321</v>
+        <v>0.08186830252789434</v>
       </c>
       <c r="D5">
-        <v>0.1033210106477256</v>
+        <v>0.03032535271197645</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5973211958377505</v>
+        <v>1.245303044597989</v>
       </c>
       <c r="G5">
-        <v>0.351229084358458</v>
+        <v>1.001012113946672</v>
       </c>
       <c r="H5">
-        <v>0.3349308819502355</v>
+        <v>0.03849330281323904</v>
       </c>
       <c r="I5">
-        <v>0.3703781034801779</v>
+        <v>0.04217243093011369</v>
       </c>
       <c r="J5">
-        <v>0.08408927463588078</v>
+        <v>0.7367400228942387</v>
       </c>
       <c r="K5">
-        <v>0.5748711785021356</v>
+        <v>0.8114707853364962</v>
       </c>
       <c r="L5">
-        <v>0.1690996851817559</v>
+        <v>0.06101437102785212</v>
       </c>
       <c r="M5">
-        <v>0.1595345971023505</v>
+        <v>0.6283143323510814</v>
       </c>
       <c r="N5">
-        <v>0.990480730693946</v>
+        <v>0.1318100439401348</v>
       </c>
       <c r="O5">
-        <v>1.392258050229827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1524970649065089</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6583666990685799</v>
+        <v>0.6582532139384796</v>
       </c>
       <c r="C6">
-        <v>0.1072225063642733</v>
+        <v>0.08166174731569953</v>
       </c>
       <c r="D6">
-        <v>0.1029531335938785</v>
+        <v>0.03022932013892188</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.597078191148313</v>
+        <v>1.241488036180456</v>
       </c>
       <c r="G6">
-        <v>0.3511493675374311</v>
+        <v>0.9975488822101255</v>
       </c>
       <c r="H6">
-        <v>0.3351083842919707</v>
+        <v>0.03875014166774404</v>
       </c>
       <c r="I6">
-        <v>0.3706663606247922</v>
+        <v>0.04259276841221915</v>
       </c>
       <c r="J6">
-        <v>0.08416998564663203</v>
+        <v>0.7352301066471654</v>
       </c>
       <c r="K6">
-        <v>0.570861623954471</v>
+        <v>0.8093469326078306</v>
       </c>
       <c r="L6">
-        <v>0.1685272258220678</v>
+        <v>0.06078924244621575</v>
       </c>
       <c r="M6">
-        <v>0.1585378769161245</v>
+        <v>0.6241997724240633</v>
       </c>
       <c r="N6">
-        <v>0.9920115002613699</v>
+        <v>0.1312905944305314</v>
       </c>
       <c r="O6">
-        <v>1.392447084283404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1515135769817313</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.690813712065534</v>
+        <v>0.6905165480908124</v>
       </c>
       <c r="C7">
-        <v>0.1079564515086346</v>
+        <v>0.08517877556133868</v>
       </c>
       <c r="D7">
-        <v>0.1055136175296312</v>
+        <v>0.03152195517075285</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5988388147427059</v>
+        <v>1.253997398063973</v>
       </c>
       <c r="G7">
-        <v>0.3517556829958366</v>
+        <v>1.007618934220403</v>
       </c>
       <c r="H7">
-        <v>0.3339110837724562</v>
+        <v>0.03709868053452459</v>
       </c>
       <c r="I7">
-        <v>0.3687111406009755</v>
+        <v>0.04087948771578276</v>
       </c>
       <c r="J7">
-        <v>0.08361600794591872</v>
+        <v>0.7385268285929243</v>
       </c>
       <c r="K7">
-        <v>0.5986841922279211</v>
+        <v>0.8135483731442221</v>
       </c>
       <c r="L7">
-        <v>0.1725133016564087</v>
+        <v>0.0618193025844942</v>
       </c>
       <c r="M7">
-        <v>0.1654611163737947</v>
+        <v>0.6554334658452632</v>
       </c>
       <c r="N7">
-        <v>0.9814652081084212</v>
+        <v>0.1362231029930285</v>
       </c>
       <c r="O7">
-        <v>1.391319375991031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1585811394478043</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8340953233414723</v>
+        <v>0.8334535390707742</v>
       </c>
       <c r="C8">
-        <v>0.1112138009889208</v>
+        <v>0.1002944832298027</v>
       </c>
       <c r="D8">
-        <v>0.1169911412439362</v>
+        <v>0.03709412704502313</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6084815775344623</v>
+        <v>1.314148659188746</v>
       </c>
       <c r="G8">
-        <v>0.3557795485800241</v>
+        <v>1.056865416458635</v>
       </c>
       <c r="H8">
-        <v>0.3295037186786587</v>
+        <v>0.03045350235038291</v>
       </c>
       <c r="I8">
-        <v>0.3612345048346981</v>
+        <v>0.03375434426206336</v>
       </c>
       <c r="J8">
-        <v>0.08132741865254367</v>
+        <v>0.7557054942869144</v>
       </c>
       <c r="K8">
-        <v>0.7212878518160721</v>
+        <v>0.8353990323513969</v>
       </c>
       <c r="L8">
-        <v>0.1904245741212307</v>
+        <v>0.06641514852418773</v>
       </c>
       <c r="M8">
-        <v>0.1961436170448181</v>
+        <v>0.7927537033363876</v>
       </c>
       <c r="N8">
-        <v>0.9369066797904217</v>
+        <v>0.1577072823063119</v>
       </c>
       <c r="O8">
-        <v>1.391017768034544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.189733076670219</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.115830339391437</v>
+        <v>1.114857379358284</v>
       </c>
       <c r="C9">
-        <v>0.1176774457453149</v>
+        <v>0.1297784432529454</v>
       </c>
       <c r="D9">
-        <v>0.1401930713124955</v>
+        <v>0.04790127216003981</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6345769083911463</v>
+        <v>1.442983236610715</v>
       </c>
       <c r="G9">
-        <v>0.3688901444546033</v>
+        <v>1.163819630631068</v>
       </c>
       <c r="H9">
-        <v>0.3241704559196776</v>
+        <v>0.01996089218311337</v>
       </c>
       <c r="I9">
-        <v>0.3509418015923949</v>
+        <v>0.02226830044027217</v>
       </c>
       <c r="J9">
-        <v>0.07741474794555359</v>
+        <v>0.7952331958578469</v>
       </c>
       <c r="K9">
-        <v>0.9614137698576144</v>
+        <v>0.8847516768836456</v>
       </c>
       <c r="L9">
-        <v>0.2268097539747203</v>
+        <v>0.07537781489826401</v>
       </c>
       <c r="M9">
-        <v>0.2568922337113975</v>
+        <v>1.062160777218168</v>
       </c>
       <c r="N9">
-        <v>0.8569139700782102</v>
+        <v>0.199613798838584</v>
       </c>
       <c r="O9">
-        <v>1.408357860171222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.250920884238333</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.323712463834852</v>
+        <v>1.321034043238598</v>
       </c>
       <c r="C10">
-        <v>0.122482716388042</v>
+        <v>0.1540641021523186</v>
       </c>
       <c r="D10">
-        <v>0.1577169255436388</v>
+        <v>0.05529324975121597</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6585792571052025</v>
+        <v>1.51446419284953</v>
       </c>
       <c r="G10">
-        <v>0.3820751519227201</v>
+        <v>1.221794260477708</v>
       </c>
       <c r="H10">
-        <v>0.3224289790160242</v>
+        <v>0.01446317574130784</v>
       </c>
       <c r="I10">
-        <v>0.3462704205294074</v>
+        <v>0.01614512508572918</v>
       </c>
       <c r="J10">
-        <v>0.07490491276134037</v>
+        <v>0.8141142304446021</v>
       </c>
       <c r="K10">
-        <v>1.137991832159543</v>
+        <v>0.9057904513207475</v>
       </c>
       <c r="L10">
-        <v>0.2544187780580671</v>
+        <v>0.07960527127465511</v>
       </c>
       <c r="M10">
-        <v>0.3019902468768763</v>
+        <v>1.265139269277938</v>
       </c>
       <c r="N10">
-        <v>0.8029076148568208</v>
+        <v>0.2229447960693562</v>
       </c>
       <c r="O10">
-        <v>1.433148927944501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2923789591088308</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.41857862306577</v>
+        <v>1.410772726788963</v>
       </c>
       <c r="C11">
-        <v>0.1246834944085435</v>
+        <v>0.1799806106811985</v>
       </c>
       <c r="D11">
-        <v>0.1658052294835954</v>
+        <v>0.05194317610396837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.670651752250798</v>
+        <v>1.345994502025931</v>
       </c>
       <c r="G11">
-        <v>0.3889309013316904</v>
+        <v>1.071802187596532</v>
       </c>
       <c r="H11">
-        <v>0.3221464989834288</v>
+        <v>0.03279680438400234</v>
       </c>
       <c r="I11">
-        <v>0.3448256285386613</v>
+        <v>0.01525484680492806</v>
       </c>
       <c r="J11">
-        <v>0.07384558797159535</v>
+        <v>0.7331617485371709</v>
       </c>
       <c r="K11">
-        <v>1.218437079562278</v>
+        <v>0.7942607903785017</v>
       </c>
       <c r="L11">
-        <v>0.2671944855031398</v>
+        <v>0.06987799507600267</v>
       </c>
       <c r="M11">
-        <v>0.3226341832264907</v>
+        <v>1.386628946849669</v>
       </c>
       <c r="N11">
-        <v>0.779433771290563</v>
+        <v>0.1692791810882923</v>
       </c>
       <c r="O11">
-        <v>1.447304237819736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2788367446719491</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.454553591416158</v>
+        <v>1.444260548492991</v>
       </c>
       <c r="C12">
-        <v>0.1255192202872166</v>
+        <v>0.1968737216757717</v>
       </c>
       <c r="D12">
-        <v>0.1688858901588333</v>
+        <v>0.04735218312010403</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.675398308627976</v>
+        <v>1.203665131875809</v>
       </c>
       <c r="G12">
-        <v>0.3916578977383551</v>
+        <v>0.9475409477622065</v>
       </c>
       <c r="H12">
-        <v>0.3221160950417925</v>
+        <v>0.0718275719925856</v>
       </c>
       <c r="I12">
-        <v>0.3443809719153421</v>
+        <v>0.01503951785310864</v>
       </c>
       <c r="J12">
-        <v>0.07345658802691091</v>
+        <v>0.6679389425559492</v>
       </c>
       <c r="K12">
-        <v>1.248923535452491</v>
+        <v>0.707834924139874</v>
       </c>
       <c r="L12">
-        <v>0.2720655644383498</v>
+        <v>0.07018190242422229</v>
       </c>
       <c r="M12">
-        <v>0.3304722416803614</v>
+        <v>1.446085402798076</v>
       </c>
       <c r="N12">
-        <v>0.7707075735558959</v>
+        <v>0.1257111699199669</v>
       </c>
       <c r="O12">
-        <v>1.453101154366351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2588274781965652</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.446803325396132</v>
+        <v>1.434748473182282</v>
       </c>
       <c r="C13">
-        <v>0.1253391242740349</v>
+        <v>0.2086331387645686</v>
       </c>
       <c r="D13">
-        <v>0.1682216063775854</v>
+        <v>0.04187802985419609</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6743681216880262</v>
+        <v>1.06637366904171</v>
       </c>
       <c r="G13">
-        <v>0.3910646455647964</v>
+        <v>0.8289502328779861</v>
       </c>
       <c r="H13">
-        <v>0.3221191838733262</v>
+        <v>0.1285077776379779</v>
       </c>
       <c r="I13">
-        <v>0.3444721035416727</v>
+        <v>0.01577602613709583</v>
       </c>
       <c r="J13">
-        <v>0.07353982123670022</v>
+        <v>0.6074187952178107</v>
       </c>
       <c r="K13">
-        <v>1.242356574945063</v>
+        <v>0.6304618420825037</v>
       </c>
       <c r="L13">
-        <v>0.2710149792930423</v>
+        <v>0.07774235288295728</v>
       </c>
       <c r="M13">
-        <v>0.3287832215644997</v>
+        <v>1.461937597841796</v>
       </c>
       <c r="N13">
-        <v>0.7725795829883033</v>
+        <v>0.08824344942265583</v>
       </c>
       <c r="O13">
-        <v>1.451832890154435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2329557230319708</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.421537230497933</v>
+        <v>1.408376815183288</v>
       </c>
       <c r="C14">
-        <v>0.1247522019614848</v>
+        <v>0.2148720774974464</v>
       </c>
       <c r="D14">
-        <v>0.1660583145702503</v>
+        <v>0.03775158392456035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6710386941113811</v>
+        <v>0.9733237849477874</v>
       </c>
       <c r="G14">
-        <v>0.3891525855567011</v>
+        <v>0.749113593440228</v>
       </c>
       <c r="H14">
-        <v>0.3221424437995353</v>
+        <v>0.1787550396167887</v>
       </c>
       <c r="I14">
-        <v>0.3447869656007363</v>
+        <v>0.01684576707242869</v>
       </c>
       <c r="J14">
-        <v>0.0738133396149987</v>
+        <v>0.56740669760309</v>
       </c>
       <c r="K14">
-        <v>1.220944707296667</v>
+        <v>0.5809378684449662</v>
       </c>
       <c r="L14">
-        <v>0.2675945543393254</v>
+        <v>0.08742563126519087</v>
       </c>
       <c r="M14">
-        <v>0.323278598406894</v>
+        <v>1.453547659611957</v>
       </c>
       <c r="N14">
-        <v>0.7787125655409071</v>
+        <v>0.06604932777851147</v>
       </c>
       <c r="O14">
-        <v>1.44777226836942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2124480143617191</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.406067937717268</v>
+        <v>1.392442934045278</v>
       </c>
       <c r="C15">
-        <v>0.12439300610977</v>
+        <v>0.2154684748020657</v>
       </c>
       <c r="D15">
-        <v>0.1647355847623118</v>
+        <v>0.03661617080641122</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6690223863679208</v>
+        <v>0.9496251468543235</v>
       </c>
       <c r="G15">
-        <v>0.3879986672159532</v>
+        <v>0.7288096117894156</v>
       </c>
       <c r="H15">
-        <v>0.3221667622418778</v>
+        <v>0.1916968084057373</v>
       </c>
       <c r="I15">
-        <v>0.3449933120867463</v>
+        <v>0.01748180197215099</v>
       </c>
       <c r="J15">
-        <v>0.07398246786716101</v>
+        <v>0.5576314486684879</v>
       </c>
       <c r="K15">
-        <v>1.207832591312382</v>
+        <v>0.5691480591657907</v>
       </c>
       <c r="L15">
-        <v>0.2655038327890651</v>
+        <v>0.09015100218821104</v>
       </c>
       <c r="M15">
-        <v>0.3199096128324683</v>
+        <v>1.442361017051155</v>
       </c>
       <c r="N15">
-        <v>0.7824905697413804</v>
+        <v>0.06111247615357129</v>
       </c>
       <c r="O15">
-        <v>1.445342577189166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2062413127454867</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.317519448698562</v>
+        <v>1.304883708720297</v>
       </c>
       <c r="C16">
-        <v>0.1223392060845114</v>
+        <v>0.2025234741990403</v>
       </c>
       <c r="D16">
-        <v>0.1571907689688459</v>
+        <v>0.03479430744594225</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6578142704887782</v>
+        <v>0.9458884625764057</v>
       </c>
       <c r="G16">
-        <v>0.3816450077352656</v>
+        <v>0.7266929262012241</v>
       </c>
       <c r="H16">
-        <v>0.3224579719864593</v>
+        <v>0.1812758340345511</v>
       </c>
       <c r="I16">
-        <v>0.3463789202002019</v>
+        <v>0.02004885144348467</v>
       </c>
       <c r="J16">
-        <v>0.07497582516593582</v>
+        <v>0.5608419577949206</v>
       </c>
       <c r="K16">
-        <v>1.132737484340254</v>
+        <v>0.5746450601688338</v>
       </c>
       <c r="L16">
-        <v>0.2535883836305146</v>
+        <v>0.0864589666563873</v>
       </c>
       <c r="M16">
-        <v>0.3006438863148304</v>
+        <v>1.351072937433884</v>
       </c>
       <c r="N16">
-        <v>0.8044641647723232</v>
+        <v>0.05994302690627862</v>
       </c>
       <c r="O16">
-        <v>1.432283672973838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1944406465077151</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.263280166836125</v>
+        <v>1.251871577696562</v>
       </c>
       <c r="C17">
-        <v>0.1210832069853325</v>
+        <v>0.1893108684873113</v>
       </c>
       <c r="D17">
-        <v>0.1525928502128835</v>
+        <v>0.03556474247718455</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6512402446694523</v>
+        <v>0.9913463901979895</v>
       </c>
       <c r="G17">
-        <v>0.3779721762237855</v>
+        <v>0.766474601809378</v>
       </c>
       <c r="H17">
-        <v>0.3227694419086973</v>
+        <v>0.1448267417457032</v>
       </c>
       <c r="I17">
-        <v>0.34740639633387</v>
+        <v>0.02151020078946253</v>
       </c>
       <c r="J17">
-        <v>0.07560652923349842</v>
+        <v>0.5841451615048641</v>
       </c>
       <c r="K17">
-        <v>1.086704019814022</v>
+        <v>0.6043469526263863</v>
       </c>
       <c r="L17">
-        <v>0.2463354814915419</v>
+        <v>0.07772401174839061</v>
       </c>
       <c r="M17">
-        <v>0.2888594211407707</v>
+        <v>1.285804139855799</v>
       </c>
       <c r="N17">
-        <v>0.8182282812366513</v>
+        <v>0.07002684156852723</v>
       </c>
       <c r="O17">
-        <v>1.425025347809893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.196130890149167</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.232110842738138</v>
+        <v>1.223076948210803</v>
       </c>
       <c r="C18">
-        <v>0.1203621726523565</v>
+        <v>0.174124516633114</v>
       </c>
       <c r="D18">
-        <v>0.149959160697577</v>
+        <v>0.03859092592599467</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6475670608072619</v>
+        <v>1.091689804325497</v>
       </c>
       <c r="G18">
-        <v>0.3759399295500927</v>
+        <v>0.853889155749016</v>
       </c>
       <c r="H18">
-        <v>0.3229963631529742</v>
+        <v>0.09228213010593578</v>
       </c>
       <c r="I18">
-        <v>0.3480611095957649</v>
+        <v>0.02167529527818246</v>
       </c>
       <c r="J18">
-        <v>0.075977032202724</v>
+        <v>0.6308435607965492</v>
       </c>
       <c r="K18">
-        <v>1.060237576713234</v>
+        <v>0.663990809174436</v>
       </c>
       <c r="L18">
-        <v>0.2421840233237305</v>
+        <v>0.06797795764884995</v>
       </c>
       <c r="M18">
-        <v>0.2820932787196924</v>
+        <v>1.234939241042809</v>
       </c>
       <c r="N18">
-        <v>0.8262476541088901</v>
+        <v>0.09449103118846836</v>
       </c>
       <c r="O18">
-        <v>1.421119980807433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2098288481873567</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.221561958978384</v>
+        <v>1.214150263914433</v>
       </c>
       <c r="C19">
-        <v>0.1201182743913023</v>
+        <v>0.1607844209110567</v>
       </c>
       <c r="D19">
-        <v>0.149069282377468</v>
+        <v>0.04369424774473885</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6463416683551841</v>
+        <v>1.230051755721604</v>
       </c>
       <c r="G19">
-        <v>0.3752654094347321</v>
+        <v>0.9739684408663436</v>
       </c>
       <c r="H19">
-        <v>0.3230813030021338</v>
+        <v>0.04608769314636874</v>
       </c>
       <c r="I19">
-        <v>0.3482935936134979</v>
+        <v>0.0213517750780694</v>
       </c>
       <c r="J19">
-        <v>0.07610379857310612</v>
+        <v>0.6930156583978828</v>
       </c>
       <c r="K19">
-        <v>1.051278156401679</v>
+        <v>0.7448782452513711</v>
       </c>
       <c r="L19">
-        <v>0.240781821416661</v>
+        <v>0.06467676012754442</v>
       </c>
       <c r="M19">
-        <v>0.2798043716006404</v>
+        <v>1.201496810839132</v>
       </c>
       <c r="N19">
-        <v>0.8289803365206918</v>
+        <v>0.1350052192973976</v>
       </c>
       <c r="O19">
-        <v>1.41984329080401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2328996365324656</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.269051109281378</v>
+        <v>1.264218476210658</v>
       </c>
       <c r="C20">
-        <v>0.1212167656516954</v>
+        <v>0.1498106962475276</v>
       </c>
       <c r="D20">
-        <v>0.1530811699253007</v>
+        <v>0.05392961339516944</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6519288169603072</v>
+        <v>1.481088563732456</v>
       </c>
       <c r="G20">
-        <v>0.3783547947042933</v>
+        <v>1.192105148287311</v>
       </c>
       <c r="H20">
-        <v>0.3227313180852107</v>
+        <v>0.01584280180112607</v>
       </c>
       <c r="I20">
-        <v>0.3472903904720788</v>
+        <v>0.01860867419415957</v>
       </c>
       <c r="J20">
-        <v>0.07553858671003688</v>
+        <v>0.8017655016235068</v>
       </c>
       <c r="K20">
-        <v>1.091603198629315</v>
+        <v>0.8895689994324911</v>
       </c>
       <c r="L20">
-        <v>0.2471054578208651</v>
+        <v>0.07791974493908072</v>
       </c>
       <c r="M20">
-        <v>0.2901126435256316</v>
+        <v>1.214487994157679</v>
       </c>
       <c r="N20">
-        <v>0.8167524078737145</v>
+        <v>0.2177689886607084</v>
       </c>
       <c r="O20">
-        <v>1.425769962763951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2815529840942901</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.428957037662343</v>
+        <v>1.423605274393168</v>
       </c>
       <c r="C21">
-        <v>0.1249245300652788</v>
+        <v>0.1661214580302186</v>
       </c>
       <c r="D21">
-        <v>0.1666932343984229</v>
+        <v>0.0608122564963125</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6720118045739056</v>
+        <v>1.575658480531828</v>
       </c>
       <c r="G21">
-        <v>0.3897105901261284</v>
+        <v>1.271764163515726</v>
       </c>
       <c r="H21">
-        <v>0.3221335069097506</v>
+        <v>0.01148827135043662</v>
       </c>
       <c r="I21">
-        <v>0.3446916642302753</v>
+        <v>0.01417040416285165</v>
       </c>
       <c r="J21">
-        <v>0.07373266866806993</v>
+        <v>0.8341955020877947</v>
       </c>
       <c r="K21">
-        <v>1.227233197970179</v>
+        <v>0.9298848676950726</v>
       </c>
       <c r="L21">
-        <v>0.2685982977901631</v>
+        <v>0.08448534740158919</v>
       </c>
       <c r="M21">
-        <v>0.3248948614854328</v>
+        <v>1.365642881974082</v>
       </c>
       <c r="N21">
-        <v>0.7769066950312826</v>
+        <v>0.2481098171454335</v>
       </c>
       <c r="O21">
-        <v>1.448952934173633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3192642872867992</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.533767470021189</v>
+        <v>1.528890076010896</v>
       </c>
       <c r="C22">
-        <v>0.1273615103754508</v>
+        <v>0.1768661466697381</v>
       </c>
       <c r="D22">
-        <v>0.1756937469556448</v>
+        <v>0.06467161507564612</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6861615840476389</v>
+        <v>1.631814881097426</v>
       </c>
       <c r="G22">
-        <v>0.3978988732009725</v>
+        <v>1.319585831832541</v>
       </c>
       <c r="H22">
-        <v>0.3221907300517159</v>
+        <v>0.009222690486366467</v>
       </c>
       <c r="I22">
-        <v>0.3435927597795008</v>
+        <v>0.01138376174290823</v>
       </c>
       <c r="J22">
-        <v>0.07262332360364709</v>
+        <v>0.8532820453100243</v>
       </c>
       <c r="K22">
-        <v>1.31601604351232</v>
+        <v>0.9534169868040578</v>
       </c>
       <c r="L22">
-        <v>0.2828396633508135</v>
+        <v>0.08790600009611538</v>
       </c>
       <c r="M22">
-        <v>0.3477484968076539</v>
+        <v>1.465369695121211</v>
       </c>
       <c r="N22">
-        <v>0.7518171333155692</v>
+        <v>0.2633611734595149</v>
       </c>
       <c r="O22">
-        <v>1.466660714903583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3419749844915145</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.477797648845893</v>
+        <v>1.473690581422005</v>
       </c>
       <c r="C23">
-        <v>0.1260595181053006</v>
+        <v>0.170302283444272</v>
       </c>
       <c r="D23">
-        <v>0.170880112501564</v>
+        <v>0.06236947863999376</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6785127266391129</v>
+        <v>1.606897972446561</v>
       </c>
       <c r="G23">
-        <v>0.3934558951255269</v>
+        <v>1.299122790558172</v>
       </c>
       <c r="H23">
-        <v>0.3221180767024379</v>
+        <v>0.01038061857509585</v>
       </c>
       <c r="I23">
-        <v>0.3441228141962505</v>
+        <v>0.0124635150083785</v>
       </c>
       <c r="J23">
-        <v>0.0732088117672145</v>
+        <v>0.8456639935651111</v>
       </c>
       <c r="K23">
-        <v>1.268615831325945</v>
+        <v>0.944662032921066</v>
       </c>
       <c r="L23">
-        <v>0.2752202510725539</v>
+        <v>0.08627400450847134</v>
       </c>
       <c r="M23">
-        <v>0.3355392237190031</v>
+        <v>1.411094566628293</v>
       </c>
       <c r="N23">
-        <v>0.7651189012720501</v>
+        <v>0.2547020776427615</v>
       </c>
       <c r="O23">
-        <v>1.456967972013388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3297587913794757</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.266442024569727</v>
+        <v>1.263399172061412</v>
       </c>
       <c r="C24">
-        <v>0.1211563805037059</v>
+        <v>0.1471653527125767</v>
       </c>
       <c r="D24">
-        <v>0.1528603703996083</v>
+        <v>0.05410752523586382</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6516171829719752</v>
+        <v>1.505768976665834</v>
       </c>
       <c r="G24">
-        <v>0.3781815664106531</v>
+        <v>1.214747239958413</v>
       </c>
       <c r="H24">
-        <v>0.3227484050593148</v>
+        <v>0.01553015239456434</v>
       </c>
       <c r="I24">
-        <v>0.3473426377133748</v>
+        <v>0.01797391101560031</v>
       </c>
       <c r="J24">
-        <v>0.07556927893142351</v>
+        <v>0.8134013825725503</v>
       </c>
       <c r="K24">
-        <v>1.089388284081167</v>
+        <v>0.905894746766208</v>
       </c>
       <c r="L24">
-        <v>0.2467572945802914</v>
+        <v>0.07976515002192741</v>
       </c>
       <c r="M24">
-        <v>0.2895460341138971</v>
+        <v>1.208077337986566</v>
       </c>
       <c r="N24">
-        <v>0.8174193198505169</v>
+        <v>0.2229298807814786</v>
       </c>
       <c r="O24">
-        <v>1.425432490722955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2837914068412246</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.039489467192823</v>
+        <v>1.037221020067989</v>
       </c>
       <c r="C25">
-        <v>0.1159197284339726</v>
+        <v>0.1228821741970023</v>
       </c>
       <c r="D25">
-        <v>0.133836559458544</v>
+        <v>0.04530981478987428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6267030575283883</v>
+        <v>1.399874366334629</v>
       </c>
       <c r="G25">
-        <v>0.3647474204412191</v>
+        <v>1.126682439051152</v>
       </c>
       <c r="H25">
-        <v>0.3252429784859387</v>
+        <v>0.02254643245993715</v>
       </c>
       <c r="I25">
-        <v>0.3532357252862894</v>
+        <v>0.02560492343230969</v>
       </c>
       <c r="J25">
-        <v>0.07841022598744374</v>
+        <v>0.7802975496511095</v>
       </c>
       <c r="K25">
-        <v>0.8964515199085383</v>
+        <v>0.8654043155639002</v>
       </c>
       <c r="L25">
-        <v>0.2168207587060209</v>
+        <v>0.07268885754831089</v>
       </c>
       <c r="M25">
-        <v>0.2403847792224632</v>
+        <v>0.9905751829088842</v>
       </c>
       <c r="N25">
-        <v>0.8777371715686737</v>
+        <v>0.1889768726158323</v>
       </c>
       <c r="O25">
-        <v>1.40163498113418</v>
+        <v>0.2344673419730405</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8733026535839201</v>
+        <v>0.852670586271131</v>
       </c>
       <c r="C2">
-        <v>0.1035189218280124</v>
+        <v>0.1138128836699366</v>
       </c>
       <c r="D2">
-        <v>0.03833963812471097</v>
+        <v>0.04652892773685835</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3368226817378</v>
+        <v>1.157514408867087</v>
       </c>
       <c r="G2">
-        <v>1.076552649090459</v>
+        <v>0.9013670674667935</v>
       </c>
       <c r="H2">
-        <v>0.02878474103209805</v>
+        <v>0.02365525080623465</v>
       </c>
       <c r="I2">
-        <v>0.0315772876529592</v>
+        <v>0.02340364650612381</v>
       </c>
       <c r="J2">
-        <v>0.7636468540210757</v>
+        <v>0.6589871114549339</v>
       </c>
       <c r="K2">
-        <v>0.8460074401613369</v>
+        <v>0.6955381179029061</v>
       </c>
       <c r="L2">
-        <v>0.06786853901072298</v>
+        <v>0.2724516668115626</v>
       </c>
       <c r="M2">
-        <v>0.8288610226592823</v>
+        <v>0.2487340970590921</v>
       </c>
       <c r="N2">
-        <v>0.1629669917207934</v>
+        <v>0.06261269854198659</v>
       </c>
       <c r="O2">
-        <v>0.1980798017263687</v>
+        <v>0.8627338535583249</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1870919593204334</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2009337841006023</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7608383813382886</v>
+        <v>0.7437249137977631</v>
       </c>
       <c r="C3">
-        <v>0.09170532805662646</v>
+        <v>0.09831135500540711</v>
       </c>
       <c r="D3">
-        <v>0.0339857363373639</v>
+        <v>0.04114231034740357</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.288131994198977</v>
+        <v>1.126011869251371</v>
       </c>
       <c r="G3">
-        <v>1.036488951766557</v>
+        <v>0.8819490075583616</v>
       </c>
       <c r="H3">
-        <v>0.03371081501606388</v>
+        <v>0.02774793261740016</v>
       </c>
       <c r="I3">
-        <v>0.03687950618093616</v>
+        <v>0.0273814599525446</v>
       </c>
       <c r="J3">
-        <v>0.7493878862507302</v>
+        <v>0.6473480587597464</v>
       </c>
       <c r="K3">
-        <v>0.827958296296778</v>
+        <v>0.6891743191483322</v>
       </c>
       <c r="L3">
-        <v>0.06426108821221099</v>
+        <v>0.2745782469853459</v>
       </c>
       <c r="M3">
-        <v>0.721014939929006</v>
+        <v>0.2437179962801892</v>
       </c>
       <c r="N3">
-        <v>0.1461372081079801</v>
+        <v>0.0598239273845298</v>
       </c>
       <c r="O3">
-        <v>0.1735987179860388</v>
+        <v>0.7498138800229697</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1683114584307006</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1759217813617973</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6917069830660694</v>
+        <v>0.6766384680529995</v>
       </c>
       <c r="C4">
-        <v>0.08456092726039799</v>
+        <v>0.08898157016962216</v>
       </c>
       <c r="D4">
-        <v>0.03133902952767897</v>
+        <v>0.03787426723950915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.258583447566494</v>
+        <v>1.106858621739079</v>
       </c>
       <c r="G4">
-        <v>1.012174716178663</v>
+        <v>0.8703501080392897</v>
       </c>
       <c r="H4">
-        <v>0.03704745033442247</v>
+        <v>0.03052345502243259</v>
       </c>
       <c r="I4">
-        <v>0.04050082304333325</v>
+        <v>0.03011728740506525</v>
       </c>
       <c r="J4">
-        <v>0.7408481323891891</v>
+        <v>0.6401270985283247</v>
       </c>
       <c r="K4">
-        <v>0.8169413983917693</v>
+        <v>0.6852456704456458</v>
       </c>
       <c r="L4">
-        <v>0.06199874618484813</v>
+        <v>0.2757506619856613</v>
       </c>
       <c r="M4">
-        <v>0.6549530836455517</v>
+        <v>0.2412793445795813</v>
       </c>
       <c r="N4">
-        <v>0.1358606918096754</v>
+        <v>0.05806528861495863</v>
       </c>
       <c r="O4">
-        <v>0.1585877776569049</v>
+        <v>0.6806109627510324</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1568650215645206</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1605779218897965</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6632707171959566</v>
+        <v>0.6490250812011311</v>
       </c>
       <c r="C5">
-        <v>0.08186830252789434</v>
+        <v>0.08544086849596511</v>
       </c>
       <c r="D5">
-        <v>0.03032535271197645</v>
+        <v>0.03661088882803654</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.245303044597989</v>
+        <v>1.097969275074675</v>
       </c>
       <c r="G5">
-        <v>1.001012113946672</v>
+        <v>0.8646014038660041</v>
       </c>
       <c r="H5">
-        <v>0.03849330281323904</v>
+        <v>0.03172695593467167</v>
       </c>
       <c r="I5">
-        <v>0.04217243093011369</v>
+        <v>0.0314194877418652</v>
       </c>
       <c r="J5">
-        <v>0.7367400228942387</v>
+        <v>0.6365769038199289</v>
       </c>
       <c r="K5">
-        <v>0.8114707853364962</v>
+        <v>0.6828284392603834</v>
       </c>
       <c r="L5">
-        <v>0.06101437102785212</v>
+        <v>0.2758332396475112</v>
       </c>
       <c r="M5">
-        <v>0.6283143323510814</v>
+        <v>0.2402028549103612</v>
       </c>
       <c r="N5">
-        <v>0.1318100439401348</v>
+        <v>0.05729711272538651</v>
       </c>
       <c r="O5">
-        <v>0.1524970649065089</v>
+        <v>0.6526720347288943</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1523405292880966</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1543484661366499</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6582532139384796</v>
+        <v>0.644163650655031</v>
       </c>
       <c r="C6">
-        <v>0.08166174731569953</v>
+        <v>0.08512278266681506</v>
       </c>
       <c r="D6">
-        <v>0.03022932013892188</v>
+        <v>0.03647395132987441</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.241488036180456</v>
+        <v>1.095118021273329</v>
       </c>
       <c r="G6">
-        <v>0.9975488822101255</v>
+        <v>0.8623108412145228</v>
       </c>
       <c r="H6">
-        <v>0.03875014166774404</v>
+        <v>0.03194079855692888</v>
       </c>
       <c r="I6">
-        <v>0.04259276841221915</v>
+        <v>0.03179000850878388</v>
       </c>
       <c r="J6">
-        <v>0.7352301066471654</v>
+        <v>0.635267530285148</v>
       </c>
       <c r="K6">
-        <v>0.8093469326078306</v>
+        <v>0.6814382883097103</v>
       </c>
       <c r="L6">
-        <v>0.06078924244621575</v>
+        <v>0.2754044567945222</v>
       </c>
       <c r="M6">
-        <v>0.6241997724240633</v>
+        <v>0.2397360568890718</v>
       </c>
       <c r="N6">
-        <v>0.1312905944305314</v>
+        <v>0.05712084108307813</v>
       </c>
       <c r="O6">
-        <v>0.1515135769817313</v>
+        <v>0.6483229152736385</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1517377561358089</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1533399489457175</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6905165480908124</v>
+        <v>0.6757356196604576</v>
       </c>
       <c r="C7">
-        <v>0.08517877556133868</v>
+        <v>0.08939225299013742</v>
       </c>
       <c r="D7">
-        <v>0.03152195517075285</v>
+        <v>0.03825295337838241</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.253997398063973</v>
+        <v>1.100843191979443</v>
       </c>
       <c r="G7">
-        <v>1.007618934220403</v>
+        <v>0.869123287447934</v>
       </c>
       <c r="H7">
-        <v>0.03709868053452459</v>
+        <v>0.03058049368935267</v>
       </c>
       <c r="I7">
-        <v>0.04087948771578276</v>
+        <v>0.03054092822772514</v>
       </c>
       <c r="J7">
-        <v>0.7385268285929243</v>
+        <v>0.6320168889174624</v>
       </c>
       <c r="K7">
-        <v>0.8135483731442221</v>
+        <v>0.6812614694957162</v>
       </c>
       <c r="L7">
-        <v>0.0618193025844942</v>
+        <v>0.2740238734785976</v>
       </c>
       <c r="M7">
-        <v>0.6554334658452632</v>
+        <v>0.2400403829618654</v>
       </c>
       <c r="N7">
-        <v>0.1362231029930285</v>
+        <v>0.05789653286931795</v>
       </c>
       <c r="O7">
-        <v>0.1585811394478043</v>
+        <v>0.6806903823452899</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1572163934156592</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.160607089842415</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8334535390707742</v>
+        <v>0.8148666219818494</v>
       </c>
       <c r="C8">
-        <v>0.1002944832298027</v>
+        <v>0.1084855931077442</v>
       </c>
       <c r="D8">
-        <v>0.03709412704502313</v>
+        <v>0.0455950203355755</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.314148659188746</v>
+        <v>1.134661791145518</v>
       </c>
       <c r="G8">
-        <v>1.056865416458635</v>
+        <v>0.8982132154475977</v>
       </c>
       <c r="H8">
-        <v>0.03045350235038291</v>
+        <v>0.02508105784870651</v>
       </c>
       <c r="I8">
-        <v>0.03375434426206336</v>
+        <v>0.02523001491892085</v>
       </c>
       <c r="J8">
-        <v>0.7557054942869144</v>
+        <v>0.6325311231218365</v>
       </c>
       <c r="K8">
-        <v>0.8353990323513969</v>
+        <v>0.6857346937412458</v>
       </c>
       <c r="L8">
-        <v>0.06641514852418773</v>
+        <v>0.2700807467372428</v>
       </c>
       <c r="M8">
-        <v>0.7927537033363876</v>
+        <v>0.2443131784328543</v>
       </c>
       <c r="N8">
-        <v>0.1577072823063119</v>
+        <v>0.06140199415821535</v>
       </c>
       <c r="O8">
-        <v>0.189733076670219</v>
+        <v>0.8236937699206521</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1811684082364025</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1925409687417954</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.114857379358284</v>
+        <v>1.086916936481714</v>
       </c>
       <c r="C9">
-        <v>0.1297784432529454</v>
+        <v>0.1472490041002175</v>
       </c>
       <c r="D9">
-        <v>0.04790127216003981</v>
+        <v>0.0592473109064855</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.442983236610715</v>
+        <v>1.217080171656576</v>
       </c>
       <c r="G9">
-        <v>1.163819630631068</v>
+        <v>0.9554208788437109</v>
       </c>
       <c r="H9">
-        <v>0.01996089218311337</v>
+        <v>0.01637903449593403</v>
       </c>
       <c r="I9">
-        <v>0.02226830044027217</v>
+        <v>0.01658066240046097</v>
       </c>
       <c r="J9">
-        <v>0.7952331958578469</v>
+        <v>0.6581162700813081</v>
       </c>
       <c r="K9">
-        <v>0.8847516768836456</v>
+        <v>0.7036796975758222</v>
       </c>
       <c r="L9">
-        <v>0.07537781489826401</v>
+        <v>0.2652128193096495</v>
       </c>
       <c r="M9">
-        <v>1.062160777218168</v>
+        <v>0.2608389146233456</v>
       </c>
       <c r="N9">
-        <v>0.199613798838584</v>
+        <v>0.06826123423961938</v>
       </c>
       <c r="O9">
-        <v>0.250920884238333</v>
+        <v>1.105273249437147</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2281212392214087</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2550493976068253</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.321034043238598</v>
+        <v>1.287413453182552</v>
       </c>
       <c r="C10">
-        <v>0.1540641021523186</v>
+        <v>0.1769033395107726</v>
       </c>
       <c r="D10">
-        <v>0.05529324975121597</v>
+        <v>0.06976325177912912</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.51446419284953</v>
+        <v>1.247217851908019</v>
       </c>
       <c r="G10">
-        <v>1.221794260477708</v>
+        <v>0.9977250065691834</v>
       </c>
       <c r="H10">
-        <v>0.01446317574130784</v>
+        <v>0.01191622936430736</v>
       </c>
       <c r="I10">
-        <v>0.01614512508572918</v>
+        <v>0.01216543142654203</v>
       </c>
       <c r="J10">
-        <v>0.8141142304446021</v>
+        <v>0.6352596026203088</v>
       </c>
       <c r="K10">
-        <v>0.9057904513207475</v>
+        <v>0.6989651726003245</v>
       </c>
       <c r="L10">
-        <v>0.07960527127465511</v>
+        <v>0.2547027226049536</v>
       </c>
       <c r="M10">
-        <v>1.265139269277938</v>
+        <v>0.2690549492970611</v>
       </c>
       <c r="N10">
-        <v>0.2229447960693562</v>
+        <v>0.07142407171744658</v>
       </c>
       <c r="O10">
-        <v>0.2923789591088308</v>
+        <v>1.314321597531688</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2545240848397299</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2975752397020557</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410772726788963</v>
+        <v>1.381924320833662</v>
       </c>
       <c r="C11">
-        <v>0.1799806106811985</v>
+        <v>0.2001035455996458</v>
       </c>
       <c r="D11">
-        <v>0.05194317610396837</v>
+        <v>0.06765586785672895</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.345994502025931</v>
+        <v>1.087986760073989</v>
       </c>
       <c r="G11">
-        <v>1.071802187596532</v>
+        <v>0.9078936291121096</v>
       </c>
       <c r="H11">
-        <v>0.03279680438400234</v>
+        <v>0.03043031335957735</v>
       </c>
       <c r="I11">
-        <v>0.01525484680492806</v>
+        <v>0.0118277207852362</v>
       </c>
       <c r="J11">
-        <v>0.7331617485371709</v>
+        <v>0.5176839568557483</v>
       </c>
       <c r="K11">
-        <v>0.7942607903785017</v>
+        <v>0.6032311649157975</v>
       </c>
       <c r="L11">
-        <v>0.06987799507600267</v>
+        <v>0.2179186763530616</v>
       </c>
       <c r="M11">
-        <v>1.386628946849669</v>
+        <v>0.2352577311723927</v>
       </c>
       <c r="N11">
-        <v>0.1692791810882923</v>
+        <v>0.06603878902464055</v>
       </c>
       <c r="O11">
-        <v>0.2788367446719491</v>
+        <v>1.429909642484517</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1955500747130614</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2841073047372404</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.444260548492991</v>
+        <v>1.420009046237936</v>
       </c>
       <c r="C12">
-        <v>0.1968737216757717</v>
+        <v>0.2137473958761689</v>
       </c>
       <c r="D12">
-        <v>0.04735218312010403</v>
+        <v>0.0626011826441939</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.203665131875809</v>
+        <v>0.9682156822742911</v>
       </c>
       <c r="G12">
-        <v>0.9475409477622065</v>
+        <v>0.8225681838419092</v>
       </c>
       <c r="H12">
-        <v>0.0718275719925856</v>
+        <v>0.06945394585506648</v>
       </c>
       <c r="I12">
-        <v>0.01503951785310864</v>
+        <v>0.01168126805832514</v>
       </c>
       <c r="J12">
-        <v>0.6679389425559492</v>
+        <v>0.4551419181415426</v>
       </c>
       <c r="K12">
-        <v>0.707834924139874</v>
+        <v>0.5379800504575272</v>
       </c>
       <c r="L12">
-        <v>0.07018190242422229</v>
+        <v>0.1948670386366516</v>
       </c>
       <c r="M12">
-        <v>1.446085402798076</v>
+        <v>0.2099406901728358</v>
       </c>
       <c r="N12">
-        <v>0.1257111699199669</v>
+        <v>0.06973575916344465</v>
       </c>
       <c r="O12">
-        <v>0.2588274781965652</v>
+        <v>1.484126741333426</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.147263169085619</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2637932831165202</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.434748473182282</v>
+        <v>1.414657075870338</v>
       </c>
       <c r="C13">
-        <v>0.2086331387645686</v>
+        <v>0.2228343382492284</v>
       </c>
       <c r="D13">
-        <v>0.04187802985419609</v>
+        <v>0.05498469124739103</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.06637366904171</v>
+        <v>0.8678290542462435</v>
       </c>
       <c r="G13">
-        <v>0.8289502328779861</v>
+        <v>0.7260107899835617</v>
       </c>
       <c r="H13">
-        <v>0.1285077776379779</v>
+        <v>0.1259575071297974</v>
       </c>
       <c r="I13">
-        <v>0.01577602613709583</v>
+        <v>0.01217853924328605</v>
       </c>
       <c r="J13">
-        <v>0.6074187952178107</v>
+        <v>0.4269546402842579</v>
       </c>
       <c r="K13">
-        <v>0.6304618420825037</v>
+        <v>0.488525993131212</v>
       </c>
       <c r="L13">
-        <v>0.07774235288295728</v>
+        <v>0.1786745117404465</v>
       </c>
       <c r="M13">
-        <v>1.461937597841796</v>
+        <v>0.1890019183575298</v>
       </c>
       <c r="N13">
-        <v>0.08824344942265583</v>
+        <v>0.08005899381759107</v>
       </c>
       <c r="O13">
-        <v>0.2329557230319708</v>
+        <v>1.4959662845975</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1053247770952126</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2372177174288481</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.408376815183288</v>
+        <v>1.391010538319705</v>
       </c>
       <c r="C14">
-        <v>0.2148720774974464</v>
+        <v>0.2274721258214498</v>
       </c>
       <c r="D14">
-        <v>0.03775158392456035</v>
+        <v>0.04876151908042203</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9733237849477874</v>
+        <v>0.8051817162047499</v>
       </c>
       <c r="G14">
-        <v>0.749113593440228</v>
+        <v>0.6555461009179737</v>
       </c>
       <c r="H14">
-        <v>0.1787550396167887</v>
+        <v>0.1760015502983947</v>
       </c>
       <c r="I14">
-        <v>0.01684576707242869</v>
+        <v>0.0129482930272129</v>
       </c>
       <c r="J14">
-        <v>0.56740669760309</v>
+        <v>0.4186448764440698</v>
       </c>
       <c r="K14">
-        <v>0.5809378684449662</v>
+        <v>0.4602107033398646</v>
       </c>
       <c r="L14">
-        <v>0.08742563126519087</v>
+        <v>0.1698428890686596</v>
       </c>
       <c r="M14">
-        <v>1.453547659611957</v>
+        <v>0.1763053971722002</v>
       </c>
       <c r="N14">
-        <v>0.06604932777851147</v>
+        <v>0.09121914724066116</v>
       </c>
       <c r="O14">
-        <v>0.2124480143617191</v>
+        <v>1.485271994104806</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.08025094992576243</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2160598262912146</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.392442934045278</v>
+        <v>1.375677061483316</v>
       </c>
       <c r="C15">
-        <v>0.2154684748020657</v>
+        <v>0.2278646714566861</v>
       </c>
       <c r="D15">
-        <v>0.03661617080641122</v>
+        <v>0.04685654989812349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9496251468543235</v>
+        <v>0.791342268164513</v>
       </c>
       <c r="G15">
-        <v>0.7288096117894156</v>
+        <v>0.6357223617621486</v>
       </c>
       <c r="H15">
-        <v>0.1916968084057373</v>
+        <v>0.1888459040277439</v>
       </c>
       <c r="I15">
-        <v>0.01748180197215099</v>
+        <v>0.01345731066333578</v>
       </c>
       <c r="J15">
-        <v>0.5576314486684879</v>
+        <v>0.4207782253272967</v>
       </c>
       <c r="K15">
-        <v>0.5691480591657907</v>
+        <v>0.4547731962646608</v>
       </c>
       <c r="L15">
-        <v>0.09015100218821104</v>
+        <v>0.1683054520944474</v>
       </c>
       <c r="M15">
-        <v>1.442361017051155</v>
+        <v>0.1735793402399821</v>
       </c>
       <c r="N15">
-        <v>0.06111247615357129</v>
+        <v>0.09421078537098992</v>
       </c>
       <c r="O15">
-        <v>0.2062413127454867</v>
+        <v>1.4737375635967</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.0746319882228299</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2096220457265972</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.304883708720297</v>
+        <v>1.287568076586695</v>
       </c>
       <c r="C16">
-        <v>0.2025234741990403</v>
+        <v>0.2163497560868848</v>
       </c>
       <c r="D16">
-        <v>0.03479430744594225</v>
+        <v>0.04274381231103064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9458884625764057</v>
+        <v>0.8089676777842953</v>
       </c>
       <c r="G16">
-        <v>0.7266929262012241</v>
+        <v>0.6189263045318825</v>
       </c>
       <c r="H16">
-        <v>0.1812758340345511</v>
+        <v>0.1779413376096812</v>
       </c>
       <c r="I16">
-        <v>0.02004885144348467</v>
+        <v>0.01532172640640361</v>
       </c>
       <c r="J16">
-        <v>0.5608419577949206</v>
+        <v>0.4623565869263615</v>
       </c>
       <c r="K16">
-        <v>0.5746450601688338</v>
+        <v>0.4706925913051379</v>
       </c>
       <c r="L16">
-        <v>0.0864589666563873</v>
+        <v>0.1750603935975441</v>
       </c>
       <c r="M16">
-        <v>1.351072937433884</v>
+        <v>0.1777809580140364</v>
       </c>
       <c r="N16">
-        <v>0.05994302690627862</v>
+        <v>0.09010023731591588</v>
       </c>
       <c r="O16">
-        <v>0.1944406465077151</v>
+        <v>1.384174221856057</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07328723265932169</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.197191014949226</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.251871577696562</v>
+        <v>1.233077092298828</v>
       </c>
       <c r="C17">
-        <v>0.1893108684873113</v>
+        <v>0.2044777767271597</v>
       </c>
       <c r="D17">
-        <v>0.03556474247718455</v>
+        <v>0.04301691443762934</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9913463901979895</v>
+        <v>0.85429718566985</v>
       </c>
       <c r="G17">
-        <v>0.766474601809378</v>
+        <v>0.644291785642281</v>
       </c>
       <c r="H17">
-        <v>0.1448267417457032</v>
+        <v>0.1412308728341856</v>
       </c>
       <c r="I17">
-        <v>0.02151020078946253</v>
+        <v>0.0164075444351468</v>
       </c>
       <c r="J17">
-        <v>0.5841451615048641</v>
+        <v>0.4980531336389618</v>
       </c>
       <c r="K17">
-        <v>0.6043469526263863</v>
+        <v>0.4974803995352062</v>
       </c>
       <c r="L17">
-        <v>0.07772401174839061</v>
+        <v>0.1853121873960859</v>
       </c>
       <c r="M17">
-        <v>1.285804139855799</v>
+        <v>0.1871214946267692</v>
       </c>
       <c r="N17">
-        <v>0.07002684156852723</v>
+        <v>0.08043030577364263</v>
       </c>
       <c r="O17">
-        <v>0.196130890149167</v>
+        <v>1.320799144656831</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0846538481313388</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1987827015074828</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.223076948210803</v>
+        <v>1.201350684709411</v>
       </c>
       <c r="C18">
-        <v>0.174124516633114</v>
+        <v>0.1911851438024996</v>
       </c>
       <c r="D18">
-        <v>0.03859092592599467</v>
+        <v>0.04662607056326351</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.091689804325497</v>
+        <v>0.938029301053966</v>
       </c>
       <c r="G18">
-        <v>0.853889155749016</v>
+        <v>0.7089976816124732</v>
       </c>
       <c r="H18">
-        <v>0.09228213010593578</v>
+        <v>0.08863094390480342</v>
       </c>
       <c r="I18">
-        <v>0.02167529527818246</v>
+        <v>0.01642197630167086</v>
       </c>
       <c r="J18">
-        <v>0.6308435607965492</v>
+        <v>0.5419533980600448</v>
       </c>
       <c r="K18">
-        <v>0.663990809174436</v>
+        <v>0.5427286855523406</v>
       </c>
       <c r="L18">
-        <v>0.06797795764884995</v>
+        <v>0.2020838778971168</v>
       </c>
       <c r="M18">
-        <v>1.234939241042809</v>
+        <v>0.2039921458897105</v>
       </c>
       <c r="N18">
-        <v>0.09449103118846836</v>
+        <v>0.06890382794979821</v>
       </c>
       <c r="O18">
-        <v>0.2098288481873567</v>
+        <v>1.273024910616243</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1120359893153378</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2127586659313216</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.214150263914433</v>
+        <v>1.188517479753642</v>
       </c>
       <c r="C19">
-        <v>0.1607844209110567</v>
+        <v>0.1801061700089832</v>
       </c>
       <c r="D19">
-        <v>0.04369424774473885</v>
+        <v>0.05306715236471859</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.230051755721604</v>
+        <v>1.048021063355712</v>
       </c>
       <c r="G19">
-        <v>0.9739684408663436</v>
+        <v>0.7987508221213773</v>
       </c>
       <c r="H19">
-        <v>0.04608769314636874</v>
+        <v>0.04258668535081256</v>
       </c>
       <c r="I19">
-        <v>0.0213517750780694</v>
+        <v>0.01625919935947717</v>
       </c>
       <c r="J19">
-        <v>0.6930156583978828</v>
+        <v>0.5917565707468384</v>
       </c>
       <c r="K19">
-        <v>0.7448782452513711</v>
+        <v>0.6007655302578527</v>
       </c>
       <c r="L19">
-        <v>0.06467676012754442</v>
+        <v>0.2233068348624201</v>
       </c>
       <c r="M19">
-        <v>1.201496810839132</v>
+        <v>0.2261293105724533</v>
       </c>
       <c r="N19">
-        <v>0.1350052192973976</v>
+        <v>0.06280906239272355</v>
       </c>
       <c r="O19">
-        <v>0.2328996365324656</v>
+        <v>1.243533118030541</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1569918760380133</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2363710734534763</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.264218476210658</v>
+        <v>1.231584880260073</v>
       </c>
       <c r="C20">
-        <v>0.1498106962475276</v>
+        <v>0.1725682984531858</v>
       </c>
       <c r="D20">
-        <v>0.05392961339516944</v>
+        <v>0.06683381093520069</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.481088563732456</v>
+        <v>1.234707378906734</v>
       </c>
       <c r="G20">
-        <v>1.192105148287311</v>
+        <v>0.9655711064037433</v>
       </c>
       <c r="H20">
-        <v>0.01584280180112607</v>
+        <v>0.01300592864785965</v>
       </c>
       <c r="I20">
-        <v>0.01860867419415957</v>
+        <v>0.01431520893643068</v>
       </c>
       <c r="J20">
-        <v>0.8017655016235068</v>
+        <v>0.6556293241291513</v>
       </c>
       <c r="K20">
-        <v>0.8895689994324911</v>
+        <v>0.6962236680207567</v>
       </c>
       <c r="L20">
-        <v>0.07791974493908072</v>
+        <v>0.2560035888623133</v>
       </c>
       <c r="M20">
-        <v>1.214487994157679</v>
+        <v>0.2652082489020806</v>
       </c>
       <c r="N20">
-        <v>0.2177689886607084</v>
+        <v>0.07025847190416279</v>
       </c>
       <c r="O20">
-        <v>0.2815529840942901</v>
+        <v>1.263208203481753</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2484365962120023</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2863007859636681</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.423605274393168</v>
+        <v>1.389669171950658</v>
       </c>
       <c r="C21">
-        <v>0.1661214580302186</v>
+        <v>0.1877912729517703</v>
       </c>
       <c r="D21">
-        <v>0.0608122564963125</v>
+        <v>0.08065337821419405</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.575658480531828</v>
+        <v>1.249756220790388</v>
       </c>
       <c r="G21">
-        <v>1.271764163515726</v>
+        <v>1.075864501909606</v>
       </c>
       <c r="H21">
-        <v>0.01148827135043662</v>
+        <v>0.009519895145050736</v>
       </c>
       <c r="I21">
-        <v>0.01417040416285165</v>
+        <v>0.01120579156286627</v>
       </c>
       <c r="J21">
-        <v>0.8341955020877947</v>
+        <v>0.5533174852342313</v>
       </c>
       <c r="K21">
-        <v>0.9298848676950726</v>
+        <v>0.687538613978262</v>
       </c>
       <c r="L21">
-        <v>0.08448534740158919</v>
+        <v>0.2464579372089943</v>
       </c>
       <c r="M21">
-        <v>1.365642881974082</v>
+        <v>0.2700024614768282</v>
       </c>
       <c r="N21">
-        <v>0.2481098171454335</v>
+        <v>0.07459348195649795</v>
       </c>
       <c r="O21">
-        <v>0.3192642872867992</v>
+        <v>1.412991716286484</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2826479716234047</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3257774321424804</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.528890076010896</v>
+        <v>1.49458378195655</v>
       </c>
       <c r="C22">
-        <v>0.1768661466697381</v>
+        <v>0.1972167785288548</v>
       </c>
       <c r="D22">
-        <v>0.06467161507564612</v>
+        <v>0.0894538246031189</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.631814881097426</v>
+        <v>1.25214706788681</v>
       </c>
       <c r="G22">
-        <v>1.319585831832541</v>
+        <v>1.152774919644571</v>
       </c>
       <c r="H22">
-        <v>0.009222690486366467</v>
+        <v>0.007717753122751664</v>
       </c>
       <c r="I22">
-        <v>0.01138376174290823</v>
+        <v>0.009087167222562087</v>
       </c>
       <c r="J22">
-        <v>0.8532820453100243</v>
+        <v>0.4885897636554546</v>
       </c>
       <c r="K22">
-        <v>0.9534169868040578</v>
+        <v>0.67843443117318</v>
       </c>
       <c r="L22">
-        <v>0.08790600009611538</v>
+        <v>0.2392347161899764</v>
       </c>
       <c r="M22">
-        <v>1.465369695121211</v>
+        <v>0.2720139149260561</v>
       </c>
       <c r="N22">
-        <v>0.2633611734595149</v>
+        <v>0.07678295698323012</v>
       </c>
       <c r="O22">
-        <v>0.3419749844915145</v>
+        <v>1.510844814764482</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3000815546495232</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3496681976970493</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.473690581422005</v>
+        <v>1.438903308420066</v>
       </c>
       <c r="C23">
-        <v>0.170302283444272</v>
+        <v>0.1920229452213533</v>
       </c>
       <c r="D23">
-        <v>0.06236947863999376</v>
+        <v>0.08388166451817369</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.606897972446561</v>
+        <v>1.26030084652146</v>
       </c>
       <c r="G23">
-        <v>1.299122790558172</v>
+        <v>1.108211211834345</v>
       </c>
       <c r="H23">
-        <v>0.01038061857509585</v>
+        <v>0.008627099853235703</v>
       </c>
       <c r="I23">
-        <v>0.0124635150083785</v>
+        <v>0.009750545858773663</v>
       </c>
       <c r="J23">
-        <v>0.8456639935651111</v>
+        <v>0.5354301200784874</v>
       </c>
       <c r="K23">
-        <v>0.944662032921066</v>
+        <v>0.6891214674178769</v>
       </c>
       <c r="L23">
-        <v>0.08627400450847134</v>
+        <v>0.2450341942091789</v>
       </c>
       <c r="M23">
-        <v>1.411094566628293</v>
+        <v>0.2733172868570506</v>
       </c>
       <c r="N23">
-        <v>0.2547020776427615</v>
+        <v>0.07581226364168359</v>
       </c>
       <c r="O23">
-        <v>0.3297587913794757</v>
+        <v>1.458592145733803</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2902348227576823</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3367115301514616</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.263399172061412</v>
+        <v>1.230252328465411</v>
       </c>
       <c r="C24">
-        <v>0.1471653527125767</v>
+        <v>0.1698674634501174</v>
       </c>
       <c r="D24">
-        <v>0.05410752523586382</v>
+        <v>0.06712723131842324</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.505768976665834</v>
+        <v>1.254791046461719</v>
       </c>
       <c r="G24">
-        <v>1.214747239958413</v>
+        <v>0.9826873105893981</v>
       </c>
       <c r="H24">
-        <v>0.01553015239456434</v>
+        <v>0.01271827203334497</v>
       </c>
       <c r="I24">
-        <v>0.01797391101560031</v>
+        <v>0.01360117921332993</v>
       </c>
       <c r="J24">
-        <v>0.8134013825725503</v>
+        <v>0.6656241185008867</v>
       </c>
       <c r="K24">
-        <v>0.905894746766208</v>
+        <v>0.708439369718505</v>
       </c>
       <c r="L24">
-        <v>0.07976515002192741</v>
+        <v>0.2604975109659868</v>
       </c>
       <c r="M24">
-        <v>1.208077337986566</v>
+        <v>0.2698377125192195</v>
       </c>
       <c r="N24">
-        <v>0.2229298807814786</v>
+        <v>0.07158437767234815</v>
       </c>
       <c r="O24">
-        <v>0.2837914068412246</v>
+        <v>1.257255243715406</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2541988526611618</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2886012783308445</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.037221020067989</v>
+        <v>1.011733351473453</v>
       </c>
       <c r="C25">
-        <v>0.1228821741970023</v>
+        <v>0.1383515053365159</v>
       </c>
       <c r="D25">
-        <v>0.04530981478987428</v>
+        <v>0.05559122041680808</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.399874366334629</v>
+        <v>1.190987744971395</v>
       </c>
       <c r="G25">
-        <v>1.126682439051152</v>
+        <v>0.9295148647619129</v>
       </c>
       <c r="H25">
-        <v>0.02254643245993715</v>
+        <v>0.01850613167867798</v>
       </c>
       <c r="I25">
-        <v>0.02560492343230969</v>
+        <v>0.01927061643400307</v>
       </c>
       <c r="J25">
-        <v>0.7802975496511095</v>
+        <v>0.6563412827808293</v>
       </c>
       <c r="K25">
-        <v>0.8654043155639002</v>
+        <v>0.6959254024817625</v>
       </c>
       <c r="L25">
-        <v>0.07268885754831089</v>
+        <v>0.2655309179269061</v>
       </c>
       <c r="M25">
-        <v>0.9905751829088842</v>
+        <v>0.2547526545107743</v>
       </c>
       <c r="N25">
-        <v>0.1889768726158323</v>
+        <v>0.06625340776330901</v>
       </c>
       <c r="O25">
-        <v>0.2344673419730405</v>
+        <v>1.030841200829286</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2160627300773683</v>
       </c>
       <c r="Q25">
+        <v>0.2381771229775431</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
